--- a/data/Skills.xlsx
+++ b/data/Skills.xlsx
@@ -4405,7 +4405,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C790"/>
+  <dimension ref="A1:D790"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -4413,3731 +4413,3734 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>42</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>45</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>48</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>53</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>56</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>59</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>62</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>65</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>68</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>71</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>75</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>78</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>81</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>84</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>87</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>90</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>93</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>96</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>98</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>100</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>103</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>106</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>109</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>112</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>115</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>118</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>121</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>124</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>128</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>131</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>134</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>137</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>140</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>143</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>146</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>149</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>152</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>155</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>158</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>161</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>164</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>167</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>170</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>173</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>176</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>179</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>182</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>185</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>188</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>191</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>194</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>197</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>200</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>203</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>206</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>209</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>212</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>215</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>219</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>222</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>225</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>229</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>232</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>235</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>237</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>241</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>244</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>247</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>251</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>255</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>258</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>261</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>264</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>267</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>270</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>272</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>275</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>278</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>281</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>284</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>286</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>289</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>292</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>294</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>297</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>300</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>303</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>306</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>308</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>311</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>314</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>317</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>320</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>323</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>326</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>329</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>332</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>335</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>338</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>341</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>344</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>347</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>350</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>353</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>357</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>360</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>363</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>366</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>369</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>372</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>375</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>378</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>381</v>
       </c>
-      <c r="C258" t="s">
+      <c r="D258" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>384</v>
       </c>
-      <c r="C260" t="s">
+      <c r="D260" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>387</v>
       </c>
-      <c r="C262" t="s">
+      <c r="D262" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>390</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>393</v>
       </c>
-      <c r="C266" t="s">
+      <c r="D266" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>396</v>
       </c>
-      <c r="C268" t="s">
+      <c r="D268" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>399</v>
       </c>
-      <c r="C270" t="s">
+      <c r="D270" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>402</v>
       </c>
-      <c r="C272" t="s">
+      <c r="D272" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>405</v>
       </c>
-      <c r="C274" t="s">
+      <c r="D274" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>408</v>
       </c>
-      <c r="C276" t="s">
+      <c r="D276" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>411</v>
       </c>
-      <c r="C278" t="s">
+      <c r="D278" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>414</v>
       </c>
-      <c r="C280" t="s">
+      <c r="D280" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>417</v>
       </c>
-      <c r="C282" t="s">
+      <c r="D282" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>420</v>
       </c>
-      <c r="C284" t="s">
+      <c r="D284" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>423</v>
       </c>
-      <c r="C286" t="s">
+      <c r="D286" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>426</v>
       </c>
-      <c r="C288" t="s">
+      <c r="D288" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>429</v>
       </c>
-      <c r="C290" t="s">
+      <c r="D290" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>432</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>435</v>
       </c>
-      <c r="C294" t="s">
+      <c r="D294" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>438</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>441</v>
       </c>
-      <c r="C298" t="s">
+      <c r="D298" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>444</v>
       </c>
-      <c r="C300" t="s">
+      <c r="D300" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>447</v>
       </c>
-      <c r="C302" t="s">
+      <c r="D302" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>450</v>
       </c>
-      <c r="C304" t="s">
+      <c r="D304" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>453</v>
       </c>
-      <c r="C306" t="s">
+      <c r="D306" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>456</v>
       </c>
-      <c r="C308" t="s">
+      <c r="D308" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>459</v>
       </c>
-      <c r="C310" t="s">
+      <c r="D310" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>462</v>
       </c>
-      <c r="C312" t="s">
+      <c r="D312" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>465</v>
       </c>
-      <c r="C314" t="s">
+      <c r="D314" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>468</v>
       </c>
-      <c r="C316" t="s">
+      <c r="D316" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>471</v>
       </c>
-      <c r="C318" t="s">
+      <c r="D318" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>474</v>
       </c>
-      <c r="C320" t="s">
+      <c r="D320" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>477</v>
       </c>
-      <c r="C322" t="s">
+      <c r="D322" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
         <v>480</v>
       </c>
-      <c r="C324" t="s">
+      <c r="D324" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
         <v>483</v>
       </c>
-      <c r="C326" t="s">
+      <c r="D326" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
         <v>486</v>
       </c>
-      <c r="C328" t="s">
+      <c r="D328" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
         <v>489</v>
       </c>
-      <c r="C330" t="s">
+      <c r="D330" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>492</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
         <v>495</v>
       </c>
-      <c r="C334" t="s">
+      <c r="D334" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>498</v>
       </c>
-      <c r="C336" t="s">
+      <c r="D336" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:4">
       <c r="A337" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:4">
       <c r="A338" t="s">
         <v>501</v>
       </c>
-      <c r="C338" t="s">
+      <c r="D338" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:4">
       <c r="A339" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:4">
       <c r="A340" t="s">
         <v>504</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
         <v>507</v>
       </c>
-      <c r="C342" t="s">
+      <c r="D342" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:4">
       <c r="A343" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:4">
       <c r="A345" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:4">
       <c r="A346" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:4">
       <c r="A347" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:4">
       <c r="A348" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:4">
       <c r="A349" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:4">
       <c r="A350" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:4">
       <c r="A351" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:4">
       <c r="A352" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:4">
       <c r="A353" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:4">
       <c r="A354" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:4">
       <c r="A355" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:4">
       <c r="A356" t="s">
         <v>522</v>
       </c>
-      <c r="C356" t="s">
+      <c r="D356" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:4">
       <c r="A357" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:4">
       <c r="A358" t="s">
         <v>525</v>
       </c>
-      <c r="C358" t="s">
+      <c r="D358" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:4">
       <c r="A359" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:4">
       <c r="A360" t="s">
         <v>528</v>
       </c>
-      <c r="C360" t="s">
+      <c r="D360" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:4">
       <c r="A361" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:4">
       <c r="A362" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:4">
       <c r="A363" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:4">
       <c r="A364" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:4">
       <c r="A365" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:4">
       <c r="A366" t="s">
         <v>535</v>
       </c>
-      <c r="C366" t="s">
+      <c r="D366" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:4">
       <c r="A367" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:4">
       <c r="A368" t="s">
         <v>538</v>
       </c>
-      <c r="C368" t="s">
+      <c r="D368" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:4">
       <c r="A369" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:4">
       <c r="A370" t="s">
         <v>541</v>
       </c>
-      <c r="C370" t="s">
+      <c r="D370" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:4">
       <c r="A371" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:4">
       <c r="A372" t="s">
         <v>544</v>
       </c>
-      <c r="C372" t="s">
+      <c r="D372" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:4">
       <c r="A373" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:4">
       <c r="A374" t="s">
         <v>547</v>
       </c>
-      <c r="C374" t="s">
+      <c r="D374" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:4">
       <c r="A375" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:4">
       <c r="A376" t="s">
         <v>550</v>
       </c>
-      <c r="C376" t="s">
+      <c r="D376" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:4">
       <c r="A377" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:4">
       <c r="A378" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:4">
       <c r="A379" t="s">
         <v>554</v>
       </c>
-      <c r="C379" t="s">
+      <c r="D379" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:4">
       <c r="A380" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:4">
       <c r="A381" t="s">
         <v>557</v>
       </c>
-      <c r="C381" t="s">
+      <c r="D381" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:4">
       <c r="A382" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:4">
       <c r="A383" t="s">
         <v>560</v>
       </c>
-      <c r="C383" t="s">
+      <c r="D383" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:4">
       <c r="A384" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:4">
       <c r="A385" t="s">
         <v>563</v>
       </c>
-      <c r="C385" t="s">
+      <c r="D385" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:4">
       <c r="A386" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:4">
       <c r="A387" t="s">
         <v>566</v>
       </c>
-      <c r="C387" t="s">
+      <c r="D387" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:4">
       <c r="A388" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:4">
       <c r="A389" t="s">
         <v>569</v>
       </c>
-      <c r="C389" t="s">
+      <c r="D389" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:4">
       <c r="A390" t="s">
         <v>571</v>
       </c>
-      <c r="C390" t="s">
+      <c r="D390" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:4">
       <c r="A391" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:4">
       <c r="A392" t="s">
         <v>574</v>
       </c>
-      <c r="C392" t="s">
+      <c r="D392" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:4">
       <c r="A393" t="s">
         <v>576</v>
       </c>
-      <c r="C393" t="s">
+      <c r="D393" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:4">
       <c r="A394" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:4">
       <c r="A395" t="s">
         <v>579</v>
       </c>
-      <c r="C395" t="s">
+      <c r="D395" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:4">
       <c r="A396" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:4">
       <c r="A397" t="s">
         <v>582</v>
       </c>
-      <c r="C397" t="s">
+      <c r="D397" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:4">
       <c r="A398" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:4">
       <c r="A399" t="s">
         <v>585</v>
       </c>
-      <c r="C399" t="s">
+      <c r="D399" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:4">
       <c r="A400" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:4">
       <c r="A401" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:4">
       <c r="A402" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:4">
       <c r="A403" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:4">
       <c r="A404" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:4">
       <c r="A405" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:4">
       <c r="A406" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:4">
       <c r="A407" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:4">
       <c r="A408" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:4">
       <c r="A409" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:4">
       <c r="A410" t="s">
         <v>597</v>
       </c>
-      <c r="C410" t="s">
+      <c r="D410" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:4">
       <c r="A411" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:4">
       <c r="A412" t="s">
         <v>600</v>
       </c>
-      <c r="C412" t="s">
+      <c r="D412" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:4">
       <c r="A413" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:4">
       <c r="A414" t="s">
         <v>603</v>
       </c>
-      <c r="C414" t="s">
+      <c r="D414" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:4">
       <c r="A415" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:4">
       <c r="A416" t="s">
         <v>606</v>
       </c>
-      <c r="C416" t="s">
+      <c r="D416" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:4">
       <c r="A417" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:4">
       <c r="A418" t="s">
         <v>609</v>
       </c>
-      <c r="C418" t="s">
+      <c r="D418" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:4">
       <c r="A419" t="s">
         <v>611</v>
       </c>
-      <c r="C419" t="s">
+      <c r="D419" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:4">
       <c r="A420" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:4">
       <c r="A421" t="s">
         <v>614</v>
       </c>
-      <c r="C421" t="s">
+      <c r="D421" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:4">
       <c r="A422" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:4">
       <c r="A423" t="s">
         <v>617</v>
       </c>
-      <c r="C423" t="s">
+      <c r="D423" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:4">
       <c r="A424" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:4">
       <c r="A425" t="s">
         <v>620</v>
       </c>
-      <c r="C425" t="s">
+      <c r="D425" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:4">
       <c r="A426" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:4">
       <c r="A427" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:4">
       <c r="A428" t="s">
         <v>624</v>
       </c>
-      <c r="C428" t="s">
+      <c r="D428" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:4">
       <c r="A429" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:4">
       <c r="A430" t="s">
         <v>627</v>
       </c>
-      <c r="C430" t="s">
+      <c r="D430" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:4">
       <c r="A431" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:4">
       <c r="A432" t="s">
         <v>630</v>
       </c>
-      <c r="C432" t="s">
+      <c r="D432" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:4">
       <c r="A433" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:4">
       <c r="A434" t="s">
         <v>633</v>
       </c>
-      <c r="C434" t="s">
+      <c r="D434" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:4">
       <c r="A435" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:4">
       <c r="A436" t="s">
         <v>636</v>
       </c>
-      <c r="C436" t="s">
+      <c r="D436" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:4">
       <c r="A437" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:4">
       <c r="A438" t="s">
         <v>639</v>
       </c>
-      <c r="C438" t="s">
+      <c r="D438" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:4">
       <c r="A439" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:4">
       <c r="A440" t="s">
         <v>642</v>
       </c>
-      <c r="C440" t="s">
+      <c r="D440" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:4">
       <c r="A441" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:4">
       <c r="A442" t="s">
         <v>645</v>
       </c>
-      <c r="C442" t="s">
+      <c r="D442" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:4">
       <c r="A443" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:4">
       <c r="A444" t="s">
         <v>648</v>
       </c>
-      <c r="C444" t="s">
+      <c r="D444" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:4">
       <c r="A445" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:4">
       <c r="A446" t="s">
         <v>651</v>
       </c>
-      <c r="C446" t="s">
+      <c r="D446" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:4">
       <c r="A447" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:4">
       <c r="A448" t="s">
         <v>654</v>
       </c>
-      <c r="C448" t="s">
+      <c r="D448" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:4">
       <c r="A449" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:4">
       <c r="A450" t="s">
         <v>657</v>
       </c>
-      <c r="C450" t="s">
+      <c r="D450" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:4">
       <c r="A451" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:4">
       <c r="A452" t="s">
         <v>660</v>
       </c>
-      <c r="C452" t="s">
+      <c r="D452" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:4">
       <c r="A453" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:4">
       <c r="A454" t="s">
         <v>663</v>
       </c>
-      <c r="C454" t="s">
+      <c r="D454" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:4">
       <c r="A455" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:4">
       <c r="A456" t="s">
         <v>666</v>
       </c>
-      <c r="C456" t="s">
+      <c r="D456" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:4">
       <c r="A457" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:4">
       <c r="A458" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:4">
       <c r="A459" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:4">
       <c r="A460" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:4">
       <c r="A461" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:4">
       <c r="A462" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:4">
       <c r="A463" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:4">
       <c r="A464" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:4">
       <c r="A465" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:4">
       <c r="A466" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:4">
       <c r="A467" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:4">
       <c r="A468" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:4">
       <c r="A469" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:4">
       <c r="A470" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:4">
       <c r="A471" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:4">
       <c r="A472" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:4">
       <c r="A473" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:4">
       <c r="A474" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:4">
       <c r="A475" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:4">
       <c r="A476" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:4">
       <c r="A477" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:4">
       <c r="A478" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:4">
       <c r="A479" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:4">
       <c r="A480" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:4">
       <c r="A481" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:4">
       <c r="A482" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:4">
       <c r="A483" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:4">
       <c r="A484" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:4">
       <c r="A485" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:4">
       <c r="A486" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:4">
       <c r="A487" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:4">
       <c r="A488" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:4">
       <c r="A489" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:4">
       <c r="A490" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:4">
       <c r="A491" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:4">
       <c r="A492" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:4">
       <c r="A493" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:4">
       <c r="A494" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:4">
       <c r="A495" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:4">
       <c r="A496" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:4">
       <c r="A497" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:4">
       <c r="A498" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:4">
       <c r="A499" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:4">
       <c r="A500" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:4">
       <c r="A501" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:4">
       <c r="A502" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:4">
       <c r="A503" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:4">
       <c r="A504" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:4">
       <c r="A505" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:4">
       <c r="A506" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:4">
       <c r="A507" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:4">
       <c r="A508" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:4">
       <c r="A509" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:4">
       <c r="A510" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:4">
       <c r="A511" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:4">
       <c r="A512" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:4">
       <c r="A513" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:4">
       <c r="A514" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:4">
       <c r="A515" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:4">
       <c r="A516" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:4">
       <c r="A517" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:4">
       <c r="A518" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:4">
       <c r="A519" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:4">
       <c r="A520" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:4">
       <c r="A521" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:4">
       <c r="A522" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:4">
       <c r="A523" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:4">
       <c r="A524" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:4">
       <c r="A525" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:4">
       <c r="A526" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:4">
       <c r="A527" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:4">
       <c r="A528" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:4">
       <c r="A529" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:4">
       <c r="A530" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:4">
       <c r="A531" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:4">
       <c r="A532" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:4">
       <c r="A533" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:4">
       <c r="A534" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:4">
       <c r="A535" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:4">
       <c r="A536" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:4">
       <c r="A537" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:4">
       <c r="A538" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:4">
       <c r="A539" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:4">
       <c r="A540" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:4">
       <c r="A541" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:4">
       <c r="A542" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:4">
       <c r="A543" t="s">
         <v>754</v>
       </c>
       <c r="B543" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="544" spans="1:3">
+      <c r="D543" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
       <c r="A544" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:4">
       <c r="A545" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:4">
       <c r="A546" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" spans="1:4">
       <c r="A547" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" spans="1:4">
       <c r="A548" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:4">
       <c r="A549" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:4">
       <c r="A550" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:4">
       <c r="A551" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" spans="1:4">
       <c r="A552" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" spans="1:4">
       <c r="A553" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="554" spans="1:3">
+    <row r="554" spans="1:4">
       <c r="A554" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:4">
       <c r="A555" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:4">
       <c r="A556" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" spans="1:4">
       <c r="A557" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="558" spans="1:3">
+    <row r="558" spans="1:4">
       <c r="A558" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="559" spans="1:3">
+    <row r="559" spans="1:4">
       <c r="A559" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="560" spans="1:3">
+    <row r="560" spans="1:4">
       <c r="A560" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" spans="1:4">
       <c r="A561" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:4">
       <c r="A562" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" spans="1:4">
       <c r="A563" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" spans="1:4">
       <c r="A564" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" spans="1:4">
       <c r="A565" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" spans="1:4">
       <c r="A566" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" spans="1:4">
       <c r="A567" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="568" spans="1:3">
+    <row r="568" spans="1:4">
       <c r="A568" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="569" spans="1:3">
+    <row r="569" spans="1:4">
       <c r="A569" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:4">
       <c r="A570" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" spans="1:4">
       <c r="A571" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:4">
       <c r="A572" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="573" spans="1:3">
+    <row r="573" spans="1:4">
       <c r="A573" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:4">
       <c r="A574" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="575" spans="1:3">
+    <row r="575" spans="1:4">
       <c r="A575" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="576" spans="1:3">
+    <row r="576" spans="1:4">
       <c r="A576" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:4">
       <c r="A577" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:4">
       <c r="A578" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:4">
       <c r="A579" t="s">
         <v>791</v>
       </c>
       <c r="B579" t="s">
         <v>792</v>
       </c>
-      <c r="C579" t="s">
+      <c r="D579" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:4">
       <c r="A580" t="s">
         <v>793</v>
       </c>
       <c r="B580" t="s">
         <v>794</v>
       </c>
-      <c r="C580" t="s">
+      <c r="D580" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:4">
       <c r="A581" t="s">
         <v>795</v>
       </c>
       <c r="B581" t="s">
         <v>796</v>
       </c>
-      <c r="C581" t="s">
+      <c r="D581" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:4">
       <c r="A582" t="s">
         <v>797</v>
       </c>
       <c r="B582" t="s">
         <v>798</v>
       </c>
-      <c r="C582" t="s">
+      <c r="D582" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:4">
       <c r="A583" t="s">
         <v>799</v>
       </c>
       <c r="B583" t="s">
         <v>800</v>
       </c>
-      <c r="C583" t="s">
+      <c r="D583" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:4">
       <c r="A584" t="s">
         <v>801</v>
       </c>
       <c r="B584" t="s">
         <v>802</v>
       </c>
-      <c r="C584" t="s">
+      <c r="D584" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:4">
       <c r="A585" t="s">
         <v>803</v>
       </c>
       <c r="B585" t="s">
         <v>804</v>
       </c>
-      <c r="C585" t="s">
+      <c r="D585" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:4">
       <c r="A586" t="s">
         <v>805</v>
       </c>
       <c r="B586" t="s">
         <v>806</v>
       </c>
-      <c r="C586" t="s">
+      <c r="D586" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:4">
       <c r="A587" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:4">
       <c r="A588" t="s">
         <v>808</v>
       </c>
       <c r="B588" t="s">
         <v>809</v>
       </c>
-      <c r="C588" t="s">
+      <c r="D588" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:4">
       <c r="A589" t="s">
         <v>810</v>
       </c>
       <c r="B589" t="s">
         <v>811</v>
       </c>
-      <c r="C589" t="s">
+      <c r="D589" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:4">
       <c r="A590" t="s">
         <v>812</v>
       </c>
       <c r="B590" t="s">
         <v>813</v>
       </c>
-      <c r="C590" t="s">
+      <c r="D590" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" spans="1:4">
       <c r="A591" t="s">
         <v>814</v>
       </c>
       <c r="B591" t="s">
         <v>815</v>
       </c>
-      <c r="C591" t="s">
+      <c r="D591" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:4">
       <c r="A592" t="s">
         <v>816</v>
       </c>
       <c r="B592" t="s">
         <v>817</v>
       </c>
-      <c r="C592" t="s">
+      <c r="D592" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:4">
       <c r="A593" t="s">
         <v>818</v>
       </c>
       <c r="B593" t="s">
         <v>819</v>
       </c>
-      <c r="C593" t="s">
+      <c r="D593" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="594" spans="1:3">
+    <row r="594" spans="1:4">
       <c r="A594" t="s">
         <v>820</v>
       </c>
       <c r="B594" t="s">
         <v>821</v>
       </c>
-      <c r="C594" t="s">
+      <c r="D594" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:4">
       <c r="A595" t="s">
         <v>822</v>
       </c>
       <c r="B595" t="s">
         <v>823</v>
       </c>
-      <c r="C595" t="s">
+      <c r="D595" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" spans="1:4">
       <c r="A596" t="s">
         <v>824</v>
       </c>
       <c r="B596" t="s">
         <v>825</v>
       </c>
-      <c r="C596" t="s">
+      <c r="D596" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" spans="1:4">
       <c r="A597" t="s">
         <v>826</v>
       </c>
@@ -8145,7 +8148,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" spans="1:4">
       <c r="A598" t="s">
         <v>828</v>
       </c>
@@ -8153,7 +8156,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" spans="1:4">
       <c r="A599" t="s">
         <v>830</v>
       </c>
@@ -8161,7 +8164,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:4">
       <c r="A600" t="s">
         <v>832</v>
       </c>
@@ -8169,7 +8172,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:4">
       <c r="A601" t="s">
         <v>834</v>
       </c>
@@ -8177,7 +8180,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:4">
       <c r="A602" t="s">
         <v>836</v>
       </c>
@@ -8185,7 +8188,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" spans="1:4">
       <c r="A603" t="s">
         <v>838</v>
       </c>
@@ -8193,7 +8196,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="604" spans="1:3">
+    <row r="604" spans="1:4">
       <c r="A604" t="s">
         <v>840</v>
       </c>
@@ -8201,7 +8204,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:4">
       <c r="A605" t="s">
         <v>842</v>
       </c>
@@ -8209,7 +8212,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:4">
       <c r="A606" t="s">
         <v>844</v>
       </c>
@@ -8217,7 +8220,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="607" spans="1:3">
+    <row r="607" spans="1:4">
       <c r="A607" t="s">
         <v>846</v>
       </c>
@@ -8225,7 +8228,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" spans="1:4">
       <c r="A608" t="s">
         <v>848</v>
       </c>
@@ -8233,7 +8236,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="609" spans="1:3">
+    <row r="609" spans="1:4">
       <c r="A609" t="s">
         <v>850</v>
       </c>
@@ -8241,7 +8244,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="610" spans="1:3">
+    <row r="610" spans="1:4">
       <c r="A610" t="s">
         <v>852</v>
       </c>
@@ -8249,7 +8252,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="611" spans="1:3">
+    <row r="611" spans="1:4">
       <c r="A611" t="s">
         <v>854</v>
       </c>
@@ -8257,7 +8260,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="612" spans="1:3">
+    <row r="612" spans="1:4">
       <c r="A612" t="s">
         <v>856</v>
       </c>
@@ -8265,7 +8268,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="613" spans="1:3">
+    <row r="613" spans="1:4">
       <c r="A613" t="s">
         <v>858</v>
       </c>
@@ -8273,7 +8276,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="614" spans="1:3">
+    <row r="614" spans="1:4">
       <c r="A614" t="s">
         <v>860</v>
       </c>
@@ -8281,7 +8284,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="615" spans="1:3">
+    <row r="615" spans="1:4">
       <c r="A615" t="s">
         <v>862</v>
       </c>
@@ -8289,7 +8292,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="616" spans="1:3">
+    <row r="616" spans="1:4">
       <c r="A616" t="s">
         <v>864</v>
       </c>
@@ -8297,7 +8300,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="617" spans="1:3">
+    <row r="617" spans="1:4">
       <c r="A617" t="s">
         <v>866</v>
       </c>
@@ -8305,7 +8308,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="618" spans="1:3">
+    <row r="618" spans="1:4">
       <c r="A618" t="s">
         <v>868</v>
       </c>
@@ -8313,7 +8316,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="619" spans="1:3">
+    <row r="619" spans="1:4">
       <c r="A619" t="s">
         <v>870</v>
       </c>
@@ -8321,7 +8324,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="620" spans="1:3">
+    <row r="620" spans="1:4">
       <c r="A620" t="s">
         <v>872</v>
       </c>
@@ -8329,7 +8332,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="621" spans="1:3">
+    <row r="621" spans="1:4">
       <c r="A621" t="s">
         <v>874</v>
       </c>
@@ -8337,7 +8340,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="622" spans="1:3">
+    <row r="622" spans="1:4">
       <c r="A622" t="s">
         <v>876</v>
       </c>
@@ -8345,7 +8348,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="623" spans="1:3">
+    <row r="623" spans="1:4">
       <c r="A623" t="s">
         <v>878</v>
       </c>
@@ -8353,7 +8356,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="624" spans="1:3">
+    <row r="624" spans="1:4">
       <c r="A624" t="s">
         <v>880</v>
       </c>
@@ -8361,7 +8364,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="625" spans="1:3">
+    <row r="625" spans="1:4">
       <c r="A625" t="s">
         <v>882</v>
       </c>
@@ -8369,7 +8372,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="626" spans="1:3">
+    <row r="626" spans="1:4">
       <c r="A626" t="s">
         <v>884</v>
       </c>
@@ -8377,7 +8380,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="627" spans="1:3">
+    <row r="627" spans="1:4">
       <c r="A627" t="s">
         <v>886</v>
       </c>
@@ -8385,7 +8388,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="628" spans="1:3">
+    <row r="628" spans="1:4">
       <c r="A628" t="s">
         <v>888</v>
       </c>
@@ -8393,7 +8396,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="629" spans="1:3">
+    <row r="629" spans="1:4">
       <c r="A629" t="s">
         <v>890</v>
       </c>
@@ -8401,7 +8404,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="630" spans="1:3">
+    <row r="630" spans="1:4">
       <c r="A630" t="s">
         <v>892</v>
       </c>
@@ -8409,7 +8412,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="631" spans="1:3">
+    <row r="631" spans="1:4">
       <c r="A631" t="s">
         <v>894</v>
       </c>
@@ -8417,7 +8420,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="632" spans="1:3">
+    <row r="632" spans="1:4">
       <c r="A632" t="s">
         <v>896</v>
       </c>
@@ -8425,7 +8428,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="633" spans="1:3">
+    <row r="633" spans="1:4">
       <c r="A633" t="s">
         <v>898</v>
       </c>
@@ -8433,7 +8436,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="634" spans="1:3">
+    <row r="634" spans="1:4">
       <c r="A634" t="s">
         <v>900</v>
       </c>
@@ -8441,7 +8444,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="635" spans="1:3">
+    <row r="635" spans="1:4">
       <c r="A635" t="s">
         <v>902</v>
       </c>
@@ -8449,7 +8452,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="636" spans="1:3">
+    <row r="636" spans="1:4">
       <c r="A636" t="s">
         <v>904</v>
       </c>
@@ -8457,7 +8460,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="637" spans="1:3">
+    <row r="637" spans="1:4">
       <c r="A637" t="s">
         <v>906</v>
       </c>
@@ -8465,7 +8468,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="638" spans="1:3">
+    <row r="638" spans="1:4">
       <c r="A638" t="s">
         <v>908</v>
       </c>
@@ -8473,7 +8476,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="639" spans="1:3">
+    <row r="639" spans="1:4">
       <c r="A639" t="s">
         <v>910</v>
       </c>
@@ -8481,507 +8484,507 @@
         <v>911</v>
       </c>
     </row>
-    <row r="640" spans="1:3">
+    <row r="640" spans="1:4">
       <c r="A640" t="s">
         <v>912</v>
       </c>
       <c r="B640" t="s">
         <v>913</v>
       </c>
-      <c r="C640" t="s">
+      <c r="D640" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="641" spans="1:3">
+    <row r="641" spans="1:4">
       <c r="A641" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="642" spans="1:3">
+    <row r="642" spans="1:4">
       <c r="A642" t="s">
         <v>916</v>
       </c>
       <c r="B642" t="s">
         <v>917</v>
       </c>
-      <c r="C642" t="s">
+      <c r="D642" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="643" spans="1:3">
+    <row r="643" spans="1:4">
       <c r="A643" t="s">
         <v>918</v>
       </c>
       <c r="B643" t="s">
         <v>919</v>
       </c>
-      <c r="C643" t="s">
+      <c r="D643" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="644" spans="1:3">
+    <row r="644" spans="1:4">
       <c r="A644" t="s">
         <v>921</v>
       </c>
       <c r="B644" t="s">
         <v>922</v>
       </c>
-      <c r="C644" t="s">
+      <c r="D644" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="645" spans="1:3">
+    <row r="645" spans="1:4">
       <c r="A645" t="s">
         <v>924</v>
       </c>
       <c r="B645" t="s">
         <v>925</v>
       </c>
-      <c r="C645" t="s">
+      <c r="D645" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="646" spans="1:3">
+    <row r="646" spans="1:4">
       <c r="A646" t="s">
         <v>926</v>
       </c>
       <c r="B646" t="s">
         <v>927</v>
       </c>
-      <c r="C646" t="s">
+      <c r="D646" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="647" spans="1:3">
+    <row r="647" spans="1:4">
       <c r="A647" t="s">
         <v>929</v>
       </c>
       <c r="B647" t="s">
         <v>930</v>
       </c>
-      <c r="C647" t="s">
+      <c r="D647" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="648" spans="1:3">
+    <row r="648" spans="1:4">
       <c r="A648" t="s">
         <v>932</v>
       </c>
       <c r="B648" t="s">
         <v>933</v>
       </c>
-      <c r="C648" t="s">
+      <c r="D648" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="649" spans="1:3">
+    <row r="649" spans="1:4">
       <c r="A649" t="s">
         <v>934</v>
       </c>
       <c r="B649" t="s">
         <v>935</v>
       </c>
-      <c r="C649" t="s">
+      <c r="D649" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="650" spans="1:3">
+    <row r="650" spans="1:4">
       <c r="A650" t="s">
         <v>937</v>
       </c>
       <c r="B650" t="s">
         <v>938</v>
       </c>
-      <c r="C650" t="s">
+      <c r="D650" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="651" spans="1:3">
+    <row r="651" spans="1:4">
       <c r="A651" t="s">
         <v>940</v>
       </c>
       <c r="B651" t="s">
         <v>941</v>
       </c>
-      <c r="C651" t="s">
+      <c r="D651" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="652" spans="1:3">
+    <row r="652" spans="1:4">
       <c r="A652" t="s">
         <v>942</v>
       </c>
       <c r="B652" t="s">
         <v>943</v>
       </c>
-      <c r="C652" t="s">
+      <c r="D652" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="653" spans="1:3">
+    <row r="653" spans="1:4">
       <c r="A653" t="s">
         <v>945</v>
       </c>
       <c r="B653" t="s">
         <v>946</v>
       </c>
-      <c r="C653" t="s">
+      <c r="D653" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="654" spans="1:3">
+    <row r="654" spans="1:4">
       <c r="A654" t="s">
         <v>948</v>
       </c>
       <c r="B654" t="s">
         <v>949</v>
       </c>
-      <c r="C654" t="s">
+      <c r="D654" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="655" spans="1:3">
+    <row r="655" spans="1:4">
       <c r="A655" t="s">
         <v>950</v>
       </c>
       <c r="B655" t="s">
         <v>951</v>
       </c>
-      <c r="C655" t="s">
+      <c r="D655" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="656" spans="1:3">
+    <row r="656" spans="1:4">
       <c r="A656" t="s">
         <v>952</v>
       </c>
       <c r="B656" t="s">
         <v>953</v>
       </c>
-      <c r="C656" t="s">
+      <c r="D656" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="657" spans="1:3">
+    <row r="657" spans="1:4">
       <c r="A657" t="s">
         <v>955</v>
       </c>
       <c r="B657" t="s">
         <v>956</v>
       </c>
-      <c r="C657" t="s">
+      <c r="D657" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="658" spans="1:3">
+    <row r="658" spans="1:4">
       <c r="A658" t="s">
         <v>957</v>
       </c>
       <c r="B658" t="s">
         <v>958</v>
       </c>
-      <c r="C658" t="s">
+      <c r="D658" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="659" spans="1:3">
+    <row r="659" spans="1:4">
       <c r="A659" t="s">
         <v>959</v>
       </c>
       <c r="B659" t="s">
         <v>960</v>
       </c>
-      <c r="C659" t="s">
+      <c r="D659" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="660" spans="1:3">
+    <row r="660" spans="1:4">
       <c r="A660" t="s">
         <v>962</v>
       </c>
       <c r="B660" t="s">
         <v>963</v>
       </c>
-      <c r="C660" t="s">
+      <c r="D660" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="661" spans="1:3">
+    <row r="661" spans="1:4">
       <c r="A661" t="s">
         <v>965</v>
       </c>
       <c r="B661" t="s">
         <v>966</v>
       </c>
-      <c r="C661" t="s">
+      <c r="D661" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="662" spans="1:3">
+    <row r="662" spans="1:4">
       <c r="A662" t="s">
         <v>967</v>
       </c>
       <c r="B662" t="s">
         <v>968</v>
       </c>
-      <c r="C662" t="s">
+      <c r="D662" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="663" spans="1:3">
+    <row r="663" spans="1:4">
       <c r="A663" t="s">
         <v>970</v>
       </c>
       <c r="B663" t="s">
         <v>971</v>
       </c>
-      <c r="C663" t="s">
+      <c r="D663" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="664" spans="1:3">
+    <row r="664" spans="1:4">
       <c r="A664" t="s">
         <v>973</v>
       </c>
       <c r="B664" t="s">
         <v>974</v>
       </c>
-      <c r="C664" t="s">
+      <c r="D664" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="665" spans="1:3">
+    <row r="665" spans="1:4">
       <c r="A665" t="s">
         <v>975</v>
       </c>
       <c r="B665" t="s">
         <v>976</v>
       </c>
-      <c r="C665" t="s">
+      <c r="D665" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="666" spans="1:3">
+    <row r="666" spans="1:4">
       <c r="A666" t="s">
         <v>978</v>
       </c>
       <c r="B666" t="s">
         <v>979</v>
       </c>
-      <c r="C666" t="s">
+      <c r="D666" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="667" spans="1:3">
+    <row r="667" spans="1:4">
       <c r="A667" t="s">
         <v>981</v>
       </c>
       <c r="B667" t="s">
         <v>982</v>
       </c>
-      <c r="C667" t="s">
+      <c r="D667" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="668" spans="1:3">
+    <row r="668" spans="1:4">
       <c r="A668" t="s">
         <v>983</v>
       </c>
       <c r="B668" t="s">
         <v>984</v>
       </c>
-      <c r="C668" t="s">
+      <c r="D668" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="669" spans="1:3">
+    <row r="669" spans="1:4">
       <c r="A669" t="s">
         <v>986</v>
       </c>
       <c r="B669" t="s">
         <v>987</v>
       </c>
-      <c r="C669" t="s">
+      <c r="D669" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="670" spans="1:3">
+    <row r="670" spans="1:4">
       <c r="A670" t="s">
         <v>988</v>
       </c>
       <c r="B670" t="s">
         <v>989</v>
       </c>
-      <c r="C670" t="s">
+      <c r="D670" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="671" spans="1:3">
+    <row r="671" spans="1:4">
       <c r="A671" t="s">
         <v>990</v>
       </c>
       <c r="B671" t="s">
         <v>991</v>
       </c>
-      <c r="C671" t="s">
+      <c r="D671" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="672" spans="1:3">
+    <row r="672" spans="1:4">
       <c r="A672" t="s">
         <v>993</v>
       </c>
       <c r="B672" t="s">
         <v>994</v>
       </c>
-      <c r="C672" t="s">
+      <c r="D672" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="673" spans="1:3">
+    <row r="673" spans="1:4">
       <c r="A673" t="s">
         <v>995</v>
       </c>
       <c r="B673" t="s">
         <v>996</v>
       </c>
-      <c r="C673" t="s">
+      <c r="D673" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="674" spans="1:3">
+    <row r="674" spans="1:4">
       <c r="A674" t="s">
         <v>997</v>
       </c>
       <c r="B674" t="s">
         <v>998</v>
       </c>
-      <c r="C674" t="s">
+      <c r="D674" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="675" spans="1:3">
+    <row r="675" spans="1:4">
       <c r="A675" t="s">
         <v>999</v>
       </c>
       <c r="B675" t="s">
         <v>1000</v>
       </c>
-      <c r="C675" t="s">
+      <c r="D675" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="676" spans="1:3">
+    <row r="676" spans="1:4">
       <c r="A676" t="s">
         <v>1001</v>
       </c>
       <c r="B676" t="s">
         <v>1002</v>
       </c>
-      <c r="C676" t="s">
+      <c r="D676" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="677" spans="1:3">
+    <row r="677" spans="1:4">
       <c r="A677" t="s">
         <v>1003</v>
       </c>
       <c r="B677" t="s">
         <v>1004</v>
       </c>
-      <c r="C677" t="s">
+      <c r="D677" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="678" spans="1:3">
+    <row r="678" spans="1:4">
       <c r="A678" t="s">
         <v>1006</v>
       </c>
       <c r="B678" t="s">
         <v>1007</v>
       </c>
-      <c r="C678" t="s">
+      <c r="D678" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="679" spans="1:3">
+    <row r="679" spans="1:4">
       <c r="A679" t="s">
         <v>1008</v>
       </c>
       <c r="B679" t="s">
         <v>1009</v>
       </c>
-      <c r="C679" t="s">
+      <c r="D679" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="680" spans="1:3">
+    <row r="680" spans="1:4">
       <c r="A680" t="s">
         <v>1010</v>
       </c>
       <c r="B680" t="s">
         <v>1011</v>
       </c>
-      <c r="C680" t="s">
+      <c r="D680" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="681" spans="1:3">
+    <row r="681" spans="1:4">
       <c r="A681" t="s">
         <v>1013</v>
       </c>
       <c r="B681" t="s">
         <v>1014</v>
       </c>
-      <c r="C681" t="s">
+      <c r="D681" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="682" spans="1:3">
+    <row r="682" spans="1:4">
       <c r="A682" t="s">
         <v>1015</v>
       </c>
       <c r="B682" t="s">
         <v>1016</v>
       </c>
-      <c r="C682" t="s">
+      <c r="D682" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="683" spans="1:3">
+    <row r="683" spans="1:4">
       <c r="A683" t="s">
         <v>1017</v>
       </c>
       <c r="B683" t="s">
         <v>1018</v>
       </c>
-      <c r="C683" t="s">
+      <c r="D683" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="684" spans="1:3">
+    <row r="684" spans="1:4">
       <c r="A684" t="s">
         <v>1020</v>
       </c>
       <c r="B684" t="s">
         <v>1021</v>
       </c>
-      <c r="C684" t="s">
+      <c r="D684" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="685" spans="1:3">
+    <row r="685" spans="1:4">
       <c r="A685" t="s">
         <v>1022</v>
       </c>
       <c r="B685" t="s">
         <v>1023</v>
       </c>
-      <c r="C685" t="s">
+      <c r="D685" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="686" spans="1:3">
+    <row r="686" spans="1:4">
       <c r="A686" t="s">
         <v>1024</v>
       </c>
@@ -8989,7 +8992,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="687" spans="1:3">
+    <row r="687" spans="1:4">
       <c r="A687" t="s">
         <v>1026</v>
       </c>
@@ -8997,7 +9000,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="688" spans="1:3">
+    <row r="688" spans="1:4">
       <c r="A688" t="s">
         <v>1028</v>
       </c>
@@ -9005,7 +9008,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="689" spans="1:3">
+    <row r="689" spans="1:4">
       <c r="A689" t="s">
         <v>1030</v>
       </c>
@@ -9013,7 +9016,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="690" spans="1:3">
+    <row r="690" spans="1:4">
       <c r="A690" t="s">
         <v>1032</v>
       </c>
@@ -9021,7 +9024,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="691" spans="1:3">
+    <row r="691" spans="1:4">
       <c r="A691" t="s">
         <v>1034</v>
       </c>
@@ -9029,7 +9032,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="692" spans="1:3">
+    <row r="692" spans="1:4">
       <c r="A692" t="s">
         <v>1036</v>
       </c>
@@ -9037,7 +9040,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="693" spans="1:3">
+    <row r="693" spans="1:4">
       <c r="A693" t="s">
         <v>1038</v>
       </c>
@@ -9045,7 +9048,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="694" spans="1:3">
+    <row r="694" spans="1:4">
       <c r="A694" t="s">
         <v>1040</v>
       </c>
@@ -9053,29 +9056,29 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="695" spans="1:3">
+    <row r="695" spans="1:4">
       <c r="A695" t="s">
         <v>1042</v>
       </c>
       <c r="B695" t="s">
         <v>1043</v>
       </c>
-      <c r="C695" t="s">
+      <c r="D695" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="696" spans="1:3">
+    <row r="696" spans="1:4">
       <c r="A696" t="s">
         <v>1045</v>
       </c>
       <c r="B696" t="s">
         <v>1046</v>
       </c>
-      <c r="C696" t="s">
+      <c r="D696" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="697" spans="1:3">
+    <row r="697" spans="1:4">
       <c r="A697" t="s">
         <v>1048</v>
       </c>
@@ -9083,7 +9086,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="698" spans="1:3">
+    <row r="698" spans="1:4">
       <c r="A698" t="s">
         <v>1050</v>
       </c>
@@ -9091,7 +9094,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="699" spans="1:3">
+    <row r="699" spans="1:4">
       <c r="A699" t="s">
         <v>1052</v>
       </c>
@@ -9099,7 +9102,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="700" spans="1:3">
+    <row r="700" spans="1:4">
       <c r="A700" t="s">
         <v>1054</v>
       </c>
@@ -9107,7 +9110,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="701" spans="1:3">
+    <row r="701" spans="1:4">
       <c r="A701" t="s">
         <v>1056</v>
       </c>
@@ -9115,7 +9118,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="702" spans="1:3">
+    <row r="702" spans="1:4">
       <c r="A702" t="s">
         <v>1058</v>
       </c>
@@ -9123,7 +9126,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="703" spans="1:3">
+    <row r="703" spans="1:4">
       <c r="A703" t="s">
         <v>1060</v>
       </c>
@@ -9131,7 +9134,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="704" spans="1:3">
+    <row r="704" spans="1:4">
       <c r="A704" t="s">
         <v>1062</v>
       </c>
@@ -9139,7 +9142,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="705" spans="1:3">
+    <row r="705" spans="1:4">
       <c r="A705" t="s">
         <v>1064</v>
       </c>
@@ -9147,7 +9150,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="706" spans="1:3">
+    <row r="706" spans="1:4">
       <c r="A706" t="s">
         <v>1066</v>
       </c>
@@ -9155,7 +9158,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="707" spans="1:3">
+    <row r="707" spans="1:4">
       <c r="A707" t="s">
         <v>1068</v>
       </c>
@@ -9163,7 +9166,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="708" spans="1:3">
+    <row r="708" spans="1:4">
       <c r="A708" t="s">
         <v>1070</v>
       </c>
@@ -9171,7 +9174,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="709" spans="1:3">
+    <row r="709" spans="1:4">
       <c r="A709" t="s">
         <v>1072</v>
       </c>
@@ -9179,7 +9182,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="710" spans="1:3">
+    <row r="710" spans="1:4">
       <c r="A710" t="s">
         <v>1074</v>
       </c>
@@ -9187,7 +9190,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="711" spans="1:3">
+    <row r="711" spans="1:4">
       <c r="A711" t="s">
         <v>1076</v>
       </c>
@@ -9195,7 +9198,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="712" spans="1:3">
+    <row r="712" spans="1:4">
       <c r="A712" t="s">
         <v>1078</v>
       </c>
@@ -9203,7 +9206,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="713" spans="1:3">
+    <row r="713" spans="1:4">
       <c r="A713" t="s">
         <v>1080</v>
       </c>
@@ -9211,7 +9214,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="714" spans="1:3">
+    <row r="714" spans="1:4">
       <c r="A714" t="s">
         <v>1082</v>
       </c>
@@ -9219,7 +9222,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="715" spans="1:3">
+    <row r="715" spans="1:4">
       <c r="A715" t="s">
         <v>1084</v>
       </c>
@@ -9227,7 +9230,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="716" spans="1:3">
+    <row r="716" spans="1:4">
       <c r="A716" t="s">
         <v>1086</v>
       </c>
@@ -9235,18 +9238,18 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="717" spans="1:3">
+    <row r="717" spans="1:4">
       <c r="A717" t="s">
         <v>1088</v>
       </c>
       <c r="B717" t="s">
         <v>1089</v>
       </c>
-      <c r="C717" t="s">
+      <c r="D717" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="718" spans="1:3">
+    <row r="718" spans="1:4">
       <c r="A718" t="s">
         <v>1091</v>
       </c>
@@ -9254,7 +9257,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="719" spans="1:3">
+    <row r="719" spans="1:4">
       <c r="A719" t="s">
         <v>1093</v>
       </c>
@@ -9262,7 +9265,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="720" spans="1:3">
+    <row r="720" spans="1:4">
       <c r="A720" t="s">
         <v>1095</v>
       </c>
@@ -9270,7 +9273,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="721" spans="1:3">
+    <row r="721" spans="1:4">
       <c r="A721" t="s">
         <v>1097</v>
       </c>
@@ -9278,7 +9281,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="722" spans="1:3">
+    <row r="722" spans="1:4">
       <c r="A722" t="s">
         <v>1099</v>
       </c>
@@ -9286,7 +9289,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="723" spans="1:3">
+    <row r="723" spans="1:4">
       <c r="A723" t="s">
         <v>1101</v>
       </c>
@@ -9294,7 +9297,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="724" spans="1:3">
+    <row r="724" spans="1:4">
       <c r="A724" t="s">
         <v>1103</v>
       </c>
@@ -9302,7 +9305,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="725" spans="1:3">
+    <row r="725" spans="1:4">
       <c r="A725" t="s">
         <v>1105</v>
       </c>
@@ -9310,7 +9313,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="726" spans="1:3">
+    <row r="726" spans="1:4">
       <c r="A726" t="s">
         <v>1107</v>
       </c>
@@ -9318,7 +9321,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="727" spans="1:3">
+    <row r="727" spans="1:4">
       <c r="A727" t="s">
         <v>1109</v>
       </c>
@@ -9326,7 +9329,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="728" spans="1:3">
+    <row r="728" spans="1:4">
       <c r="A728" t="s">
         <v>1111</v>
       </c>
@@ -9334,7 +9337,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="729" spans="1:3">
+    <row r="729" spans="1:4">
       <c r="A729" t="s">
         <v>1113</v>
       </c>
@@ -9342,7 +9345,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="730" spans="1:3">
+    <row r="730" spans="1:4">
       <c r="A730" t="s">
         <v>1115</v>
       </c>
@@ -9350,7 +9353,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="731" spans="1:3">
+    <row r="731" spans="1:4">
       <c r="A731" t="s">
         <v>1117</v>
       </c>
@@ -9358,7 +9361,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="732" spans="1:3">
+    <row r="732" spans="1:4">
       <c r="A732" t="s">
         <v>1119</v>
       </c>
@@ -9366,7 +9369,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="733" spans="1:3">
+    <row r="733" spans="1:4">
       <c r="A733" t="s">
         <v>1121</v>
       </c>
@@ -9374,7 +9377,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="734" spans="1:3">
+    <row r="734" spans="1:4">
       <c r="A734" t="s">
         <v>1123</v>
       </c>
@@ -9382,7 +9385,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="735" spans="1:3">
+    <row r="735" spans="1:4">
       <c r="A735" t="s">
         <v>1125</v>
       </c>
@@ -9390,7 +9393,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="736" spans="1:3">
+    <row r="736" spans="1:4">
       <c r="A736" t="s">
         <v>1127</v>
       </c>
@@ -9398,7 +9401,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="737" spans="1:3">
+    <row r="737" spans="1:4">
       <c r="A737" t="s">
         <v>1129</v>
       </c>
@@ -9406,7 +9409,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="738" spans="1:3">
+    <row r="738" spans="1:4">
       <c r="A738" t="s">
         <v>1131</v>
       </c>
@@ -9414,7 +9417,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="739" spans="1:3">
+    <row r="739" spans="1:4">
       <c r="A739" t="s">
         <v>1133</v>
       </c>
@@ -9422,7 +9425,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="740" spans="1:3">
+    <row r="740" spans="1:4">
       <c r="A740" t="s">
         <v>1135</v>
       </c>
@@ -9430,7 +9433,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="741" spans="1:3">
+    <row r="741" spans="1:4">
       <c r="A741" t="s">
         <v>1137</v>
       </c>
@@ -9438,7 +9441,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="742" spans="1:3">
+    <row r="742" spans="1:4">
       <c r="A742" t="s">
         <v>1139</v>
       </c>
@@ -9446,7 +9449,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="743" spans="1:3">
+    <row r="743" spans="1:4">
       <c r="A743" t="s">
         <v>1141</v>
       </c>
@@ -9454,7 +9457,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="744" spans="1:3">
+    <row r="744" spans="1:4">
       <c r="A744" t="s">
         <v>1143</v>
       </c>
@@ -9462,7 +9465,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="745" spans="1:3">
+    <row r="745" spans="1:4">
       <c r="A745" t="s">
         <v>1145</v>
       </c>
@@ -9470,7 +9473,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="746" spans="1:3">
+    <row r="746" spans="1:4">
       <c r="A746" t="s">
         <v>1147</v>
       </c>
@@ -9478,7 +9481,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="747" spans="1:3">
+    <row r="747" spans="1:4">
       <c r="A747" t="s">
         <v>1149</v>
       </c>
@@ -9486,7 +9489,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="748" spans="1:3">
+    <row r="748" spans="1:4">
       <c r="A748" t="s">
         <v>1151</v>
       </c>
@@ -9494,7 +9497,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="749" spans="1:3">
+    <row r="749" spans="1:4">
       <c r="A749" t="s">
         <v>1153</v>
       </c>
@@ -9502,7 +9505,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="750" spans="1:3">
+    <row r="750" spans="1:4">
       <c r="A750" t="s">
         <v>1155</v>
       </c>
@@ -9510,7 +9513,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="751" spans="1:3">
+    <row r="751" spans="1:4">
       <c r="A751" t="s">
         <v>1157</v>
       </c>
@@ -9518,7 +9521,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="752" spans="1:3">
+    <row r="752" spans="1:4">
       <c r="A752" t="s">
         <v>1159</v>
       </c>
@@ -9526,7 +9529,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="753" spans="1:3">
+    <row r="753" spans="1:4">
       <c r="A753" t="s">
         <v>1161</v>
       </c>
@@ -9534,7 +9537,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="754" spans="1:3">
+    <row r="754" spans="1:4">
       <c r="A754" t="s">
         <v>1163</v>
       </c>
@@ -9542,29 +9545,29 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="755" spans="1:3">
+    <row r="755" spans="1:4">
       <c r="A755" t="s">
         <v>1165</v>
       </c>
       <c r="B755" t="s">
         <v>1166</v>
       </c>
-      <c r="C755" t="s">
+      <c r="D755" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="756" spans="1:3">
+    <row r="756" spans="1:4">
       <c r="A756" t="s">
         <v>1168</v>
       </c>
       <c r="B756" t="s">
         <v>1169</v>
       </c>
-      <c r="C756" t="s">
+      <c r="D756" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="757" spans="1:3">
+    <row r="757" spans="1:4">
       <c r="A757" t="s">
         <v>1171</v>
       </c>
@@ -9572,7 +9575,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="758" spans="1:3">
+    <row r="758" spans="1:4">
       <c r="A758" t="s">
         <v>1173</v>
       </c>
@@ -9580,7 +9583,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="759" spans="1:3">
+    <row r="759" spans="1:4">
       <c r="A759" t="s">
         <v>1175</v>
       </c>
@@ -9588,7 +9591,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="760" spans="1:3">
+    <row r="760" spans="1:4">
       <c r="A760" t="s">
         <v>1177</v>
       </c>
@@ -9596,7 +9599,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="761" spans="1:3">
+    <row r="761" spans="1:4">
       <c r="A761" t="s">
         <v>1179</v>
       </c>
@@ -9604,7 +9607,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="762" spans="1:3">
+    <row r="762" spans="1:4">
       <c r="A762" t="s">
         <v>1181</v>
       </c>
@@ -9612,7 +9615,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="763" spans="1:3">
+    <row r="763" spans="1:4">
       <c r="A763" t="s">
         <v>1183</v>
       </c>
@@ -9620,7 +9623,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="764" spans="1:3">
+    <row r="764" spans="1:4">
       <c r="A764" t="s">
         <v>1185</v>
       </c>
@@ -9628,7 +9631,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="765" spans="1:3">
+    <row r="765" spans="1:4">
       <c r="A765" t="s">
         <v>1187</v>
       </c>
@@ -9636,7 +9639,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="766" spans="1:3">
+    <row r="766" spans="1:4">
       <c r="A766" t="s">
         <v>1189</v>
       </c>
@@ -9644,7 +9647,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="767" spans="1:3">
+    <row r="767" spans="1:4">
       <c r="A767" t="s">
         <v>1191</v>
       </c>
@@ -9652,7 +9655,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="768" spans="1:3">
+    <row r="768" spans="1:4">
       <c r="A768" t="s">
         <v>1193</v>
       </c>
@@ -9660,7 +9663,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="769" spans="1:3">
+    <row r="769" spans="1:4">
       <c r="A769" t="s">
         <v>1195</v>
       </c>
@@ -9668,7 +9671,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="770" spans="1:3">
+    <row r="770" spans="1:4">
       <c r="A770" t="s">
         <v>1197</v>
       </c>
@@ -9676,7 +9679,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="771" spans="1:3">
+    <row r="771" spans="1:4">
       <c r="A771" t="s">
         <v>1199</v>
       </c>
@@ -9684,7 +9687,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="772" spans="1:3">
+    <row r="772" spans="1:4">
       <c r="A772" t="s">
         <v>1201</v>
       </c>
@@ -9692,7 +9695,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="773" spans="1:3">
+    <row r="773" spans="1:4">
       <c r="A773" t="s">
         <v>1203</v>
       </c>
@@ -9700,7 +9703,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="774" spans="1:3">
+    <row r="774" spans="1:4">
       <c r="A774" t="s">
         <v>1205</v>
       </c>
@@ -9708,142 +9711,142 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="775" spans="1:3">
+    <row r="775" spans="1:4">
       <c r="A775" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="776" spans="1:3">
+    <row r="776" spans="1:4">
       <c r="A776" t="s">
         <v>1208</v>
       </c>
       <c r="B776" t="s">
         <v>1209</v>
       </c>
-      <c r="C776" t="s">
+      <c r="D776" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="777" spans="1:3">
+    <row r="777" spans="1:4">
       <c r="A777" t="s">
         <v>1210</v>
       </c>
       <c r="B777" t="s">
         <v>1211</v>
       </c>
-      <c r="C777" t="s">
+      <c r="D777" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="778" spans="1:3">
+    <row r="778" spans="1:4">
       <c r="A778" t="s">
         <v>1212</v>
       </c>
       <c r="B778" t="s">
         <v>1213</v>
       </c>
-      <c r="C778" t="s">
+      <c r="D778" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="779" spans="1:3">
+    <row r="779" spans="1:4">
       <c r="A779" t="s">
         <v>1214</v>
       </c>
       <c r="B779" t="s">
         <v>1215</v>
       </c>
-      <c r="C779" t="s">
+      <c r="D779" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="780" spans="1:3">
+    <row r="780" spans="1:4">
       <c r="A780" t="s">
         <v>1216</v>
       </c>
       <c r="B780" t="s">
         <v>1217</v>
       </c>
-      <c r="C780" t="s">
+      <c r="D780" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="781" spans="1:3">
+    <row r="781" spans="1:4">
       <c r="A781" t="s">
         <v>1218</v>
       </c>
       <c r="B781" t="s">
         <v>1219</v>
       </c>
-      <c r="C781" t="s">
+      <c r="D781" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="782" spans="1:3">
+    <row r="782" spans="1:4">
       <c r="A782" t="s">
         <v>1220</v>
       </c>
       <c r="B782" t="s">
         <v>1221</v>
       </c>
-      <c r="C782" t="s">
+      <c r="D782" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="783" spans="1:3">
+    <row r="783" spans="1:4">
       <c r="A783" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="784" spans="1:3">
+    <row r="784" spans="1:4">
       <c r="A784" t="s">
         <v>1223</v>
       </c>
       <c r="B784" t="s">
         <v>1224</v>
       </c>
-      <c r="C784" t="s">
+      <c r="D784" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="785" spans="1:3">
+    <row r="785" spans="1:4">
       <c r="A785" t="s">
         <v>1225</v>
       </c>
       <c r="B785" t="s">
         <v>1226</v>
       </c>
-      <c r="C785" t="s">
+      <c r="D785" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="786" spans="1:3">
+    <row r="786" spans="1:4">
       <c r="A786" t="s">
         <v>1227</v>
       </c>
       <c r="B786" t="s">
         <v>1228</v>
       </c>
-      <c r="C786" t="s">
+      <c r="D786" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="787" spans="1:3">
+    <row r="787" spans="1:4">
       <c r="A787" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="788" spans="1:3">
+    <row r="788" spans="1:4">
       <c r="A788" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="789" spans="1:3">
+    <row r="789" spans="1:4">
       <c r="A789" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="790" spans="1:3">
+    <row r="790" spans="1:4">
       <c r="A790" t="s">
         <v>1232</v>
       </c>

--- a/data/Skills.xlsx
+++ b/data/Skills.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1234">
   <si>
     <t>愛撫</t>
   </si>
@@ -2265,6 +2265,9 @@
   </si>
   <si>
     <t>ポーション</t>
+  </si>
+  <si>
+    <t>Potion</t>
   </si>
   <si>
     <t xml:space="preserve"> &lt;bulletAnime:204&gt;
@@ -7641,2214 +7644,2217 @@
       <c r="A518" t="s">
         <v>729</v>
       </c>
+      <c r="C518" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="519" spans="1:4">
       <c r="A519" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="520" spans="1:4">
       <c r="A520" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="521" spans="1:4">
       <c r="A521" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="522" spans="1:4">
       <c r="A522" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="524" spans="1:4">
       <c r="A524" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="525" spans="1:4">
       <c r="A525" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="526" spans="1:4">
       <c r="A526" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="527" spans="1:4">
       <c r="A527" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="528" spans="1:4">
       <c r="A528" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="529" spans="1:4">
       <c r="A529" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="530" spans="1:4">
       <c r="A530" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="531" spans="1:4">
       <c r="A531" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="532" spans="1:4">
       <c r="A532" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="533" spans="1:4">
       <c r="A533" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="534" spans="1:4">
       <c r="A534" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="535" spans="1:4">
       <c r="A535" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="536" spans="1:4">
       <c r="A536" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="537" spans="1:4">
       <c r="A537" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="538" spans="1:4">
       <c r="A538" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="539" spans="1:4">
       <c r="A539" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="540" spans="1:4">
       <c r="A540" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="541" spans="1:4">
       <c r="A541" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="542" spans="1:4">
       <c r="A542" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="543" spans="1:4">
       <c r="A543" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B543" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D543" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="544" spans="1:4">
       <c r="A544" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="545" spans="1:4">
       <c r="A545" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="546" spans="1:4">
       <c r="A546" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="547" spans="1:4">
       <c r="A547" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="548" spans="1:4">
       <c r="A548" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="549" spans="1:4">
       <c r="A549" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="550" spans="1:4">
       <c r="A550" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="551" spans="1:4">
       <c r="A551" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="552" spans="1:4">
       <c r="A552" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="553" spans="1:4">
       <c r="A553" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="554" spans="1:4">
       <c r="A554" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="555" spans="1:4">
       <c r="A555" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="556" spans="1:4">
       <c r="A556" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="557" spans="1:4">
       <c r="A557" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="558" spans="1:4">
       <c r="A558" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="559" spans="1:4">
       <c r="A559" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="560" spans="1:4">
       <c r="A560" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="561" spans="1:4">
       <c r="A561" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="562" spans="1:4">
       <c r="A562" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="563" spans="1:4">
       <c r="A563" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="564" spans="1:4">
       <c r="A564" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="566" spans="1:4">
       <c r="A566" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="567" spans="1:4">
       <c r="A567" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="568" spans="1:4">
       <c r="A568" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="569" spans="1:4">
       <c r="A569" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="570" spans="1:4">
       <c r="A570" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="571" spans="1:4">
       <c r="A571" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="572" spans="1:4">
       <c r="A572" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="573" spans="1:4">
       <c r="A573" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="574" spans="1:4">
       <c r="A574" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="575" spans="1:4">
       <c r="A575" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="576" spans="1:4">
       <c r="A576" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="577" spans="1:4">
       <c r="A577" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="578" spans="1:4">
       <c r="A578" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="579" spans="1:4">
       <c r="A579" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B579" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D579" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="580" spans="1:4">
       <c r="A580" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B580" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D580" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="581" spans="1:4">
       <c r="A581" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B581" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D581" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="582" spans="1:4">
       <c r="A582" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B582" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D582" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="583" spans="1:4">
       <c r="A583" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B583" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D583" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="584" spans="1:4">
       <c r="A584" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B584" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D584" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="585" spans="1:4">
       <c r="A585" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B585" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D585" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="586" spans="1:4">
       <c r="A586" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B586" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D586" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="587" spans="1:4">
       <c r="A587" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="588" spans="1:4">
       <c r="A588" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B588" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D588" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="589" spans="1:4">
       <c r="A589" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B589" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D589" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="590" spans="1:4">
       <c r="A590" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B590" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D590" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="591" spans="1:4">
       <c r="A591" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B591" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D591" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="592" spans="1:4">
       <c r="A592" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B592" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D592" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="593" spans="1:4">
       <c r="A593" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B593" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D593" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="594" spans="1:4">
       <c r="A594" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B594" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D594" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="595" spans="1:4">
       <c r="A595" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B595" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D595" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="596" spans="1:4">
       <c r="A596" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B596" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D596" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="597" spans="1:4">
       <c r="A597" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B597" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="598" spans="1:4">
       <c r="A598" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B598" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="599" spans="1:4">
       <c r="A599" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B599" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="600" spans="1:4">
       <c r="A600" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B600" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="601" spans="1:4">
       <c r="A601" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B601" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="602" spans="1:4">
       <c r="A602" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B602" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="603" spans="1:4">
       <c r="A603" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B603" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="604" spans="1:4">
       <c r="A604" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B604" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="605" spans="1:4">
       <c r="A605" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B605" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="606" spans="1:4">
       <c r="A606" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B606" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="607" spans="1:4">
       <c r="A607" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B607" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="608" spans="1:4">
       <c r="A608" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B608" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="609" spans="1:4">
       <c r="A609" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B609" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="610" spans="1:4">
       <c r="A610" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B610" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="611" spans="1:4">
       <c r="A611" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B611" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="612" spans="1:4">
       <c r="A612" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B612" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="613" spans="1:4">
       <c r="A613" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B613" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="614" spans="1:4">
       <c r="A614" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B614" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="615" spans="1:4">
       <c r="A615" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B615" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="616" spans="1:4">
       <c r="A616" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B616" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="617" spans="1:4">
       <c r="A617" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B617" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="618" spans="1:4">
       <c r="A618" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B618" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="619" spans="1:4">
       <c r="A619" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B619" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="620" spans="1:4">
       <c r="A620" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B620" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="621" spans="1:4">
       <c r="A621" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B621" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="622" spans="1:4">
       <c r="A622" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B622" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="623" spans="1:4">
       <c r="A623" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B623" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="624" spans="1:4">
       <c r="A624" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B624" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="625" spans="1:4">
       <c r="A625" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B625" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="626" spans="1:4">
       <c r="A626" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B626" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="627" spans="1:4">
       <c r="A627" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B627" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="628" spans="1:4">
       <c r="A628" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B628" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="629" spans="1:4">
       <c r="A629" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B629" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="630" spans="1:4">
       <c r="A630" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B630" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="631" spans="1:4">
       <c r="A631" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B631" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="632" spans="1:4">
       <c r="A632" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B632" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="633" spans="1:4">
       <c r="A633" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B633" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="634" spans="1:4">
       <c r="A634" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B634" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="635" spans="1:4">
       <c r="A635" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B635" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="636" spans="1:4">
       <c r="A636" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B636" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="637" spans="1:4">
       <c r="A637" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B637" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="638" spans="1:4">
       <c r="A638" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B638" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="639" spans="1:4">
       <c r="A639" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B639" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="640" spans="1:4">
       <c r="A640" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B640" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D640" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="641" spans="1:4">
       <c r="A641" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="642" spans="1:4">
       <c r="A642" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B642" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D642" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="643" spans="1:4">
       <c r="A643" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B643" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D643" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="644" spans="1:4">
       <c r="A644" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B644" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D644" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="645" spans="1:4">
       <c r="A645" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B645" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D645" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="646" spans="1:4">
       <c r="A646" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B646" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D646" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="647" spans="1:4">
       <c r="A647" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B647" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D647" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="648" spans="1:4">
       <c r="A648" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B648" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D648" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="649" spans="1:4">
       <c r="A649" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B649" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D649" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="650" spans="1:4">
       <c r="A650" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B650" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D650" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="651" spans="1:4">
       <c r="A651" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B651" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D651" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="652" spans="1:4">
       <c r="A652" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B652" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D652" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="653" spans="1:4">
       <c r="A653" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B653" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D653" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="654" spans="1:4">
       <c r="A654" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B654" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D654" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="655" spans="1:4">
       <c r="A655" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B655" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D655" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="656" spans="1:4">
       <c r="A656" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B656" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D656" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="657" spans="1:4">
       <c r="A657" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B657" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D657" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="658" spans="1:4">
       <c r="A658" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B658" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D658" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="659" spans="1:4">
       <c r="A659" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B659" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D659" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="660" spans="1:4">
       <c r="A660" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B660" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D660" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="661" spans="1:4">
       <c r="A661" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B661" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D661" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="662" spans="1:4">
       <c r="A662" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B662" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D662" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="663" spans="1:4">
       <c r="A663" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B663" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D663" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="664" spans="1:4">
       <c r="A664" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B664" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D664" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="665" spans="1:4">
       <c r="A665" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B665" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D665" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="666" spans="1:4">
       <c r="A666" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B666" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D666" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="667" spans="1:4">
       <c r="A667" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B667" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D667" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="668" spans="1:4">
       <c r="A668" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B668" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D668" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="669" spans="1:4">
       <c r="A669" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B669" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D669" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="670" spans="1:4">
       <c r="A670" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B670" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D670" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="671" spans="1:4">
       <c r="A671" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B671" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D671" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="672" spans="1:4">
       <c r="A672" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B672" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D672" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="673" spans="1:4">
       <c r="A673" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B673" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D673" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="674" spans="1:4">
       <c r="A674" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B674" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D674" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="675" spans="1:4">
       <c r="A675" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B675" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D675" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="676" spans="1:4">
       <c r="A676" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B676" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D676" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="677" spans="1:4">
       <c r="A677" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B677" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D677" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="678" spans="1:4">
       <c r="A678" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B678" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D678" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="679" spans="1:4">
       <c r="A679" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B679" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D679" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="680" spans="1:4">
       <c r="A680" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B680" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D680" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="681" spans="1:4">
       <c r="A681" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B681" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D681" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="682" spans="1:4">
       <c r="A682" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B682" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D682" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="683" spans="1:4">
       <c r="A683" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B683" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D683" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="684" spans="1:4">
       <c r="A684" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B684" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D684" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="685" spans="1:4">
       <c r="A685" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B685" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D685" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="686" spans="1:4">
       <c r="A686" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B686" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="687" spans="1:4">
       <c r="A687" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B687" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="688" spans="1:4">
       <c r="A688" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B688" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="689" spans="1:4">
       <c r="A689" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B689" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="690" spans="1:4">
       <c r="A690" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B690" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="691" spans="1:4">
       <c r="A691" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B691" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="692" spans="1:4">
       <c r="A692" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B692" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="693" spans="1:4">
       <c r="A693" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B693" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="694" spans="1:4">
       <c r="A694" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B694" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="695" spans="1:4">
       <c r="A695" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B695" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D695" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="696" spans="1:4">
       <c r="A696" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B696" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D696" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="697" spans="1:4">
       <c r="A697" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B697" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="698" spans="1:4">
       <c r="A698" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B698" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="699" spans="1:4">
       <c r="A699" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B699" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="700" spans="1:4">
       <c r="A700" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B700" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="701" spans="1:4">
       <c r="A701" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B701" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="702" spans="1:4">
       <c r="A702" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B702" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="703" spans="1:4">
       <c r="A703" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B703" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="704" spans="1:4">
       <c r="A704" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B704" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="705" spans="1:4">
       <c r="A705" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B705" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="706" spans="1:4">
       <c r="A706" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B706" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="707" spans="1:4">
       <c r="A707" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B707" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="708" spans="1:4">
       <c r="A708" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B708" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="709" spans="1:4">
       <c r="A709" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B709" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="710" spans="1:4">
       <c r="A710" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B710" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="711" spans="1:4">
       <c r="A711" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B711" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="712" spans="1:4">
       <c r="A712" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B712" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="713" spans="1:4">
       <c r="A713" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B713" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="714" spans="1:4">
       <c r="A714" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B714" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="715" spans="1:4">
       <c r="A715" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B715" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="716" spans="1:4">
       <c r="A716" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B716" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="717" spans="1:4">
       <c r="A717" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B717" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D717" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="718" spans="1:4">
       <c r="A718" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B718" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="719" spans="1:4">
       <c r="A719" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B719" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="720" spans="1:4">
       <c r="A720" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B720" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="721" spans="1:4">
       <c r="A721" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B721" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="722" spans="1:4">
       <c r="A722" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B722" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="723" spans="1:4">
       <c r="A723" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B723" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="724" spans="1:4">
       <c r="A724" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B724" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="725" spans="1:4">
       <c r="A725" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B725" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="726" spans="1:4">
       <c r="A726" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B726" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="727" spans="1:4">
       <c r="A727" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B727" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="728" spans="1:4">
       <c r="A728" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B728" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="729" spans="1:4">
       <c r="A729" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B729" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="730" spans="1:4">
       <c r="A730" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B730" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="731" spans="1:4">
       <c r="A731" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B731" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="732" spans="1:4">
       <c r="A732" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B732" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="733" spans="1:4">
       <c r="A733" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B733" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="734" spans="1:4">
       <c r="A734" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B734" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="735" spans="1:4">
       <c r="A735" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B735" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="736" spans="1:4">
       <c r="A736" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B736" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="737" spans="1:4">
       <c r="A737" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B737" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="738" spans="1:4">
       <c r="A738" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B738" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="739" spans="1:4">
       <c r="A739" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B739" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="740" spans="1:4">
       <c r="A740" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B740" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="741" spans="1:4">
       <c r="A741" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B741" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="742" spans="1:4">
       <c r="A742" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B742" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="743" spans="1:4">
       <c r="A743" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B743" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="744" spans="1:4">
       <c r="A744" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B744" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="745" spans="1:4">
       <c r="A745" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B745" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="746" spans="1:4">
       <c r="A746" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B746" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="747" spans="1:4">
       <c r="A747" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B747" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="748" spans="1:4">
       <c r="A748" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B748" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="749" spans="1:4">
       <c r="A749" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B749" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="750" spans="1:4">
       <c r="A750" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B750" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="751" spans="1:4">
       <c r="A751" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B751" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="752" spans="1:4">
       <c r="A752" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B752" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="753" spans="1:4">
       <c r="A753" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B753" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="754" spans="1:4">
       <c r="A754" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B754" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="755" spans="1:4">
       <c r="A755" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B755" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D755" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="756" spans="1:4">
       <c r="A756" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B756" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D756" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="757" spans="1:4">
       <c r="A757" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B757" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="758" spans="1:4">
       <c r="A758" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B758" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="759" spans="1:4">
       <c r="A759" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B759" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="760" spans="1:4">
       <c r="A760" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B760" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="761" spans="1:4">
       <c r="A761" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B761" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="762" spans="1:4">
       <c r="A762" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B762" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="763" spans="1:4">
       <c r="A763" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B763" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="764" spans="1:4">
       <c r="A764" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B764" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="765" spans="1:4">
       <c r="A765" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B765" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="766" spans="1:4">
       <c r="A766" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B766" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="767" spans="1:4">
       <c r="A767" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B767" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="768" spans="1:4">
       <c r="A768" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B768" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="769" spans="1:4">
       <c r="A769" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B769" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="770" spans="1:4">
       <c r="A770" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B770" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="771" spans="1:4">
       <c r="A771" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B771" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="772" spans="1:4">
       <c r="A772" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B772" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="773" spans="1:4">
       <c r="A773" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B773" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="774" spans="1:4">
       <c r="A774" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B774" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="775" spans="1:4">
       <c r="A775" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="776" spans="1:4">
       <c r="A776" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B776" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D776" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="777" spans="1:4">
       <c r="A777" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B777" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D777" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="778" spans="1:4">
       <c r="A778" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B778" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D778" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="779" spans="1:4">
       <c r="A779" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B779" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D779" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="780" spans="1:4">
       <c r="A780" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B780" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D780" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="781" spans="1:4">
       <c r="A781" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B781" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D781" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="782" spans="1:4">
       <c r="A782" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B782" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D782" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="783" spans="1:4">
       <c r="A783" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="784" spans="1:4">
       <c r="A784" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B784" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D784" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="785" spans="1:4">
       <c r="A785" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B785" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D785" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="786" spans="1:4">
       <c r="A786" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B786" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D786" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="787" spans="1:4">
       <c r="A787" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="788" spans="1:4">
       <c r="A788" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="789" spans="1:4">
       <c r="A789" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="790" spans="1:4">
       <c r="A790" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
   </sheetData>

--- a/data/Skills.xlsx
+++ b/data/Skills.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1238">
   <si>
     <t>愛撫</t>
   </si>
@@ -974,7 +974,7 @@
     <t>は顔を足で踏みつけてきた・・・！</t>
   </si>
   <si>
-    <t xml:space="preserve"> tramples your face with her fot...!</t>
+    <t xml:space="preserve"> tramples your face with her foot...!</t>
   </si>
   <si>
     <t>顔踏みつけ2舐めさせ</t>
@@ -2866,8 +2866,8 @@
 敏捷性依存　体力回復</t>
   </si>
   <si>
-    <t>Apply the power of the dragon to the recovery of physical strength
-AGI-dependent recovery of physical strength</t>
+    <t>Apply the power of the dragon to the recovery of HP
+AGI-dependent recovery of HP</t>
   </si>
   <si>
     <t>は気を巡らせた！</t>
@@ -3404,6 +3404,9 @@
     <t>Treated!</t>
   </si>
   <si>
+    <t xml:space="preserve"> was cured!</t>
+  </si>
+  <si>
     <t>払拭</t>
   </si>
   <si>
@@ -3430,7 +3433,7 @@
     <t>Take a deep breath</t>
   </si>
   <si>
-    <t>Meditation</t>
+    <t>Deep Breathing</t>
   </si>
   <si>
     <t>息を整えて精力を回復する
@@ -3451,10 +3454,16 @@
     <t>Adjusted his breathing ...</t>
   </si>
   <si>
+    <t xml:space="preserve"> adjusted their breathing...</t>
+  </si>
+  <si>
     <t>瞑想</t>
   </si>
   <si>
     <t>meditation</t>
+  </si>
+  <si>
+    <t>Meditation</t>
   </si>
   <si>
     <t>瞑想して精力を回復する
@@ -3562,7 +3571,7 @@
   </si>
   <si>
     <t>Take a break and recover your strength
-AGI-dependent, small recovery of physical strength</t>
+AGI-dependent, small recovery of HP</t>
   </si>
   <si>
     <t>は熱くなった身体を静めた・・・</t>
@@ -3595,6 +3604,9 @@
     <t>I left it to the momentum and caressed it!</t>
   </si>
   <si>
+    <t xml:space="preserve"> caressed passionately!</t>
+  </si>
+  <si>
     <t>猛ラッシュ</t>
   </si>
   <si>
@@ -3703,8 +3715,8 @@
 敏捷性依存　体力回復大</t>
   </si>
   <si>
-    <t>Take in the air from the outside air and recover your physical strength
-AGI-dependent, large recovery of physical strength</t>
+    <t>Take in the air from the outside air and recover your HP
+AGI-dependent, large recovery of HP</t>
   </si>
   <si>
     <t>相手の口から精力を吸い取る
@@ -9037,824 +9049,836 @@
       <c r="B691" t="s">
         <v>1036</v>
       </c>
+      <c r="D691" t="s">
+        <v>1037</v>
+      </c>
     </row>
     <row r="692" spans="1:4">
       <c r="A692" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B692" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="693" spans="1:4">
       <c r="A693" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B693" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="694" spans="1:4">
       <c r="A694" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B694" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="695" spans="1:4">
       <c r="A695" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B695" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D695" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="696" spans="1:4">
       <c r="A696" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B696" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D696" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="697" spans="1:4">
       <c r="A697" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B697" t="s">
-        <v>1050</v>
+        <v>1051</v>
+      </c>
+      <c r="D697" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="698" spans="1:4">
       <c r="A698" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B698" t="s">
-        <v>1052</v>
+        <v>1054</v>
+      </c>
+      <c r="D698" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="699" spans="1:4">
       <c r="A699" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="B699" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="700" spans="1:4">
       <c r="A700" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="B700" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="701" spans="1:4">
       <c r="A701" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="B701" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="702" spans="1:4">
       <c r="A702" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="B702" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="703" spans="1:4">
       <c r="A703" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="B703" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="704" spans="1:4">
       <c r="A704" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B704" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="705" spans="1:4">
       <c r="A705" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="B705" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="706" spans="1:4">
       <c r="A706" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B706" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="707" spans="1:4">
       <c r="A707" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="B707" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="708" spans="1:4">
       <c r="A708" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="B708" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="709" spans="1:4">
       <c r="A709" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="B709" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="710" spans="1:4">
       <c r="A710" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="B710" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="711" spans="1:4">
       <c r="A711" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="B711" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="712" spans="1:4">
       <c r="A712" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="B712" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="713" spans="1:4">
       <c r="A713" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="B713" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="714" spans="1:4">
       <c r="A714" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="B714" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="715" spans="1:4">
       <c r="A715" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B715" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="716" spans="1:4">
       <c r="A716" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="B716" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="717" spans="1:4">
       <c r="A717" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="B717" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="D717" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="718" spans="1:4">
       <c r="A718" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="B718" t="s">
-        <v>1093</v>
+        <v>1096</v>
+      </c>
+      <c r="D718" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="719" spans="1:4">
       <c r="A719" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="B719" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="720" spans="1:4">
       <c r="A720" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="B720" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="721" spans="1:4">
       <c r="A721" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="B721" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="722" spans="1:4">
       <c r="A722" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="B722" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="723" spans="1:4">
       <c r="A723" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="B723" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="724" spans="1:4">
       <c r="A724" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="B724" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="725" spans="1:4">
       <c r="A725" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="B725" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="726" spans="1:4">
       <c r="A726" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="B726" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="727" spans="1:4">
       <c r="A727" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="B727" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="728" spans="1:4">
       <c r="A728" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="B728" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="729" spans="1:4">
       <c r="A729" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="B729" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="730" spans="1:4">
       <c r="A730" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="B730" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="731" spans="1:4">
       <c r="A731" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="B731" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="732" spans="1:4">
       <c r="A732" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="B732" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="733" spans="1:4">
       <c r="A733" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="B733" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="734" spans="1:4">
       <c r="A734" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="B734" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="735" spans="1:4">
       <c r="A735" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="B735" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="736" spans="1:4">
       <c r="A736" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="B736" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="737" spans="1:4">
       <c r="A737" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="B737" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="738" spans="1:4">
       <c r="A738" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="B738" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="739" spans="1:4">
       <c r="A739" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="B739" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="740" spans="1:4">
       <c r="A740" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="B740" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="741" spans="1:4">
       <c r="A741" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="B741" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="742" spans="1:4">
       <c r="A742" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="B742" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="743" spans="1:4">
       <c r="A743" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="B743" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="744" spans="1:4">
       <c r="A744" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="B744" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="745" spans="1:4">
       <c r="A745" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="B745" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="746" spans="1:4">
       <c r="A746" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="B746" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="747" spans="1:4">
       <c r="A747" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="B747" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="748" spans="1:4">
       <c r="A748" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="B748" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="749" spans="1:4">
       <c r="A749" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="B749" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="750" spans="1:4">
       <c r="A750" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="B750" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="751" spans="1:4">
       <c r="A751" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="B751" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="752" spans="1:4">
       <c r="A752" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="B752" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="753" spans="1:4">
       <c r="A753" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="B753" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="754" spans="1:4">
       <c r="A754" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="B754" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="755" spans="1:4">
       <c r="A755" t="s">
-        <v>1166</v>
+        <v>1170</v>
       </c>
       <c r="B755" t="s">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="D755" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="756" spans="1:4">
       <c r="A756" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="B756" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="D756" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="757" spans="1:4">
       <c r="A757" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="B757" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="758" spans="1:4">
       <c r="A758" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="B758" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="759" spans="1:4">
       <c r="A759" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="B759" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="760" spans="1:4">
       <c r="A760" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="B760" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="761" spans="1:4">
       <c r="A761" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
       <c r="B761" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="762" spans="1:4">
       <c r="A762" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
       <c r="B762" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="763" spans="1:4">
       <c r="A763" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="B763" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="764" spans="1:4">
       <c r="A764" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="B764" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="765" spans="1:4">
       <c r="A765" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="B765" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="766" spans="1:4">
       <c r="A766" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="B766" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="767" spans="1:4">
       <c r="A767" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
       <c r="B767" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="768" spans="1:4">
       <c r="A768" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="B768" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="769" spans="1:4">
       <c r="A769" t="s">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="B769" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="770" spans="1:4">
       <c r="A770" t="s">
-        <v>1198</v>
+        <v>1202</v>
       </c>
       <c r="B770" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="771" spans="1:4">
       <c r="A771" t="s">
-        <v>1200</v>
+        <v>1204</v>
       </c>
       <c r="B771" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="772" spans="1:4">
       <c r="A772" t="s">
-        <v>1202</v>
+        <v>1206</v>
       </c>
       <c r="B772" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="773" spans="1:4">
       <c r="A773" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="B773" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="774" spans="1:4">
       <c r="A774" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="B774" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="775" spans="1:4">
       <c r="A775" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="776" spans="1:4">
       <c r="A776" t="s">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="B776" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="D776" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="777" spans="1:4">
       <c r="A777" t="s">
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="B777" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="D777" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="778" spans="1:4">
       <c r="A778" t="s">
-        <v>1213</v>
+        <v>1217</v>
       </c>
       <c r="B778" t="s">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="D778" t="s">
-        <v>1214</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="779" spans="1:4">
       <c r="A779" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="B779" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="D779" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="780" spans="1:4">
       <c r="A780" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="B780" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D780" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="781" spans="1:4">
       <c r="A781" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="B781" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="D781" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="782" spans="1:4">
       <c r="A782" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="B782" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="D782" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="783" spans="1:4">
       <c r="A783" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="784" spans="1:4">
       <c r="A784" t="s">
-        <v>1224</v>
+        <v>1228</v>
       </c>
       <c r="B784" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="D784" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="785" spans="1:4">
       <c r="A785" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="B785" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="D785" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="786" spans="1:4">
       <c r="A786" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="B786" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="D786" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="787" spans="1:4">
       <c r="A787" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="788" spans="1:4">
       <c r="A788" t="s">
-        <v>1231</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="789" spans="1:4">
       <c r="A789" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="790" spans="1:4">
       <c r="A790" t="s">
-        <v>1233</v>
+        <v>1237</v>
       </c>
     </row>
   </sheetData>

--- a/data/Skills.xlsx
+++ b/data/Skills.xlsx
@@ -86,7 +86,7 @@
 すげー魔法</t>
   </si>
   <si>
-    <t>Stupid weird magic that heals like nobody's business.</t>
+    <t>Stupid weird magic that heAlsto like nobody's business.</t>
   </si>
   <si>
     <t>は%1を唱えた！</t>
@@ -377,7 +377,7 @@
     <t>は吸い尽くした！</t>
   </si>
   <si>
-    <t xml:space="preserve"> steals your breath with a kiss!</t>
+    <t xml:space="preserve"> steAlsto your breath with a kiss!</t>
   </si>
   <si>
     <t>腰振り強</t>
@@ -3374,7 +3374,7 @@
 ステータス異常解除　集中付与</t>
   </si>
   <si>
-    <t>Heals stat abnormalities and gains resistance for several turns
+    <t>HeAlsto stat abnormalities and gains resistance for several turns
 Status abnormality cancellation centralized grant</t>
   </si>
   <si>
@@ -3394,7 +3394,7 @@
 技巧依存　ステータス異常解除　精力回復小</t>
   </si>
   <si>
-    <t>Heals status abnormalities and recovers a little energy
+    <t>HeAlsto status abnormalities and recovers a little energy
 Skill-dependent status abnormality cancellation Small energy recovery</t>
   </si>
   <si>

--- a/data/Skills.xlsx
+++ b/data/Skills.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1243">
   <si>
     <t>愛撫</t>
   </si>
@@ -2006,6 +2006,51 @@
     <t>'s Deep Kiss Handjob!</t>
   </si>
   <si>
+    <t>キス手コキ</t>
+  </si>
+  <si>
+    <t>はキスしながら手で扱いてきた！</t>
+  </si>
+  <si>
+    <t>うちつけ</t>
+  </si>
+  <si>
+    <t>は腰を打ち付けてきた！</t>
+  </si>
+  <si>
+    <t>敵ヒーリング</t>
+  </si>
+  <si>
+    <t>はヒーリングを唱えた！</t>
+  </si>
+  <si>
+    <t>Chanted healing!</t>
+  </si>
+  <si>
+    <t>敵パラライズ</t>
+  </si>
+  <si>
+    <t>はパラライズを唱えた！</t>
+  </si>
+  <si>
+    <t>敵ポイズン</t>
+  </si>
+  <si>
+    <t>はポイズンを唱えた！</t>
+  </si>
+  <si>
+    <t>敵力溜め</t>
+  </si>
+  <si>
+    <t>は舌なめずりをしている・・・</t>
+  </si>
+  <si>
+    <t>ベロチュー手コキ強</t>
+  </si>
+  <si>
+    <t>は舌を絡めながら激しく手で扱いてきた！</t>
+  </si>
+  <si>
     <t>～メルブレ用～</t>
   </si>
   <si>
@@ -2073,10 +2118,29 @@
     <t>\n[1]の身体が敏感になる！</t>
   </si>
   <si>
+    <t>敵誘惑チョコ</t>
+  </si>
+  <si>
+    <t>ぱんち</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;mapThrough&gt;
+&lt;EVC 使用時&gt;
+s[502] = true
+&lt;/EVC 使用時&gt;</t>
+  </si>
+  <si>
+    <t>敵誘惑ベル</t>
+  </si>
+  <si>
+    <t>&lt;bulletAnime:205&gt;
+ &lt;mapThrough&gt;
+&lt;EVC 使用時&gt;
+s[501] = true
+&lt;/EVC 使用時&gt;</t>
+  </si>
+  <si>
     <t>敵水攻撃</t>
-  </si>
-  <si>
-    <t>ぱんち</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;bulletAnime:204&gt;
@@ -2988,6 +3052,70 @@
 Temptation attribute, skill-dependent, weakness grant</t>
   </si>
   <si>
+    <t xml:space="preserve">快楽と引き換えに強制的に経験値を搾り取る
+</t>
+  </si>
+  <si>
+    <t>相手を魅了して言いなりにする魔法
+既に掛かっている場合は上書き出来ない</t>
+  </si>
+  <si>
+    <t>サキュバサイズ</t>
+  </si>
+  <si>
+    <t>対象を淫魔に変える魔法
+もう二度と使うつもりはない</t>
+  </si>
+  <si>
+    <t>アトラクト</t>
+  </si>
+  <si>
+    <t>対象の持つ魅力を一時的に増幅させる
+攻撃力UP</t>
+  </si>
+  <si>
+    <t>ストンスキン</t>
+  </si>
+  <si>
+    <t>肌を鈍感にする　使い過ぎると肌荒れする
+防御力UP　※必要Lv3</t>
+  </si>
+  <si>
+    <t>デフトハンズ</t>
+  </si>
+  <si>
+    <t>感覚を鋭くして手先を器用にする
+技巧UP</t>
+  </si>
+  <si>
+    <t>デノイズ</t>
+  </si>
+  <si>
+    <t>無駄な音を消して集中力を高める
+精神力UP  ※必要Lv5</t>
+  </si>
+  <si>
+    <t>カームダウン</t>
+  </si>
+  <si>
+    <t>対象を落ち着かせる魔法　育児中に大活躍する
+精力回復 ※必要Lv7</t>
+  </si>
+  <si>
+    <t>ブラッドボイル</t>
+  </si>
+  <si>
+    <t>血が湧きたつほど感情を昂らせる
+TP増加  ※必要Lv9</t>
+  </si>
+  <si>
+    <t>ラバーズギフト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">恋する乙女は無敵らしい
+</t>
+  </si>
+  <si>
     <t>イク前HP減少用</t>
   </si>
   <si>
@@ -2995,9 +3123,6 @@
   </si>
   <si>
     <t>特に何もない</t>
-  </si>
-  <si>
-    <t>Nothing in particular</t>
   </si>
   <si>
     <t>Nothing Special</t>
@@ -3016,10 +3141,6 @@
 胸属性　技巧依存</t>
   </si>
   <si>
-    <t>Gently massage your chest
-Chest attribute skill dependent</t>
-  </si>
-  <si>
     <t>Gently massage the enemy's breasts.
 Chest attribute skill dependent</t>
   </si>
@@ -3027,9 +3148,6 @@
     <t>は優しく胸を揉んだ！</t>
   </si>
   <si>
-    <t>Gently rubbed her chest!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> gently rubbed her opponent's breasts!</t>
   </si>
   <si>
@@ -3043,10 +3161,6 @@
 胸属性　技巧依存</t>
   </si>
   <si>
-    <t>Rub your chest
-Chest attribute skill dependent</t>
-  </si>
-  <si>
     <t>The enemy's breasts.
 Chest attribute skill dependent</t>
   </si>
@@ -3054,9 +3168,6 @@
     <t>は胸を揉みしだいた！</t>
   </si>
   <si>
-    <t>Rubbed her chest!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> rubbed her opponent's breasts!</t>
   </si>
   <si>
@@ -3070,10 +3181,6 @@
 胸属性　技巧依存</t>
   </si>
   <si>
-    <t>Let's grab the chest
-Chest attribute skill dependent</t>
-  </si>
-  <si>
     <t>Grope the opponent's breasts.
 Chest attribute skill dependent</t>
   </si>
@@ -3081,9 +3188,6 @@
     <t>は胸を鷲掴み激しく揉みしだいた！</t>
   </si>
   <si>
-    <t>Grabbed his chest and rubbed it violently!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> grabbed their foe's boobs and rubbed them violently!</t>
   </si>
   <si>
@@ -3097,10 +3201,6 @@
 尻属性　技巧依存</t>
   </si>
   <si>
-    <t>Gently massage your butt
-Butt attribute skill dependent</t>
-  </si>
-  <si>
     <t>Gently massage the opponent's butt.
 Butt attribute skill dependent</t>
   </si>
@@ -3108,9 +3208,6 @@
     <t>は優しく尻を揉んだ！</t>
   </si>
   <si>
-    <t>Gently rubbed his ass!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> gently rubbed the enemy's ass!</t>
   </si>
   <si>
@@ -3131,9 +3228,6 @@
     <t>は尻を激しくこねくり回した！</t>
   </si>
   <si>
-    <t>Kneaded his ass violently!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> furiously kneads the opponent's ass!</t>
   </si>
   <si>
@@ -3154,16 +3248,10 @@
     <t>は尻に指を挿入した！</t>
   </si>
   <si>
-    <t>Inserted a finger in the ass!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> inserted a finger in the opponent's ass!</t>
   </si>
   <si>
     <t>アソコ責め Lv1</t>
-  </si>
-  <si>
-    <t>Dick Tease Lv1</t>
   </si>
   <si>
     <t>Pussy Tease Lv1</t>
@@ -3180,16 +3268,10 @@
     <t>は丁寧にアソコを弄った！</t>
   </si>
   <si>
-    <t>Carefully played with the dick!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> carefully played with the opponent's pussy!</t>
   </si>
   <si>
     <t>アソコ責め Lv2</t>
-  </si>
-  <si>
-    <t>Dick Tease Lv2</t>
   </si>
   <si>
     <t>Pussy Tease Lv2</t>
@@ -3206,16 +3288,10 @@
     <t>は指を挿入し膣内をかき回した！</t>
   </si>
   <si>
-    <t>Inserted a finger and stirred the inside of the vagina!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> used their finger to stir the inside of their vagina!</t>
   </si>
   <si>
     <t>アソコ責め Lv3</t>
-  </si>
-  <si>
-    <t>Dick Tease Lv3</t>
   </si>
   <si>
     <t>Pussy Tease Lv3</t>
@@ -3232,9 +3308,6 @@
     <t>はクリトリスを優しく責めた！</t>
   </si>
   <si>
-    <t>Gently Teased the clitoris!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> gently Teased the clitoris!</t>
   </si>
   <si>
@@ -3255,9 +3328,6 @@
     <t>は耳を舐めた！</t>
   </si>
   <si>
-    <t>Licked his ears!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> licked their ears!</t>
   </si>
   <si>
@@ -3298,9 +3368,6 @@
     <t>はそっと口づけをした！</t>
   </si>
   <si>
-    <t>Gently kissed!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> gently kissed their opponent!</t>
   </si>
   <si>
@@ -3321,9 +3388,6 @@
     <t>はディープキスをした！</t>
   </si>
   <si>
-    <t>Gave a deep kiss!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> gives their foe a deep kiss!</t>
   </si>
   <si>
@@ -3344,9 +3408,6 @@
     <t>は腰を振った！</t>
   </si>
   <si>
-    <t>Shake his hips!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> shook their hips!</t>
   </si>
   <si>
@@ -3401,9 +3462,6 @@
     <t>は治療した！</t>
   </si>
   <si>
-    <t>Treated!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> was cured!</t>
   </si>
   <si>
@@ -3430,9 +3488,6 @@
     <t>深呼吸</t>
   </si>
   <si>
-    <t>Take a deep breath</t>
-  </si>
-  <si>
     <t>Deep Breathing</t>
   </si>
   <si>
@@ -3440,10 +3495,6 @@
 技巧依存　精力回復小</t>
   </si>
   <si>
-    <t>Hold your breath and restore energy
-Skill-dependent, small energy recovery</t>
-  </si>
-  <si>
     <t>Hold your breath and restore your energy.
 Skill-dependent Recovers a bit of energy.</t>
   </si>
@@ -3451,16 +3502,10 @@
     <t>は呼吸を整えた・・・</t>
   </si>
   <si>
-    <t>Adjusted his breathing ...</t>
-  </si>
-  <si>
     <t xml:space="preserve"> adjusted their breathing...</t>
   </si>
   <si>
     <t>瞑想</t>
-  </si>
-  <si>
-    <t>meditation</t>
   </si>
   <si>
     <t>Meditation</t>
@@ -3590,10 +3635,6 @@
 攻撃力依存</t>
   </si>
   <si>
-    <t>Leave it to the momentum and caress it for 2 consecutive times
-ATK dependent</t>
-  </si>
-  <si>
     <t>Passionately caress a foe 2 times.
 ATK dependent</t>
   </si>
@@ -3601,9 +3642,6 @@
     <t>は勢いに任せて愛撫した！</t>
   </si>
   <si>
-    <t>I left it to the momentum and caressed it!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> caressed passionately!</t>
   </si>
   <si>
@@ -3767,12 +3805,6 @@
 AGI dependent</t>
   </si>
   <si>
-    <t>はヒーリングを唱えた！</t>
-  </si>
-  <si>
-    <t>Chanted healing!</t>
-  </si>
-  <si>
     <t>決意</t>
   </si>
   <si>
@@ -3850,18 +3882,11 @@
     <t>追い込む</t>
   </si>
   <si>
-    <t>Drive in</t>
-  </si>
-  <si>
     <t>Self Inflict</t>
   </si>
   <si>
     <t>自分で自分を攻撃する
 攻撃力依存　TP増加小</t>
-  </si>
-  <si>
-    <t>Attack yourself
-ATK dependent TP increase small</t>
   </si>
   <si>
     <t>Attack yourself.
@@ -4420,7 +4445,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D790"/>
+  <dimension ref="A1:B825"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -4428,5457 +4453,6499 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="D25" t="s">
+      <c r="B25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="D27" t="s">
+      <c r="B27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="D29" t="s">
+      <c r="B29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
-      <c r="D31" t="s">
+      <c r="B31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>45</v>
       </c>
-      <c r="D33" t="s">
+      <c r="B33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>48</v>
       </c>
-      <c r="D35" t="s">
+      <c r="B35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="D37" t="s">
+      <c r="B37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>53</v>
       </c>
-      <c r="D38" t="s">
+      <c r="B38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>56</v>
       </c>
-      <c r="D40" t="s">
+      <c r="B40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>59</v>
       </c>
-      <c r="D42" t="s">
+      <c r="B42" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>62</v>
       </c>
-      <c r="D44" t="s">
+      <c r="B44" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>65</v>
       </c>
-      <c r="D46" t="s">
+      <c r="B46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>68</v>
       </c>
-      <c r="D48" t="s">
+      <c r="B48" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>71</v>
       </c>
-      <c r="D50" t="s">
+      <c r="B50" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>75</v>
       </c>
-      <c r="D53" t="s">
+      <c r="B53" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>78</v>
       </c>
-      <c r="D55" t="s">
+      <c r="B55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>81</v>
       </c>
-      <c r="D57" t="s">
+      <c r="B57" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>84</v>
       </c>
-      <c r="D59" t="s">
+      <c r="B59" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>87</v>
       </c>
-      <c r="D61" t="s">
+      <c r="B61" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="B62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>90</v>
       </c>
-      <c r="D63" t="s">
+      <c r="B63" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="B64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>93</v>
       </c>
-      <c r="D65" t="s">
+      <c r="B65" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="B66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>96</v>
       </c>
-      <c r="D67" t="s">
+      <c r="B67" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>98</v>
       </c>
-      <c r="D68" t="s">
+      <c r="B68" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>100</v>
       </c>
-      <c r="D69" t="s">
+      <c r="B69" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="B70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>103</v>
       </c>
-      <c r="D71" t="s">
+      <c r="B71" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="B72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>106</v>
       </c>
-      <c r="D73" t="s">
+      <c r="B73" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="B74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>109</v>
       </c>
-      <c r="D75" t="s">
+      <c r="B75" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="B76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>112</v>
       </c>
-      <c r="D77" t="s">
+      <c r="B77" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="B78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>115</v>
       </c>
-      <c r="D79" t="s">
+      <c r="B79" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="B80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>118</v>
       </c>
-      <c r="D81" t="s">
+      <c r="B81" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="B82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>121</v>
       </c>
-      <c r="D83" t="s">
+      <c r="B83" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="B84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>124</v>
       </c>
-      <c r="D85" t="s">
+      <c r="B85" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="B86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="B87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>128</v>
       </c>
-      <c r="D88" t="s">
+      <c r="B88" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="B89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>131</v>
       </c>
-      <c r="D90" t="s">
+      <c r="B90" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="B91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>134</v>
       </c>
-      <c r="D92" t="s">
+      <c r="B92" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="B93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>137</v>
       </c>
-      <c r="D94" t="s">
+      <c r="B94" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="B95" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>140</v>
       </c>
-      <c r="D96" t="s">
+      <c r="B96" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="B97" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>143</v>
       </c>
-      <c r="D98" t="s">
+      <c r="B98" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="B99" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>146</v>
       </c>
-      <c r="D100" t="s">
+      <c r="B100" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="B101" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>149</v>
       </c>
-      <c r="D102" t="s">
+      <c r="B102" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="B103" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>152</v>
       </c>
-      <c r="D104" t="s">
+      <c r="B104" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="B105" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>155</v>
       </c>
-      <c r="D106" t="s">
+      <c r="B106" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="B107" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>158</v>
       </c>
-      <c r="D108" t="s">
+      <c r="B108" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="B109" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>161</v>
       </c>
-      <c r="D110" t="s">
+      <c r="B110" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="B111" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>164</v>
       </c>
-      <c r="D112" t="s">
+      <c r="B112" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="B113" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>167</v>
       </c>
-      <c r="D114" t="s">
+      <c r="B114" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="B115" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>170</v>
       </c>
-      <c r="D116" t="s">
+      <c r="B116" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="B117" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>173</v>
       </c>
-      <c r="D118" t="s">
+      <c r="B118" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="B119" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>176</v>
       </c>
-      <c r="D120" t="s">
+      <c r="B120" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="B121" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>179</v>
       </c>
-      <c r="D122" t="s">
+      <c r="B122" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="B123" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>182</v>
       </c>
-      <c r="D124" t="s">
+      <c r="B124" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="B125" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>185</v>
       </c>
-      <c r="D126" t="s">
+      <c r="B126" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="B127" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>188</v>
       </c>
-      <c r="D128" t="s">
+      <c r="B128" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="B129" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>191</v>
       </c>
-      <c r="D130" t="s">
+      <c r="B130" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="B131" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>194</v>
       </c>
-      <c r="D132" t="s">
+      <c r="B132" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="B133" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>197</v>
       </c>
-      <c r="D134" t="s">
+      <c r="B134" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="B135" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>200</v>
       </c>
-      <c r="D136" t="s">
+      <c r="B136" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="B137" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>203</v>
       </c>
-      <c r="D138" t="s">
+      <c r="B138" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="B139" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>206</v>
       </c>
-      <c r="D140" t="s">
+      <c r="B140" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="B141" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>209</v>
       </c>
-      <c r="D142" t="s">
+      <c r="B142" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="B143" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>212</v>
       </c>
-      <c r="D144" t="s">
+      <c r="B144" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="B145" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>215</v>
       </c>
-      <c r="D146" t="s">
+      <c r="B146" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="B147" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="B148" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>219</v>
       </c>
-      <c r="D149" t="s">
+      <c r="B149" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="B150" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>222</v>
       </c>
-      <c r="D151" t="s">
+      <c r="B151" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="B152" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>225</v>
       </c>
-      <c r="D153" t="s">
+      <c r="B153" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="B154" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="B155" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>229</v>
       </c>
-      <c r="D156" t="s">
+      <c r="B156" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="B157" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>232</v>
       </c>
-      <c r="D158" t="s">
+      <c r="B158" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="B159" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>235</v>
       </c>
-      <c r="D160" t="s">
+      <c r="B160" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>237</v>
       </c>
-      <c r="D161" t="s">
+      <c r="B161" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="B162" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="B163" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>241</v>
       </c>
-      <c r="D164" t="s">
+      <c r="B164" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="B165" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>244</v>
       </c>
-      <c r="D166" t="s">
+      <c r="B166" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="B167" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>247</v>
       </c>
-      <c r="D168" t="s">
+      <c r="B168" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="B169" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="B170" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>251</v>
       </c>
-      <c r="D171" t="s">
+      <c r="B171" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="B172" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="B173" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="B174" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>255</v>
       </c>
-      <c r="D175" t="s">
+      <c r="B175" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="B176" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>258</v>
       </c>
-      <c r="D177" t="s">
+      <c r="B177" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="B178" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>261</v>
       </c>
-      <c r="D179" t="s">
+      <c r="B179" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="B180" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>264</v>
       </c>
-      <c r="D181" t="s">
+      <c r="B181" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="B182" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>267</v>
       </c>
-      <c r="D183" t="s">
+      <c r="B183" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="B184" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>270</v>
       </c>
-      <c r="D185" t="s">
+      <c r="B185" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>272</v>
       </c>
-      <c r="D186" t="s">
+      <c r="B186" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="B187" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>275</v>
       </c>
-      <c r="D188" t="s">
+      <c r="B188" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="B189" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>278</v>
       </c>
-      <c r="D190" t="s">
+      <c r="B190" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="B191" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>281</v>
       </c>
-      <c r="D192" t="s">
+      <c r="B192" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="B193" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>284</v>
       </c>
-      <c r="D194" t="s">
+      <c r="B194" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>286</v>
       </c>
-      <c r="D195" t="s">
+      <c r="B195" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="B196" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>289</v>
       </c>
-      <c r="D197" t="s">
+      <c r="B197" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="B198" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>292</v>
       </c>
-      <c r="D199" t="s">
+      <c r="B199" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>294</v>
       </c>
-      <c r="D200" t="s">
+      <c r="B200" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="202" spans="1:4">
+      <c r="B201" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>297</v>
       </c>
-      <c r="D202" t="s">
+      <c r="B202" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="B203" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>300</v>
       </c>
-      <c r="D204" t="s">
+      <c r="B204" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="B205" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>303</v>
       </c>
-      <c r="D206" t="s">
+      <c r="B206" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
+      <c r="B207" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>306</v>
       </c>
-      <c r="D208" t="s">
+      <c r="B208" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>308</v>
       </c>
-      <c r="D209" t="s">
+      <c r="B209" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="B210" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>311</v>
       </c>
-      <c r="D211" t="s">
+      <c r="B211" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="213" spans="1:4">
+      <c r="B212" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>314</v>
       </c>
-      <c r="D213" t="s">
+      <c r="B213" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
+      <c r="B214" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
         <v>317</v>
       </c>
-      <c r="D215" t="s">
+      <c r="B215" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="217" spans="1:4">
+      <c r="B216" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
         <v>320</v>
       </c>
-      <c r="D217" t="s">
+      <c r="B217" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="219" spans="1:4">
+      <c r="B218" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>323</v>
       </c>
-      <c r="D219" t="s">
+      <c r="B219" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="221" spans="1:4">
+      <c r="B220" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
         <v>326</v>
       </c>
-      <c r="D221" t="s">
+      <c r="B221" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
+      <c r="B222" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
         <v>329</v>
       </c>
-      <c r="D223" t="s">
+      <c r="B223" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
+      <c r="B224" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
         <v>332</v>
       </c>
-      <c r="D225" t="s">
+      <c r="B225" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
+      <c r="B226" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>335</v>
       </c>
-      <c r="D227" t="s">
+      <c r="B227" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="229" spans="1:4">
+      <c r="B228" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
         <v>338</v>
       </c>
-      <c r="D229" t="s">
+      <c r="B229" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="231" spans="1:4">
+      <c r="B230" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
         <v>341</v>
       </c>
-      <c r="D231" t="s">
+      <c r="B231" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="233" spans="1:4">
+      <c r="B232" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>344</v>
       </c>
-      <c r="D233" t="s">
+      <c r="B233" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="235" spans="1:4">
+      <c r="B234" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
         <v>347</v>
       </c>
-      <c r="D235" t="s">
+      <c r="B235" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="237" spans="1:4">
+      <c r="B236" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
         <v>350</v>
       </c>
-      <c r="D237" t="s">
+      <c r="B237" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="239" spans="1:4">
+      <c r="B238" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
         <v>353</v>
       </c>
-      <c r="D239" t="s">
+      <c r="B239" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
+      <c r="B240" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="242" spans="1:4">
+      <c r="B241" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
         <v>357</v>
       </c>
-      <c r="D242" t="s">
+      <c r="B242" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="244" spans="1:4">
+      <c r="B243" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
         <v>360</v>
       </c>
-      <c r="D244" t="s">
+      <c r="B244" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="246" spans="1:4">
+      <c r="B245" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>363</v>
       </c>
-      <c r="D246" t="s">
+      <c r="B246" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="248" spans="1:4">
+      <c r="B247" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
         <v>366</v>
       </c>
-      <c r="D248" t="s">
+      <c r="B248" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="250" spans="1:4">
+      <c r="B249" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
         <v>369</v>
       </c>
-      <c r="D250" t="s">
+      <c r="B250" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="252" spans="1:4">
+      <c r="B251" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
         <v>372</v>
       </c>
-      <c r="D252" t="s">
+      <c r="B252" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="254" spans="1:4">
+      <c r="B253" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
         <v>375</v>
       </c>
-      <c r="D254" t="s">
+      <c r="B254" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="256" spans="1:4">
+      <c r="B255" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
         <v>378</v>
       </c>
-      <c r="D256" t="s">
+      <c r="B256" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:2">
       <c r="A257" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="258" spans="1:4">
+      <c r="B257" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
       <c r="A258" t="s">
         <v>381</v>
       </c>
-      <c r="D258" t="s">
+      <c r="B258" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:2">
       <c r="A259" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="260" spans="1:4">
+      <c r="B259" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
       <c r="A260" t="s">
         <v>384</v>
       </c>
-      <c r="D260" t="s">
+      <c r="B260" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:2">
       <c r="A261" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="262" spans="1:4">
+      <c r="B261" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
       <c r="A262" t="s">
         <v>387</v>
       </c>
-      <c r="D262" t="s">
+      <c r="B262" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:2">
       <c r="A263" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="264" spans="1:4">
+      <c r="B263" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
       <c r="A264" t="s">
         <v>390</v>
       </c>
-      <c r="D264" t="s">
+      <c r="B264" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:2">
       <c r="A265" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="266" spans="1:4">
+      <c r="B265" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
       <c r="A266" t="s">
         <v>393</v>
       </c>
-      <c r="D266" t="s">
+      <c r="B266" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:2">
       <c r="A267" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="268" spans="1:4">
+      <c r="B267" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
       <c r="A268" t="s">
         <v>396</v>
       </c>
-      <c r="D268" t="s">
+      <c r="B268" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:2">
       <c r="A269" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="270" spans="1:4">
+      <c r="B269" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
       <c r="A270" t="s">
         <v>399</v>
       </c>
-      <c r="D270" t="s">
+      <c r="B270" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:2">
       <c r="A271" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="272" spans="1:4">
+      <c r="B271" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
       <c r="A272" t="s">
         <v>402</v>
       </c>
-      <c r="D272" t="s">
+      <c r="B272" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:2">
       <c r="A273" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="274" spans="1:4">
+      <c r="B273" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
       <c r="A274" t="s">
         <v>405</v>
       </c>
-      <c r="D274" t="s">
+      <c r="B274" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:2">
       <c r="A275" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="276" spans="1:4">
+      <c r="B275" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
       <c r="A276" t="s">
         <v>408</v>
       </c>
-      <c r="D276" t="s">
+      <c r="B276" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:2">
       <c r="A277" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="278" spans="1:4">
+      <c r="B277" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
       <c r="A278" t="s">
         <v>411</v>
       </c>
-      <c r="D278" t="s">
+      <c r="B278" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:2">
       <c r="A279" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="280" spans="1:4">
+      <c r="B279" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
       <c r="A280" t="s">
         <v>414</v>
       </c>
-      <c r="D280" t="s">
+      <c r="B280" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:2">
       <c r="A281" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="282" spans="1:4">
+      <c r="B281" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
       <c r="A282" t="s">
         <v>417</v>
       </c>
-      <c r="D282" t="s">
+      <c r="B282" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:2">
       <c r="A283" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="284" spans="1:4">
+      <c r="B283" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
       <c r="A284" t="s">
         <v>420</v>
       </c>
-      <c r="D284" t="s">
+      <c r="B284" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:2">
       <c r="A285" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="286" spans="1:4">
+      <c r="B285" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
       <c r="A286" t="s">
         <v>423</v>
       </c>
-      <c r="D286" t="s">
+      <c r="B286" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:2">
       <c r="A287" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="288" spans="1:4">
+      <c r="B287" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
       <c r="A288" t="s">
         <v>426</v>
       </c>
-      <c r="D288" t="s">
+      <c r="B288" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:2">
       <c r="A289" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="290" spans="1:4">
+      <c r="B289" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
       <c r="A290" t="s">
         <v>429</v>
       </c>
-      <c r="D290" t="s">
+      <c r="B290" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:2">
       <c r="A291" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="292" spans="1:4">
+      <c r="B291" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
       <c r="A292" t="s">
         <v>432</v>
       </c>
-      <c r="D292" t="s">
+      <c r="B292" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:2">
       <c r="A293" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="294" spans="1:4">
+      <c r="B293" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
       <c r="A294" t="s">
         <v>435</v>
       </c>
-      <c r="D294" t="s">
+      <c r="B294" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:2">
       <c r="A295" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="296" spans="1:4">
+      <c r="B295" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
       <c r="A296" t="s">
         <v>438</v>
       </c>
-      <c r="D296" t="s">
+      <c r="B296" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:2">
       <c r="A297" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="298" spans="1:4">
+      <c r="B297" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
       <c r="A298" t="s">
         <v>441</v>
       </c>
-      <c r="D298" t="s">
+      <c r="B298" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:2">
       <c r="A299" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="300" spans="1:4">
+      <c r="B299" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
       <c r="A300" t="s">
         <v>444</v>
       </c>
-      <c r="D300" t="s">
+      <c r="B300" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:2">
       <c r="A301" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="302" spans="1:4">
+      <c r="B301" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
       <c r="A302" t="s">
         <v>447</v>
       </c>
-      <c r="D302" t="s">
+      <c r="B302" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:2">
       <c r="A303" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="304" spans="1:4">
+      <c r="B303" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
       <c r="A304" t="s">
         <v>450</v>
       </c>
-      <c r="D304" t="s">
+      <c r="B304" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:2">
       <c r="A305" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="306" spans="1:4">
+      <c r="B305" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
       <c r="A306" t="s">
         <v>453</v>
       </c>
-      <c r="D306" t="s">
+      <c r="B306" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:2">
       <c r="A307" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="308" spans="1:4">
+      <c r="B307" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
       <c r="A308" t="s">
         <v>456</v>
       </c>
-      <c r="D308" t="s">
+      <c r="B308" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:2">
       <c r="A309" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="310" spans="1:4">
+      <c r="B309" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
       <c r="A310" t="s">
         <v>459</v>
       </c>
-      <c r="D310" t="s">
+      <c r="B310" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:2">
       <c r="A311" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="312" spans="1:4">
+      <c r="B311" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
       <c r="A312" t="s">
         <v>462</v>
       </c>
-      <c r="D312" t="s">
+      <c r="B312" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:2">
       <c r="A313" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="314" spans="1:4">
+      <c r="B313" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
       <c r="A314" t="s">
         <v>465</v>
       </c>
-      <c r="D314" t="s">
+      <c r="B314" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:2">
       <c r="A315" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="316" spans="1:4">
+      <c r="B315" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
       <c r="A316" t="s">
         <v>468</v>
       </c>
-      <c r="D316" t="s">
+      <c r="B316" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:2">
       <c r="A317" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="318" spans="1:4">
+      <c r="B317" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
       <c r="A318" t="s">
         <v>471</v>
       </c>
-      <c r="D318" t="s">
+      <c r="B318" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:2">
       <c r="A319" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="320" spans="1:4">
+      <c r="B319" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
       <c r="A320" t="s">
         <v>474</v>
       </c>
-      <c r="D320" t="s">
+      <c r="B320" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:2">
       <c r="A321" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="322" spans="1:4">
+      <c r="B321" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
       <c r="A322" t="s">
         <v>477</v>
       </c>
-      <c r="D322" t="s">
+      <c r="B322" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:2">
       <c r="A323" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="324" spans="1:4">
+      <c r="B323" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
       <c r="A324" t="s">
         <v>480</v>
       </c>
-      <c r="D324" t="s">
+      <c r="B324" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:2">
       <c r="A325" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="326" spans="1:4">
+      <c r="B325" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
       <c r="A326" t="s">
         <v>483</v>
       </c>
-      <c r="D326" t="s">
+      <c r="B326" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:2">
       <c r="A327" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="328" spans="1:4">
+      <c r="B327" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
       <c r="A328" t="s">
         <v>486</v>
       </c>
-      <c r="D328" t="s">
+      <c r="B328" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:2">
       <c r="A329" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="330" spans="1:4">
+      <c r="B329" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
       <c r="A330" t="s">
         <v>489</v>
       </c>
-      <c r="D330" t="s">
+      <c r="B330" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:2">
       <c r="A331" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="332" spans="1:4">
+      <c r="B331" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
       <c r="A332" t="s">
         <v>492</v>
       </c>
-      <c r="D332" t="s">
+      <c r="B332" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:2">
       <c r="A333" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="334" spans="1:4">
+      <c r="B333" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
       <c r="A334" t="s">
         <v>495</v>
       </c>
-      <c r="D334" t="s">
+      <c r="B334" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:2">
       <c r="A335" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="336" spans="1:4">
+      <c r="B335" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
       <c r="A336" t="s">
         <v>498</v>
       </c>
-      <c r="D336" t="s">
+      <c r="B336" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:2">
       <c r="A337" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="338" spans="1:4">
+      <c r="B337" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
       <c r="A338" t="s">
         <v>501</v>
       </c>
-      <c r="D338" t="s">
+      <c r="B338" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:2">
       <c r="A339" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="340" spans="1:4">
+      <c r="B339" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
       <c r="A340" t="s">
         <v>504</v>
       </c>
-      <c r="D340" t="s">
+      <c r="B340" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:2">
       <c r="A341" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="342" spans="1:4">
+      <c r="B341" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
       <c r="A342" t="s">
         <v>507</v>
       </c>
-      <c r="D342" t="s">
+      <c r="B342" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:2">
       <c r="A343" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="344" spans="1:4">
+      <c r="B343" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
       <c r="A344" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="345" spans="1:4">
+      <c r="B344" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
       <c r="A345" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="346" spans="1:4">
+      <c r="B345" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
       <c r="A346" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="347" spans="1:4">
+      <c r="B346" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
       <c r="A347" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="348" spans="1:4">
+      <c r="B347" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
       <c r="A348" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="349" spans="1:4">
+      <c r="B348" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
       <c r="A349" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="350" spans="1:4">
+      <c r="B349" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
       <c r="A350" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="351" spans="1:4">
+      <c r="B350" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
       <c r="A351" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="352" spans="1:4">
+      <c r="B351" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
       <c r="A352" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="353" spans="1:4">
+      <c r="B352" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
       <c r="A353" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="354" spans="1:4">
+      <c r="B353" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
       <c r="A354" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="355" spans="1:4">
+      <c r="B354" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
       <c r="A355" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="356" spans="1:4">
+      <c r="B355" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
       <c r="A356" t="s">
         <v>522</v>
       </c>
-      <c r="D356" t="s">
+      <c r="B356" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:2">
       <c r="A357" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="358" spans="1:4">
+      <c r="B357" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
       <c r="A358" t="s">
         <v>525</v>
       </c>
-      <c r="D358" t="s">
+      <c r="B358" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:2">
       <c r="A359" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="360" spans="1:4">
+      <c r="B359" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
       <c r="A360" t="s">
         <v>528</v>
       </c>
-      <c r="D360" t="s">
+      <c r="B360" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:2">
       <c r="A361" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="362" spans="1:4">
+      <c r="B361" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
       <c r="A362" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="363" spans="1:4">
+      <c r="B362" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
       <c r="A363" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="364" spans="1:4">
+      <c r="B363" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
       <c r="A364" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="365" spans="1:4">
+      <c r="B364" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
       <c r="A365" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="366" spans="1:4">
+      <c r="B365" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
       <c r="A366" t="s">
         <v>535</v>
       </c>
-      <c r="D366" t="s">
+      <c r="B366" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:2">
       <c r="A367" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="368" spans="1:4">
+      <c r="B367" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
       <c r="A368" t="s">
         <v>538</v>
       </c>
-      <c r="D368" t="s">
+      <c r="B368" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:2">
       <c r="A369" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="370" spans="1:4">
+      <c r="B369" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
       <c r="A370" t="s">
         <v>541</v>
       </c>
-      <c r="D370" t="s">
+      <c r="B370" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:2">
       <c r="A371" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="372" spans="1:4">
+      <c r="B371" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
       <c r="A372" t="s">
         <v>544</v>
       </c>
-      <c r="D372" t="s">
+      <c r="B372" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:2">
       <c r="A373" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="374" spans="1:4">
+      <c r="B373" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
       <c r="A374" t="s">
         <v>547</v>
       </c>
-      <c r="D374" t="s">
+      <c r="B374" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:2">
       <c r="A375" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="376" spans="1:4">
+      <c r="B375" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
       <c r="A376" t="s">
         <v>550</v>
       </c>
-      <c r="D376" t="s">
+      <c r="B376" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:2">
       <c r="A377" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="378" spans="1:4">
+      <c r="B377" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
       <c r="A378" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="379" spans="1:4">
+      <c r="B378" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
       <c r="A379" t="s">
         <v>554</v>
       </c>
-      <c r="D379" t="s">
+      <c r="B379" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:2">
       <c r="A380" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="381" spans="1:4">
+      <c r="B380" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
       <c r="A381" t="s">
         <v>557</v>
       </c>
-      <c r="D381" t="s">
+      <c r="B381" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:2">
       <c r="A382" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="383" spans="1:4">
+      <c r="B382" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
       <c r="A383" t="s">
         <v>560</v>
       </c>
-      <c r="D383" t="s">
+      <c r="B383" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:2">
       <c r="A384" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="385" spans="1:4">
+      <c r="B384" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
       <c r="A385" t="s">
         <v>563</v>
       </c>
-      <c r="D385" t="s">
+      <c r="B385" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:2">
       <c r="A386" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="387" spans="1:4">
+      <c r="B386" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
       <c r="A387" t="s">
         <v>566</v>
       </c>
-      <c r="D387" t="s">
+      <c r="B387" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:2">
       <c r="A388" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="389" spans="1:4">
+      <c r="B388" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
       <c r="A389" t="s">
         <v>569</v>
       </c>
-      <c r="D389" t="s">
+      <c r="B389" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:2">
       <c r="A390" t="s">
         <v>571</v>
       </c>
-      <c r="D390" t="s">
+      <c r="B390" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:2">
       <c r="A391" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="392" spans="1:4">
+      <c r="B391" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
       <c r="A392" t="s">
         <v>574</v>
       </c>
-      <c r="D392" t="s">
+      <c r="B392" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:2">
       <c r="A393" t="s">
         <v>576</v>
       </c>
-      <c r="D393" t="s">
+      <c r="B393" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:2">
       <c r="A394" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="395" spans="1:4">
+      <c r="B394" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
       <c r="A395" t="s">
         <v>579</v>
       </c>
-      <c r="D395" t="s">
+      <c r="B395" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:2">
       <c r="A396" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="397" spans="1:4">
+      <c r="B396" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
       <c r="A397" t="s">
         <v>582</v>
       </c>
-      <c r="D397" t="s">
+      <c r="B397" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:2">
       <c r="A398" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="399" spans="1:4">
+      <c r="B398" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
       <c r="A399" t="s">
         <v>585</v>
       </c>
-      <c r="D399" t="s">
+      <c r="B399" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:2">
       <c r="A400" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="401" spans="1:4">
+      <c r="B400" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
       <c r="A401" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="402" spans="1:4">
+      <c r="B401" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
       <c r="A402" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="403" spans="1:4">
+      <c r="B402" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
       <c r="A403" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="404" spans="1:4">
+      <c r="B403" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
       <c r="A404" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="405" spans="1:4">
+      <c r="B404" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
       <c r="A405" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="406" spans="1:4">
+      <c r="B405" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
       <c r="A406" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="407" spans="1:4">
+      <c r="B406" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
       <c r="A407" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="408" spans="1:4">
+      <c r="B407" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
       <c r="A408" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="409" spans="1:4">
+      <c r="B408" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
       <c r="A409" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="410" spans="1:4">
+      <c r="B409" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
       <c r="A410" t="s">
         <v>597</v>
       </c>
-      <c r="D410" t="s">
+      <c r="B410" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:2">
       <c r="A411" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="412" spans="1:4">
+      <c r="B411" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
       <c r="A412" t="s">
         <v>600</v>
       </c>
-      <c r="D412" t="s">
+      <c r="B412" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:2">
       <c r="A413" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="414" spans="1:4">
+      <c r="B413" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
       <c r="A414" t="s">
         <v>603</v>
       </c>
-      <c r="D414" t="s">
+      <c r="B414" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:2">
       <c r="A415" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="416" spans="1:4">
+      <c r="B415" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
       <c r="A416" t="s">
         <v>606</v>
       </c>
-      <c r="D416" t="s">
+      <c r="B416" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:2">
       <c r="A417" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="418" spans="1:4">
+      <c r="B417" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
       <c r="A418" t="s">
         <v>609</v>
       </c>
-      <c r="D418" t="s">
+      <c r="B418" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:2">
       <c r="A419" t="s">
         <v>611</v>
       </c>
-      <c r="D419" t="s">
+      <c r="B419" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:2">
       <c r="A420" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="421" spans="1:4">
+      <c r="B420" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
       <c r="A421" t="s">
         <v>614</v>
       </c>
-      <c r="D421" t="s">
+      <c r="B421" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:2">
       <c r="A422" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="423" spans="1:4">
+      <c r="B422" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
       <c r="A423" t="s">
         <v>617</v>
       </c>
-      <c r="D423" t="s">
+      <c r="B423" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:2">
       <c r="A424" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="425" spans="1:4">
+      <c r="B424" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
       <c r="A425" t="s">
         <v>620</v>
       </c>
-      <c r="D425" t="s">
+      <c r="B425" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:2">
       <c r="A426" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="427" spans="1:4">
+      <c r="B426" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
       <c r="A427" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="428" spans="1:4">
+      <c r="B427" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
       <c r="A428" t="s">
         <v>624</v>
       </c>
-      <c r="D428" t="s">
+      <c r="B428" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:2">
       <c r="A429" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="430" spans="1:4">
+      <c r="B429" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
       <c r="A430" t="s">
         <v>627</v>
       </c>
-      <c r="D430" t="s">
+      <c r="B430" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:2">
       <c r="A431" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="432" spans="1:4">
+      <c r="B431" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
       <c r="A432" t="s">
         <v>630</v>
       </c>
-      <c r="D432" t="s">
+      <c r="B432" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:2">
       <c r="A433" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="434" spans="1:4">
+      <c r="B433" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
       <c r="A434" t="s">
         <v>633</v>
       </c>
-      <c r="D434" t="s">
+      <c r="B434" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:2">
       <c r="A435" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="436" spans="1:4">
+      <c r="B435" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
       <c r="A436" t="s">
         <v>636</v>
       </c>
-      <c r="D436" t="s">
+      <c r="B436" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:2">
       <c r="A437" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="438" spans="1:4">
+      <c r="B437" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
       <c r="A438" t="s">
         <v>639</v>
       </c>
-      <c r="D438" t="s">
+      <c r="B438" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:2">
       <c r="A439" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="440" spans="1:4">
+      <c r="B439" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
       <c r="A440" t="s">
         <v>642</v>
       </c>
-      <c r="D440" t="s">
+      <c r="B440" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:2">
       <c r="A441" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="442" spans="1:4">
+      <c r="B441" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
       <c r="A442" t="s">
         <v>645</v>
       </c>
-      <c r="D442" t="s">
+      <c r="B442" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:2">
       <c r="A443" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="444" spans="1:4">
+      <c r="B443" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
       <c r="A444" t="s">
         <v>648</v>
       </c>
-      <c r="D444" t="s">
+      <c r="B444" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:2">
       <c r="A445" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="446" spans="1:4">
+      <c r="B445" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
       <c r="A446" t="s">
         <v>651</v>
       </c>
-      <c r="D446" t="s">
+      <c r="B446" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:2">
       <c r="A447" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="448" spans="1:4">
+      <c r="B447" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
       <c r="A448" t="s">
         <v>654</v>
       </c>
-      <c r="D448" t="s">
+      <c r="B448" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:2">
       <c r="A449" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="450" spans="1:4">
+      <c r="B449" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
       <c r="A450" t="s">
         <v>657</v>
       </c>
-      <c r="D450" t="s">
+      <c r="B450" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:2">
       <c r="A451" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="452" spans="1:4">
+      <c r="B451" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
       <c r="A452" t="s">
         <v>660</v>
       </c>
-      <c r="D452" t="s">
+      <c r="B452" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:2">
       <c r="A453" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:2">
       <c r="A454" t="s">
         <v>663</v>
       </c>
-      <c r="D454" t="s">
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
-      <c r="A455" t="s">
+    <row r="456" spans="1:2">
+      <c r="A456" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
-      <c r="A456" t="s">
+    <row r="457" spans="1:2">
+      <c r="A457" t="s">
         <v>666</v>
       </c>
-      <c r="D456" t="s">
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="457" spans="1:4">
-      <c r="A457" t="s">
+      <c r="B458" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
-      <c r="A458" t="s">
+    <row r="459" spans="1:2">
+      <c r="A459" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
-      <c r="A459" t="s">
+    <row r="460" spans="1:2">
+      <c r="A460" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
-      <c r="A460" t="s">
+    <row r="461" spans="1:2">
+      <c r="A461" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
-      <c r="A461" t="s">
+    <row r="462" spans="1:2">
+      <c r="A462" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
-      <c r="A462" t="s">
+    <row r="463" spans="1:2">
+      <c r="A463" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
-      <c r="A463" t="s">
+    <row r="464" spans="1:2">
+      <c r="A464" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
-      <c r="A464" t="s">
+    <row r="465" spans="1:2">
+      <c r="A465" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
-      <c r="A465" t="s">
+    <row r="466" spans="1:2">
+      <c r="A466" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
-      <c r="A466" t="s">
+    <row r="467" spans="1:2">
+      <c r="A467" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="467" spans="1:4">
-      <c r="A467" t="s">
+      <c r="B467" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="468" spans="1:4">
-      <c r="A468" t="s">
+      <c r="B468" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:2">
       <c r="A469" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="470" spans="1:4">
+      <c r="B469" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
       <c r="A470" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="471" spans="1:4">
+      <c r="B470" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4">
+        <v>683</v>
+      </c>
+      <c r="B471" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4">
+        <v>684</v>
+      </c>
+      <c r="B472" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4">
+        <v>685</v>
+      </c>
+      <c r="B473" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4">
+        <v>686</v>
+      </c>
+      <c r="B474" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4">
+        <v>687</v>
+      </c>
+      <c r="B475" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4">
+        <v>688</v>
+      </c>
+      <c r="B476" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4">
+        <v>689</v>
+      </c>
+      <c r="B477" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4">
+        <v>690</v>
+      </c>
+      <c r="B478" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4">
+        <v>691</v>
+      </c>
+      <c r="B479" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4">
+        <v>692</v>
+      </c>
+      <c r="B480" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4">
+        <v>693</v>
+      </c>
+      <c r="B481" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4">
+        <v>694</v>
+      </c>
+      <c r="B482" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4">
+        <v>695</v>
+      </c>
+      <c r="B483" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4">
+        <v>696</v>
+      </c>
+      <c r="B484" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4">
+        <v>697</v>
+      </c>
+      <c r="B485" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4">
+        <v>699</v>
+      </c>
+      <c r="B487" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4">
+        <v>703</v>
+      </c>
+      <c r="B491" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
       <c r="A492" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4">
+        <v>704</v>
+      </c>
+      <c r="B492" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
       <c r="A493" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4">
+        <v>705</v>
+      </c>
+      <c r="B493" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4">
+        <v>706</v>
+      </c>
+      <c r="B494" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4">
+        <v>707</v>
+      </c>
+      <c r="B495" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
       <c r="A496" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4">
+        <v>708</v>
+      </c>
+      <c r="B496" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4">
+        <v>709</v>
+      </c>
+      <c r="B497" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4">
+        <v>710</v>
+      </c>
+      <c r="B498" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4">
+        <v>711</v>
+      </c>
+      <c r="B499" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4">
+        <v>712</v>
+      </c>
+      <c r="B500" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
       <c r="A501" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4">
+        <v>713</v>
+      </c>
+      <c r="B501" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4">
+        <v>714</v>
+      </c>
+      <c r="B502" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4">
+        <v>715</v>
+      </c>
+      <c r="B503" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4">
+        <v>716</v>
+      </c>
+      <c r="B504" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4">
+        <v>717</v>
+      </c>
+      <c r="B505" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4">
+        <v>718</v>
+      </c>
+      <c r="B506" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4">
+        <v>719</v>
+      </c>
+      <c r="B507" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4">
+        <v>720</v>
+      </c>
+      <c r="B508" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4">
+        <v>721</v>
+      </c>
+      <c r="B509" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4">
+        <v>722</v>
+      </c>
+      <c r="B510" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
       <c r="A511" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4">
+        <v>723</v>
+      </c>
+      <c r="B511" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4">
+        <v>724</v>
+      </c>
+      <c r="B512" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4">
+        <v>725</v>
+      </c>
+      <c r="B513" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4">
+        <v>726</v>
+      </c>
+      <c r="B514" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
       <c r="A515" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4">
+        <v>727</v>
+      </c>
+      <c r="B515" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
       <c r="A516" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4">
+        <v>728</v>
+      </c>
+      <c r="B516" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="518" spans="1:4">
+        <v>729</v>
+      </c>
+      <c r="B517" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>729</v>
-      </c>
-      <c r="C518" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="519" spans="1:4">
+      <c r="B518" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
       <c r="A519" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="520" spans="1:4">
+      <c r="B519" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
       <c r="A520" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="521" spans="1:4">
+      <c r="B520" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
       <c r="A521" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="522" spans="1:4">
+      <c r="B521" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
       <c r="A522" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="523" spans="1:4">
+      <c r="B522" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
       <c r="A523" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="524" spans="1:4">
+      <c r="B523" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
       <c r="A524" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="525" spans="1:4">
+      <c r="B524" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
       <c r="A525" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="526" spans="1:4">
+      <c r="B525" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
       <c r="A526" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="527" spans="1:4">
+      <c r="B526" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
       <c r="A527" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="528" spans="1:4">
+      <c r="B527" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
       <c r="A528" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="529" spans="1:4">
+      <c r="B528" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
       <c r="A529" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="530" spans="1:4">
+      <c r="B529" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
       <c r="A530" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="531" spans="1:4">
+      <c r="B530" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
       <c r="A531" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="532" spans="1:4">
+      <c r="B531" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
       <c r="A532" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="533" spans="1:4">
+      <c r="B532" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
       <c r="A533" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="534" spans="1:4">
+      <c r="B533" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
       <c r="A534" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="535" spans="1:4">
+      <c r="B534" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
       <c r="A535" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="536" spans="1:4">
+      <c r="B535" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
       <c r="A536" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="537" spans="1:4">
+      <c r="B536" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4">
+        <v>750</v>
+      </c>
+      <c r="B537" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="539" spans="1:4">
+        <v>751</v>
+      </c>
+      <c r="B538" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="540" spans="1:4">
+        <v>752</v>
+      </c>
+      <c r="B539" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="541" spans="1:4">
+        <v>753</v>
+      </c>
+      <c r="B540" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="542" spans="1:4">
+        <v>754</v>
+      </c>
+      <c r="B541" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="543" spans="1:4">
+        <v>755</v>
+      </c>
+      <c r="B542" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B543" t="s">
         <v>756</v>
       </c>
-      <c r="D543" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="544" spans="1:4">
+    </row>
+    <row r="544" spans="1:2">
       <c r="A544" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="545" spans="1:4">
+      <c r="B544" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
       <c r="A545" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="546" spans="1:4">
+      <c r="B545" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
       <c r="A546" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="547" spans="1:4">
+      <c r="B546" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
       <c r="A547" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="548" spans="1:4">
+      <c r="B547" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
       <c r="A548" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="549" spans="1:4">
+      <c r="B548" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
       <c r="A549" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="550" spans="1:4">
+      <c r="B549" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
       <c r="A550" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="551" spans="1:4">
+      <c r="B550" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
       <c r="A551" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="552" spans="1:4">
+      <c r="B551" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
       <c r="A552" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="553" spans="1:4">
+      <c r="B552" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
       <c r="A553" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="554" spans="1:4">
+      <c r="B553" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
       <c r="A554" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="555" spans="1:4">
+      <c r="B554" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
       <c r="A555" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="556" spans="1:4">
+      <c r="B555" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
       <c r="A556" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="557" spans="1:4">
+      <c r="B556" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
       <c r="A557" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="558" spans="1:4">
+      <c r="B557" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
       <c r="A558" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="559" spans="1:4">
+      <c r="B558" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
       <c r="A559" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="560" spans="1:4">
+      <c r="B559" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
       <c r="A560" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="561" spans="1:4">
+      <c r="B560" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
       <c r="A561" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="562" spans="1:4">
+      <c r="B561" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="563" spans="1:4">
+        <v>776</v>
+      </c>
+      <c r="B562" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="564" spans="1:4">
+        <v>777</v>
+      </c>
+      <c r="B563" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="565" spans="1:4">
+        <v>778</v>
+      </c>
+      <c r="B564" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
       <c r="A565" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="566" spans="1:4">
+        <v>779</v>
+      </c>
+      <c r="B565" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
       <c r="A566" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4">
+        <v>780</v>
+      </c>
+      <c r="B566" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4">
+        <v>781</v>
+      </c>
+      <c r="B567" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
       <c r="A568" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="569" spans="1:4">
+        <v>782</v>
+      </c>
+      <c r="B568" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
       <c r="A569" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4">
+        <v>783</v>
+      </c>
+      <c r="B569" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4">
+        <v>784</v>
+      </c>
+      <c r="B570" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
       <c r="A571" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="572" spans="1:4">
+        <v>785</v>
+      </c>
+      <c r="B571" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
       <c r="A572" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="573" spans="1:4">
+        <v>786</v>
+      </c>
+      <c r="B572" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="574" spans="1:4">
+        <v>787</v>
+      </c>
+      <c r="B573" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4">
+        <v>788</v>
+      </c>
+      <c r="B574" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4">
+        <v>789</v>
+      </c>
+      <c r="B575" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4">
+        <v>790</v>
+      </c>
+      <c r="B576" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="578" spans="1:4">
+        <v>791</v>
+      </c>
+      <c r="B577" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="579" spans="1:4">
+        <v>792</v>
+      </c>
+      <c r="B578" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
       <c r="A579" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B579" t="s">
         <v>793</v>
       </c>
-      <c r="D579" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="580" spans="1:4">
+    </row>
+    <row r="580" spans="1:2">
       <c r="A580" t="s">
         <v>794</v>
       </c>
       <c r="B580" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" t="s">
         <v>795</v>
       </c>
-      <c r="D580" t="s">
+      <c r="B581" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
-      <c r="A581" t="s">
+    <row r="582" spans="1:2">
+      <c r="A582" t="s">
         <v>796</v>
       </c>
-      <c r="B581" t="s">
+      <c r="B582" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" t="s">
         <v>797</v>
       </c>
-      <c r="D581" t="s">
+      <c r="B583" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
-      <c r="A582" t="s">
+    <row r="584" spans="1:2">
+      <c r="A584" t="s">
         <v>798</v>
       </c>
-      <c r="B582" t="s">
+      <c r="B584" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" t="s">
         <v>799</v>
       </c>
-      <c r="D582" t="s">
+      <c r="B585" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
-      <c r="A583" t="s">
+    <row r="586" spans="1:2">
+      <c r="A586" t="s">
         <v>800</v>
       </c>
-      <c r="B583" t="s">
+      <c r="B586" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" t="s">
         <v>801</v>
       </c>
-      <c r="D583" t="s">
+      <c r="B587" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
-      <c r="A584" t="s">
+    <row r="588" spans="1:2">
+      <c r="A588" t="s">
         <v>802</v>
       </c>
-      <c r="B584" t="s">
+      <c r="B588" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" t="s">
         <v>803</v>
       </c>
-      <c r="D584" t="s">
+      <c r="B589" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
-      <c r="A585" t="s">
+    <row r="590" spans="1:2">
+      <c r="A590" t="s">
         <v>804</v>
       </c>
-      <c r="B585" t="s">
+      <c r="B590" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" t="s">
         <v>805</v>
       </c>
-      <c r="D585" t="s">
+      <c r="B591" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
-      <c r="A586" t="s">
+    <row r="592" spans="1:2">
+      <c r="A592" t="s">
         <v>806</v>
       </c>
-      <c r="B586" t="s">
+      <c r="B592" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" t="s">
         <v>807</v>
       </c>
-      <c r="D586" t="s">
+      <c r="B593" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
-      <c r="A587" t="s">
+    <row r="594" spans="1:2">
+      <c r="A594" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="588" spans="1:4">
-      <c r="A588" t="s">
+      <c r="B594" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" t="s">
         <v>809</v>
       </c>
-      <c r="B588" t="s">
+      <c r="B595" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" t="s">
         <v>810</v>
       </c>
-      <c r="D588" t="s">
+      <c r="B596" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
-      <c r="A589" t="s">
+    <row r="597" spans="1:2">
+      <c r="A597" t="s">
         <v>811</v>
       </c>
-      <c r="B589" t="s">
+      <c r="B597" t="s">
         <v>812</v>
       </c>
-      <c r="D589" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="590" spans="1:4">
-      <c r="A590" t="s">
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" t="s">
         <v>813</v>
       </c>
-      <c r="B590" t="s">
+      <c r="B598" t="s">
         <v>814</v>
       </c>
-      <c r="D590" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="591" spans="1:4">
-      <c r="A591" t="s">
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" t="s">
         <v>815</v>
       </c>
-      <c r="B591" t="s">
+      <c r="B599" t="s">
         <v>816</v>
       </c>
-      <c r="D591" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="592" spans="1:4">
-      <c r="A592" t="s">
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" t="s">
         <v>817</v>
       </c>
-      <c r="B592" t="s">
+      <c r="B600" t="s">
         <v>818</v>
       </c>
-      <c r="D592" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="593" spans="1:4">
-      <c r="A593" t="s">
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" t="s">
         <v>819</v>
       </c>
-      <c r="B593" t="s">
+      <c r="B601" t="s">
         <v>820</v>
       </c>
-      <c r="D593" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="594" spans="1:4">
-      <c r="A594" t="s">
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" t="s">
         <v>821</v>
       </c>
-      <c r="B594" t="s">
+      <c r="B602" t="s">
         <v>822</v>
       </c>
-      <c r="D594" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="595" spans="1:4">
-      <c r="A595" t="s">
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" t="s">
         <v>823</v>
       </c>
-      <c r="B595" t="s">
+      <c r="B603" t="s">
         <v>824</v>
       </c>
-      <c r="D595" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="596" spans="1:4">
-      <c r="A596" t="s">
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" t="s">
         <v>825</v>
       </c>
-      <c r="B596" t="s">
+      <c r="B604" t="s">
         <v>826</v>
       </c>
-      <c r="D596" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="597" spans="1:4">
-      <c r="A597" t="s">
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" t="s">
         <v>827</v>
       </c>
-      <c r="B597" t="s">
+      <c r="B605" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="598" spans="1:4">
-      <c r="A598" t="s">
+      <c r="B606" t="s">
         <v>829</v>
       </c>
-      <c r="B598" t="s">
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="599" spans="1:4">
-      <c r="A599" t="s">
+      <c r="B607" t="s">
         <v>831</v>
       </c>
-      <c r="B599" t="s">
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="600" spans="1:4">
-      <c r="A600" t="s">
+      <c r="B608" t="s">
         <v>833</v>
       </c>
-      <c r="B600" t="s">
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="601" spans="1:4">
-      <c r="A601" t="s">
+      <c r="B609" t="s">
         <v>835</v>
       </c>
-      <c r="B601" t="s">
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="602" spans="1:4">
-      <c r="A602" t="s">
+      <c r="B610" t="s">
         <v>837</v>
       </c>
-      <c r="B602" t="s">
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="603" spans="1:4">
-      <c r="A603" t="s">
+      <c r="B611" t="s">
         <v>839</v>
       </c>
-      <c r="B603" t="s">
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="604" spans="1:4">
-      <c r="A604" t="s">
+      <c r="B612" t="s">
         <v>841</v>
       </c>
-      <c r="B604" t="s">
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="605" spans="1:4">
-      <c r="A605" t="s">
+      <c r="B613" t="s">
         <v>843</v>
       </c>
-      <c r="B605" t="s">
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="606" spans="1:4">
-      <c r="A606" t="s">
+      <c r="B614" t="s">
         <v>845</v>
       </c>
-      <c r="B606" t="s">
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="607" spans="1:4">
-      <c r="A607" t="s">
+      <c r="B615" t="s">
         <v>847</v>
       </c>
-      <c r="B607" t="s">
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="608" spans="1:4">
-      <c r="A608" t="s">
+      <c r="B616" t="s">
         <v>849</v>
       </c>
-      <c r="B608" t="s">
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="609" spans="1:4">
-      <c r="A609" t="s">
+      <c r="B617" t="s">
         <v>851</v>
       </c>
-      <c r="B609" t="s">
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="610" spans="1:4">
-      <c r="A610" t="s">
+      <c r="B618" t="s">
         <v>853</v>
       </c>
-      <c r="B610" t="s">
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="611" spans="1:4">
-      <c r="A611" t="s">
+      <c r="B619" t="s">
         <v>855</v>
       </c>
-      <c r="B611" t="s">
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="612" spans="1:4">
-      <c r="A612" t="s">
+      <c r="B620" t="s">
         <v>857</v>
       </c>
-      <c r="B612" t="s">
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="613" spans="1:4">
-      <c r="A613" t="s">
+      <c r="B621" t="s">
         <v>859</v>
       </c>
-      <c r="B613" t="s">
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="614" spans="1:4">
-      <c r="A614" t="s">
+      <c r="B622" t="s">
         <v>861</v>
       </c>
-      <c r="B614" t="s">
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="615" spans="1:4">
-      <c r="A615" t="s">
+      <c r="B623" t="s">
         <v>863</v>
       </c>
-      <c r="B615" t="s">
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="616" spans="1:4">
-      <c r="A616" t="s">
+      <c r="B624" t="s">
         <v>865</v>
       </c>
-      <c r="B616" t="s">
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="617" spans="1:4">
-      <c r="A617" t="s">
+      <c r="B625" t="s">
         <v>867</v>
       </c>
-      <c r="B617" t="s">
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="618" spans="1:4">
-      <c r="A618" t="s">
+      <c r="B626" t="s">
         <v>869</v>
       </c>
-      <c r="B618" t="s">
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="619" spans="1:4">
-      <c r="A619" t="s">
+      <c r="B627" t="s">
         <v>871</v>
       </c>
-      <c r="B619" t="s">
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="620" spans="1:4">
-      <c r="A620" t="s">
+      <c r="B628" t="s">
         <v>873</v>
       </c>
-      <c r="B620" t="s">
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="621" spans="1:4">
-      <c r="A621" t="s">
+      <c r="B629" t="s">
         <v>875</v>
       </c>
-      <c r="B621" t="s">
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="622" spans="1:4">
-      <c r="A622" t="s">
+      <c r="B630" t="s">
         <v>877</v>
       </c>
-      <c r="B622" t="s">
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="623" spans="1:4">
-      <c r="A623" t="s">
+      <c r="B631" t="s">
         <v>879</v>
       </c>
-      <c r="B623" t="s">
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="624" spans="1:4">
-      <c r="A624" t="s">
+      <c r="B632" t="s">
         <v>881</v>
       </c>
-      <c r="B624" t="s">
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="625" spans="1:4">
-      <c r="A625" t="s">
+      <c r="B633" t="s">
         <v>883</v>
       </c>
-      <c r="B625" t="s">
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="626" spans="1:4">
-      <c r="A626" t="s">
+      <c r="B634" t="s">
         <v>885</v>
       </c>
-      <c r="B626" t="s">
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="627" spans="1:4">
-      <c r="A627" t="s">
+      <c r="B635" t="s">
         <v>887</v>
       </c>
-      <c r="B627" t="s">
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="628" spans="1:4">
-      <c r="A628" t="s">
+      <c r="B636" t="s">
         <v>889</v>
       </c>
-      <c r="B628" t="s">
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="629" spans="1:4">
-      <c r="A629" t="s">
+      <c r="B637" t="s">
         <v>891</v>
       </c>
-      <c r="B629" t="s">
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="630" spans="1:4">
-      <c r="A630" t="s">
+      <c r="B638" t="s">
         <v>893</v>
       </c>
-      <c r="B630" t="s">
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="631" spans="1:4">
-      <c r="A631" t="s">
+      <c r="B639" t="s">
         <v>895</v>
       </c>
-      <c r="B631" t="s">
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="632" spans="1:4">
-      <c r="A632" t="s">
+      <c r="B640" t="s">
         <v>897</v>
       </c>
-      <c r="B632" t="s">
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="633" spans="1:4">
-      <c r="A633" t="s">
+      <c r="B641" t="s">
         <v>899</v>
       </c>
-      <c r="B633" t="s">
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="634" spans="1:4">
-      <c r="A634" t="s">
+      <c r="B642" t="s">
         <v>901</v>
       </c>
-      <c r="B634" t="s">
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="635" spans="1:4">
-      <c r="A635" t="s">
+      <c r="B643" t="s">
         <v>903</v>
       </c>
-      <c r="B635" t="s">
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="636" spans="1:4">
-      <c r="A636" t="s">
+      <c r="B644" t="s">
         <v>905</v>
       </c>
-      <c r="B636" t="s">
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="637" spans="1:4">
-      <c r="A637" t="s">
+      <c r="B645" t="s">
         <v>907</v>
       </c>
-      <c r="B637" t="s">
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="638" spans="1:4">
-      <c r="A638" t="s">
+      <c r="B646" t="s">
         <v>909</v>
       </c>
-      <c r="B638" t="s">
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="639" spans="1:4">
-      <c r="A639" t="s">
+      <c r="B647" t="s">
         <v>911</v>
       </c>
-      <c r="B639" t="s">
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="640" spans="1:4">
-      <c r="A640" t="s">
+      <c r="B648" t="s">
         <v>913</v>
       </c>
-      <c r="B640" t="s">
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" t="s">
         <v>914</v>
       </c>
-      <c r="D640" t="s">
+      <c r="B649" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
-      <c r="A641" t="s">
+    <row r="650" spans="1:2">
+      <c r="A650" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="642" spans="1:4">
-      <c r="A642" t="s">
+      <c r="B650" t="s">
         <v>917</v>
       </c>
-      <c r="B642" t="s">
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" t="s">
         <v>918</v>
       </c>
-      <c r="D642" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="643" spans="1:4">
-      <c r="A643" t="s">
+      <c r="B651" t="s">
         <v>919</v>
       </c>
-      <c r="B643" t="s">
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" t="s">
         <v>920</v>
       </c>
-      <c r="D643" t="s">
+      <c r="B652" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="644" spans="1:4">
-      <c r="A644" t="s">
+    <row r="653" spans="1:2">
+      <c r="A653" t="s">
         <v>922</v>
       </c>
-      <c r="B644" t="s">
+      <c r="B653" t="s">
         <v>923</v>
       </c>
-      <c r="D644" t="s">
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="645" spans="1:4">
-      <c r="A645" t="s">
+      <c r="B654" t="s">
         <v>925</v>
       </c>
-      <c r="B645" t="s">
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" t="s">
         <v>926</v>
       </c>
-      <c r="D645" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="646" spans="1:4">
-      <c r="A646" t="s">
+      <c r="B655" t="s">
         <v>927</v>
       </c>
-      <c r="B646" t="s">
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" t="s">
         <v>928</v>
       </c>
-      <c r="D646" t="s">
+      <c r="B656" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="647" spans="1:4">
-      <c r="A647" t="s">
+    <row r="657" spans="1:2">
+      <c r="A657" t="s">
         <v>930</v>
       </c>
-      <c r="B647" t="s">
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" t="s">
         <v>931</v>
       </c>
-      <c r="D647" t="s">
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="648" spans="1:4">
-      <c r="A648" t="s">
+    <row r="660" spans="1:2">
+      <c r="A660" t="s">
         <v>933</v>
       </c>
-      <c r="B648" t="s">
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" t="s">
         <v>934</v>
       </c>
-      <c r="D648" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="649" spans="1:4">
-      <c r="A649" t="s">
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" t="s">
         <v>935</v>
       </c>
-      <c r="B649" t="s">
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" t="s">
         <v>936</v>
       </c>
-      <c r="D649" t="s">
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="650" spans="1:4">
-      <c r="A650" t="s">
+    <row r="665" spans="1:2">
+      <c r="A665" t="s">
         <v>938</v>
       </c>
-      <c r="B650" t="s">
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" t="s">
         <v>939</v>
       </c>
-      <c r="D650" t="s">
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="651" spans="1:4">
-      <c r="A651" t="s">
+    <row r="668" spans="1:2">
+      <c r="A668" t="s">
         <v>941</v>
       </c>
-      <c r="B651" t="s">
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" t="s">
         <v>942</v>
       </c>
-      <c r="D651" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="652" spans="1:4">
-      <c r="A652" t="s">
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" t="s">
         <v>943</v>
       </c>
-      <c r="B652" t="s">
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" t="s">
         <v>944</v>
       </c>
-      <c r="D652" t="s">
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="653" spans="1:4">
-      <c r="A653" t="s">
+    <row r="673" spans="1:2">
+      <c r="A673" t="s">
         <v>946</v>
       </c>
-      <c r="B653" t="s">
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" t="s">
         <v>947</v>
       </c>
-      <c r="D653" t="s">
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="654" spans="1:4">
-      <c r="A654" t="s">
+      <c r="B675" t="s">
         <v>949</v>
       </c>
-      <c r="B654" t="s">
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" t="s">
         <v>950</v>
       </c>
-      <c r="D654" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="655" spans="1:4">
-      <c r="A655" t="s">
+      <c r="B676" t="s">
         <v>951</v>
       </c>
-      <c r="B655" t="s">
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" t="s">
         <v>952</v>
       </c>
-      <c r="D655" t="s">
+      <c r="B677" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="656" spans="1:4">
-      <c r="A656" t="s">
+    <row r="678" spans="1:2">
+      <c r="A678" t="s">
         <v>953</v>
       </c>
-      <c r="B656" t="s">
+      <c r="B678" t="s">
         <v>954</v>
       </c>
-      <c r="D656" t="s">
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="657" spans="1:4">
-      <c r="A657" t="s">
+      <c r="B679" t="s">
         <v>956</v>
       </c>
-      <c r="B657" t="s">
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" t="s">
         <v>957</v>
       </c>
-      <c r="D657" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="658" spans="1:4">
-      <c r="A658" t="s">
+      <c r="B680" t="s">
         <v>958</v>
       </c>
-      <c r="B658" t="s">
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" t="s">
         <v>959</v>
       </c>
-      <c r="D658" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="659" spans="1:4">
-      <c r="A659" t="s">
+      <c r="B681" t="s">
         <v>960</v>
       </c>
-      <c r="B659" t="s">
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" t="s">
         <v>961</v>
       </c>
-      <c r="D659" t="s">
+      <c r="B682" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="660" spans="1:4">
-      <c r="A660" t="s">
+    <row r="683" spans="1:2">
+      <c r="A683" t="s">
         <v>963</v>
       </c>
-      <c r="B660" t="s">
+      <c r="B683" t="s">
         <v>964</v>
       </c>
-      <c r="D660" t="s">
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="661" spans="1:4">
-      <c r="A661" t="s">
+      <c r="B684" t="s">
         <v>966</v>
       </c>
-      <c r="B661" t="s">
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" t="s">
         <v>967</v>
       </c>
-      <c r="D661" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="662" spans="1:4">
-      <c r="A662" t="s">
+      <c r="B685" t="s">
         <v>968</v>
       </c>
-      <c r="B662" t="s">
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" t="s">
         <v>969</v>
       </c>
-      <c r="D662" t="s">
+      <c r="B686" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="663" spans="1:4">
-      <c r="A663" t="s">
+    <row r="687" spans="1:2">
+      <c r="A687" t="s">
         <v>971</v>
       </c>
-      <c r="B663" t="s">
+      <c r="B687" t="s">
         <v>972</v>
       </c>
-      <c r="D663" t="s">
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="664" spans="1:4">
-      <c r="A664" t="s">
+      <c r="B688" t="s">
         <v>974</v>
       </c>
-      <c r="B664" t="s">
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" t="s">
         <v>975</v>
       </c>
-      <c r="D664" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="665" spans="1:4">
-      <c r="A665" t="s">
+      <c r="B689" t="s">
         <v>976</v>
       </c>
-      <c r="B665" t="s">
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" t="s">
         <v>977</v>
       </c>
-      <c r="D665" t="s">
+      <c r="B690" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="666" spans="1:4">
-      <c r="A666" t="s">
+    <row r="691" spans="1:2">
+      <c r="A691" t="s">
         <v>979</v>
       </c>
-      <c r="B666" t="s">
+      <c r="B691" t="s">
         <v>980</v>
       </c>
-      <c r="D666" t="s">
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="667" spans="1:4">
-      <c r="A667" t="s">
+      <c r="B692" t="s">
         <v>982</v>
       </c>
-      <c r="B667" t="s">
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" t="s">
         <v>983</v>
       </c>
-      <c r="D667" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="668" spans="1:4">
-      <c r="A668" t="s">
+      <c r="B693" t="s">
         <v>984</v>
       </c>
-      <c r="B668" t="s">
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" t="s">
         <v>985</v>
       </c>
-      <c r="D668" t="s">
+      <c r="B694" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="669" spans="1:4">
-      <c r="A669" t="s">
+    <row r="695" spans="1:2">
+      <c r="A695" t="s">
         <v>987</v>
       </c>
-      <c r="B669" t="s">
+      <c r="B695" t="s">
         <v>988</v>
       </c>
-      <c r="D669" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="670" spans="1:4">
-      <c r="A670" t="s">
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" t="s">
         <v>989</v>
       </c>
-      <c r="B670" t="s">
+      <c r="B696" t="s">
         <v>990</v>
       </c>
-      <c r="D670" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="671" spans="1:4">
-      <c r="A671" t="s">
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" t="s">
         <v>991</v>
       </c>
-      <c r="B671" t="s">
+      <c r="B697" t="s">
         <v>992</v>
       </c>
-      <c r="D671" t="s">
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="672" spans="1:4">
-      <c r="A672" t="s">
+      <c r="B698" t="s">
         <v>994</v>
       </c>
-      <c r="B672" t="s">
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" t="s">
         <v>995</v>
       </c>
-      <c r="D672" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="673" spans="1:4">
-      <c r="A673" t="s">
+      <c r="B699" t="s">
         <v>996</v>
       </c>
-      <c r="B673" t="s">
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" t="s">
         <v>997</v>
       </c>
-      <c r="D673" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="674" spans="1:4">
-      <c r="A674" t="s">
+      <c r="B700" t="s">
         <v>998</v>
       </c>
-      <c r="B674" t="s">
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" t="s">
         <v>999</v>
       </c>
-      <c r="D674" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="675" spans="1:4">
-      <c r="A675" t="s">
+      <c r="B701" t="s">
         <v>1000</v>
       </c>
-      <c r="B675" t="s">
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" t="s">
         <v>1001</v>
       </c>
-      <c r="D675" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="676" spans="1:4">
-      <c r="A676" t="s">
+      <c r="B702" t="s">
         <v>1002</v>
       </c>
-      <c r="B676" t="s">
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" t="s">
         <v>1003</v>
       </c>
-      <c r="D676" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="677" spans="1:4">
-      <c r="A677" t="s">
+      <c r="B703" t="s">
         <v>1004</v>
       </c>
-      <c r="B677" t="s">
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" t="s">
         <v>1005</v>
       </c>
-      <c r="D677" t="s">
+      <c r="B704" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="678" spans="1:4">
-      <c r="A678" t="s">
+    <row r="705" spans="1:2">
+      <c r="A705" t="s">
         <v>1007</v>
       </c>
-      <c r="B678" t="s">
+      <c r="B705" t="s">
         <v>1008</v>
       </c>
-      <c r="D678" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="679" spans="1:4">
-      <c r="A679" t="s">
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" t="s">
         <v>1009</v>
       </c>
-      <c r="B679" t="s">
+      <c r="B706" t="s">
         <v>1010</v>
       </c>
-      <c r="D679" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="680" spans="1:4">
-      <c r="A680" t="s">
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" t="s">
         <v>1011</v>
       </c>
-      <c r="B680" t="s">
+      <c r="B707" t="s">
         <v>1012</v>
       </c>
-      <c r="D680" t="s">
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="681" spans="1:4">
-      <c r="A681" t="s">
+      <c r="B708" t="s">
         <v>1014</v>
       </c>
-      <c r="B681" t="s">
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" t="s">
         <v>1015</v>
       </c>
-      <c r="D681" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="682" spans="1:4">
-      <c r="A682" t="s">
+      <c r="B709" t="s">
         <v>1016</v>
       </c>
-      <c r="B682" t="s">
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" t="s">
         <v>1017</v>
       </c>
-      <c r="D682" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="683" spans="1:4">
-      <c r="A683" t="s">
+      <c r="B710" t="s">
         <v>1018</v>
       </c>
-      <c r="B683" t="s">
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" t="s">
         <v>1019</v>
       </c>
-      <c r="D683" t="s">
+      <c r="B711" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="684" spans="1:4">
-      <c r="A684" t="s">
+    <row r="712" spans="1:2">
+      <c r="A712" t="s">
         <v>1021</v>
       </c>
-      <c r="B684" t="s">
+      <c r="B712" t="s">
         <v>1022</v>
       </c>
-      <c r="D684" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="685" spans="1:4">
-      <c r="A685" t="s">
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" t="s">
         <v>1023</v>
       </c>
-      <c r="B685" t="s">
+      <c r="B713" t="s">
         <v>1024</v>
       </c>
-      <c r="D685" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="686" spans="1:4">
-      <c r="A686" t="s">
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" t="s">
         <v>1025</v>
       </c>
-      <c r="B686" t="s">
+      <c r="B714" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="687" spans="1:4">
-      <c r="A687" t="s">
+    <row r="715" spans="1:2">
+      <c r="A715" t="s">
         <v>1027</v>
       </c>
-      <c r="B687" t="s">
+      <c r="B715" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="688" spans="1:4">
-      <c r="A688" t="s">
+    <row r="716" spans="1:2">
+      <c r="A716" t="s">
         <v>1029</v>
       </c>
-      <c r="B688" t="s">
+      <c r="B716" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="689" spans="1:4">
-      <c r="A689" t="s">
+    <row r="717" spans="1:2">
+      <c r="A717" t="s">
         <v>1031</v>
       </c>
-      <c r="B689" t="s">
+      <c r="B717" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="690" spans="1:4">
-      <c r="A690" t="s">
+    <row r="718" spans="1:2">
+      <c r="A718" t="s">
         <v>1033</v>
       </c>
-      <c r="B690" t="s">
+      <c r="B718" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="691" spans="1:4">
-      <c r="A691" t="s">
+    <row r="719" spans="1:2">
+      <c r="A719" t="s">
         <v>1035</v>
       </c>
-      <c r="B691" t="s">
+      <c r="B719" t="s">
         <v>1036</v>
       </c>
-      <c r="D691" t="s">
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="692" spans="1:4">
-      <c r="A692" t="s">
+      <c r="B720" t="s">
         <v>1038</v>
       </c>
-      <c r="B692" t="s">
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="693" spans="1:4">
-      <c r="A693" t="s">
+      <c r="B721" t="s">
         <v>1040</v>
       </c>
-      <c r="B693" t="s">
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="694" spans="1:4">
-      <c r="A694" t="s">
+      <c r="B722" t="s">
         <v>1042</v>
       </c>
-      <c r="B694" t="s">
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="695" spans="1:4">
-      <c r="A695" t="s">
+      <c r="B723" t="s">
         <v>1044</v>
       </c>
-      <c r="B695" t="s">
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" t="s">
         <v>1045</v>
       </c>
-      <c r="D695" t="s">
+      <c r="B724" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="696" spans="1:4">
-      <c r="A696" t="s">
+    <row r="725" spans="1:2">
+      <c r="A725" t="s">
         <v>1047</v>
       </c>
-      <c r="B696" t="s">
+      <c r="B725" t="s">
         <v>1048</v>
       </c>
-      <c r="D696" t="s">
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="697" spans="1:4">
-      <c r="A697" t="s">
+      <c r="B726" t="s">
         <v>1050</v>
       </c>
-      <c r="B697" t="s">
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" t="s">
         <v>1051</v>
       </c>
-      <c r="D697" t="s">
+      <c r="B727" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="698" spans="1:4">
-      <c r="A698" t="s">
+    <row r="728" spans="1:2">
+      <c r="A728" t="s">
         <v>1053</v>
       </c>
-      <c r="B698" t="s">
+      <c r="B728" t="s">
         <v>1054</v>
       </c>
-      <c r="D698" t="s">
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="699" spans="1:4">
-      <c r="A699" t="s">
+      <c r="B729" t="s">
         <v>1056</v>
       </c>
-      <c r="B699" t="s">
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="700" spans="1:4">
-      <c r="A700" t="s">
+      <c r="B730" t="s">
         <v>1058</v>
       </c>
-      <c r="B700" t="s">
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="701" spans="1:4">
-      <c r="A701" t="s">
+      <c r="B731" t="s">
         <v>1060</v>
       </c>
-      <c r="B701" t="s">
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="702" spans="1:4">
-      <c r="A702" t="s">
+      <c r="B732" t="s">
         <v>1062</v>
       </c>
-      <c r="B702" t="s">
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="703" spans="1:4">
-      <c r="A703" t="s">
+      <c r="B733" t="s">
         <v>1064</v>
       </c>
-      <c r="B703" t="s">
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="704" spans="1:4">
-      <c r="A704" t="s">
+      <c r="B734" t="s">
         <v>1066</v>
       </c>
-      <c r="B704" t="s">
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="705" spans="1:4">
-      <c r="A705" t="s">
+      <c r="B735" t="s">
         <v>1068</v>
       </c>
-      <c r="B705" t="s">
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="706" spans="1:4">
-      <c r="A706" t="s">
+      <c r="B736" t="s">
         <v>1070</v>
       </c>
-      <c r="B706" t="s">
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="707" spans="1:4">
-      <c r="A707" t="s">
+      <c r="B737" t="s">
         <v>1072</v>
       </c>
-      <c r="B707" t="s">
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="708" spans="1:4">
-      <c r="A708" t="s">
+      <c r="B738" t="s">
         <v>1074</v>
       </c>
-      <c r="B708" t="s">
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="709" spans="1:4">
-      <c r="A709" t="s">
+      <c r="B739" t="s">
         <v>1076</v>
       </c>
-      <c r="B709" t="s">
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="710" spans="1:4">
-      <c r="A710" t="s">
+      <c r="B740" t="s">
         <v>1078</v>
       </c>
-      <c r="B710" t="s">
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="711" spans="1:4">
-      <c r="A711" t="s">
+      <c r="B741" t="s">
         <v>1080</v>
       </c>
-      <c r="B711" t="s">
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="712" spans="1:4">
-      <c r="A712" t="s">
+      <c r="B742" t="s">
         <v>1082</v>
       </c>
-      <c r="B712" t="s">
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="713" spans="1:4">
-      <c r="A713" t="s">
+      <c r="B743" t="s">
         <v>1084</v>
       </c>
-      <c r="B713" t="s">
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="714" spans="1:4">
-      <c r="A714" t="s">
+      <c r="B744" t="s">
         <v>1086</v>
       </c>
-      <c r="B714" t="s">
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="715" spans="1:4">
-      <c r="A715" t="s">
+      <c r="B745" t="s">
         <v>1088</v>
       </c>
-      <c r="B715" t="s">
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="716" spans="1:4">
-      <c r="A716" t="s">
+      <c r="B746" t="s">
         <v>1090</v>
       </c>
-      <c r="B716" t="s">
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="717" spans="1:4">
-      <c r="A717" t="s">
+      <c r="B747" t="s">
         <v>1092</v>
       </c>
-      <c r="B717" t="s">
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" t="s">
         <v>1093</v>
       </c>
-      <c r="D717" t="s">
+      <c r="B748" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="718" spans="1:4">
-      <c r="A718" t="s">
+    <row r="749" spans="1:2">
+      <c r="A749" t="s">
         <v>1095</v>
       </c>
-      <c r="B718" t="s">
+      <c r="B749" t="s">
         <v>1096</v>
       </c>
-      <c r="D718" t="s">
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="719" spans="1:4">
-      <c r="A719" t="s">
+      <c r="B750" t="s">
         <v>1098</v>
       </c>
-      <c r="B719" t="s">
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="720" spans="1:4">
-      <c r="A720" t="s">
+      <c r="B751" t="s">
         <v>1100</v>
       </c>
-      <c r="B720" t="s">
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="721" spans="1:4">
-      <c r="A721" t="s">
+      <c r="B752" t="s">
         <v>1102</v>
       </c>
-      <c r="B721" t="s">
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="722" spans="1:4">
-      <c r="A722" t="s">
+      <c r="B753" t="s">
         <v>1104</v>
       </c>
-      <c r="B722" t="s">
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="723" spans="1:4">
-      <c r="A723" t="s">
+      <c r="B754" t="s">
         <v>1106</v>
       </c>
-      <c r="B723" t="s">
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="724" spans="1:4">
-      <c r="A724" t="s">
+      <c r="B755" t="s">
         <v>1108</v>
       </c>
-      <c r="B724" t="s">
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="725" spans="1:4">
-      <c r="A725" t="s">
+      <c r="B756" t="s">
         <v>1110</v>
       </c>
-      <c r="B725" t="s">
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="726" spans="1:4">
-      <c r="A726" t="s">
+      <c r="B757" t="s">
         <v>1112</v>
       </c>
-      <c r="B726" t="s">
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="727" spans="1:4">
-      <c r="A727" t="s">
+      <c r="B758" t="s">
         <v>1114</v>
       </c>
-      <c r="B727" t="s">
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="728" spans="1:4">
-      <c r="A728" t="s">
+      <c r="B759" t="s">
         <v>1116</v>
       </c>
-      <c r="B728" t="s">
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="729" spans="1:4">
-      <c r="A729" t="s">
+      <c r="B760" t="s">
         <v>1118</v>
       </c>
-      <c r="B729" t="s">
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="730" spans="1:4">
-      <c r="A730" t="s">
+      <c r="B761" t="s">
         <v>1120</v>
       </c>
-      <c r="B730" t="s">
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="731" spans="1:4">
-      <c r="A731" t="s">
+      <c r="B762" t="s">
         <v>1122</v>
       </c>
-      <c r="B731" t="s">
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="732" spans="1:4">
-      <c r="A732" t="s">
+      <c r="B763" t="s">
         <v>1124</v>
       </c>
-      <c r="B732" t="s">
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="733" spans="1:4">
-      <c r="A733" t="s">
+      <c r="B764" t="s">
         <v>1126</v>
       </c>
-      <c r="B733" t="s">
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="734" spans="1:4">
-      <c r="A734" t="s">
+      <c r="B765" t="s">
         <v>1128</v>
       </c>
-      <c r="B734" t="s">
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="735" spans="1:4">
-      <c r="A735" t="s">
+      <c r="B766" t="s">
         <v>1130</v>
       </c>
-      <c r="B735" t="s">
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="736" spans="1:4">
-      <c r="A736" t="s">
+      <c r="B767" t="s">
         <v>1132</v>
       </c>
-      <c r="B736" t="s">
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="737" spans="1:4">
-      <c r="A737" t="s">
+      <c r="B768" t="s">
         <v>1134</v>
       </c>
-      <c r="B737" t="s">
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="738" spans="1:4">
-      <c r="A738" t="s">
+      <c r="B769" t="s">
         <v>1136</v>
       </c>
-      <c r="B738" t="s">
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="739" spans="1:4">
-      <c r="A739" t="s">
+      <c r="B770" t="s">
         <v>1138</v>
       </c>
-      <c r="B739" t="s">
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="740" spans="1:4">
-      <c r="A740" t="s">
+      <c r="B771" t="s">
         <v>1140</v>
       </c>
-      <c r="B740" t="s">
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="741" spans="1:4">
-      <c r="A741" t="s">
+      <c r="B772" t="s">
         <v>1142</v>
       </c>
-      <c r="B741" t="s">
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="742" spans="1:4">
-      <c r="A742" t="s">
+      <c r="B773" t="s">
         <v>1144</v>
       </c>
-      <c r="B742" t="s">
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="743" spans="1:4">
-      <c r="A743" t="s">
+      <c r="B774" t="s">
         <v>1146</v>
       </c>
-      <c r="B743" t="s">
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="744" spans="1:4">
-      <c r="A744" t="s">
+      <c r="B775" t="s">
         <v>1148</v>
       </c>
-      <c r="B744" t="s">
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="745" spans="1:4">
-      <c r="A745" t="s">
+      <c r="B776" t="s">
         <v>1150</v>
       </c>
-      <c r="B745" t="s">
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="746" spans="1:4">
-      <c r="A746" t="s">
+      <c r="B777" t="s">
         <v>1152</v>
       </c>
-      <c r="B746" t="s">
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="747" spans="1:4">
-      <c r="A747" t="s">
+      <c r="B778" t="s">
         <v>1154</v>
       </c>
-      <c r="B747" t="s">
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="748" spans="1:4">
-      <c r="A748" t="s">
+      <c r="B779" t="s">
         <v>1156</v>
       </c>
-      <c r="B748" t="s">
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="749" spans="1:4">
-      <c r="A749" t="s">
+      <c r="B780" t="s">
         <v>1158</v>
       </c>
-      <c r="B749" t="s">
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="750" spans="1:4">
-      <c r="A750" t="s">
+      <c r="B781" t="s">
         <v>1160</v>
       </c>
-      <c r="B750" t="s">
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="751" spans="1:4">
-      <c r="A751" t="s">
+      <c r="B782" t="s">
         <v>1162</v>
       </c>
-      <c r="B751" t="s">
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="752" spans="1:4">
-      <c r="A752" t="s">
+      <c r="B783" t="s">
         <v>1164</v>
       </c>
-      <c r="B752" t="s">
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="753" spans="1:4">
-      <c r="A753" t="s">
+      <c r="B784" t="s">
         <v>1166</v>
       </c>
-      <c r="B753" t="s">
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="754" spans="1:4">
-      <c r="A754" t="s">
+      <c r="B785" t="s">
         <v>1168</v>
       </c>
-      <c r="B754" t="s">
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="755" spans="1:4">
-      <c r="A755" t="s">
+      <c r="B786" t="s">
         <v>1170</v>
       </c>
-      <c r="B755" t="s">
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" t="s">
         <v>1171</v>
       </c>
-      <c r="D755" t="s">
+      <c r="B787" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="756" spans="1:4">
-      <c r="A756" t="s">
+    <row r="788" spans="1:2">
+      <c r="A788" t="s">
         <v>1173</v>
       </c>
-      <c r="B756" t="s">
+      <c r="B788" t="s">
         <v>1174</v>
       </c>
-      <c r="D756" t="s">
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="757" spans="1:4">
-      <c r="A757" t="s">
+      <c r="B789" t="s">
         <v>1176</v>
       </c>
-      <c r="B757" t="s">
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="758" spans="1:4">
-      <c r="A758" t="s">
+      <c r="B790" t="s">
         <v>1178</v>
       </c>
-      <c r="B758" t="s">
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="759" spans="1:4">
-      <c r="A759" t="s">
+      <c r="B791" t="s">
         <v>1180</v>
       </c>
-      <c r="B759" t="s">
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="760" spans="1:4">
-      <c r="A760" t="s">
+      <c r="B792" t="s">
         <v>1182</v>
       </c>
-      <c r="B760" t="s">
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="761" spans="1:4">
-      <c r="A761" t="s">
+      <c r="B793" t="s">
         <v>1184</v>
       </c>
-      <c r="B761" t="s">
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="762" spans="1:4">
-      <c r="A762" t="s">
+      <c r="B794" t="s">
         <v>1186</v>
       </c>
-      <c r="B762" t="s">
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="763" spans="1:4">
-      <c r="A763" t="s">
+      <c r="B795" t="s">
         <v>1188</v>
       </c>
-      <c r="B763" t="s">
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="764" spans="1:4">
-      <c r="A764" t="s">
+      <c r="B796" t="s">
         <v>1190</v>
       </c>
-      <c r="B764" t="s">
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="765" spans="1:4">
-      <c r="A765" t="s">
+      <c r="B797" t="s">
         <v>1192</v>
       </c>
-      <c r="B765" t="s">
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="766" spans="1:4">
-      <c r="A766" t="s">
+      <c r="B798" t="s">
         <v>1194</v>
       </c>
-      <c r="B766" t="s">
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="767" spans="1:4">
-      <c r="A767" t="s">
+      <c r="B799" t="s">
         <v>1196</v>
       </c>
-      <c r="B767" t="s">
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="768" spans="1:4">
-      <c r="A768" t="s">
+      <c r="B800" t="s">
         <v>1198</v>
       </c>
-      <c r="B768" t="s">
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="769" spans="1:4">
-      <c r="A769" t="s">
+      <c r="B801" t="s">
         <v>1200</v>
       </c>
-      <c r="B769" t="s">
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="770" spans="1:4">
-      <c r="A770" t="s">
+      <c r="B802" t="s">
         <v>1202</v>
       </c>
-      <c r="B770" t="s">
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="771" spans="1:4">
-      <c r="A771" t="s">
+      <c r="B803" t="s">
         <v>1204</v>
       </c>
-      <c r="B771" t="s">
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="772" spans="1:4">
-      <c r="A772" t="s">
+      <c r="B804" t="s">
         <v>1206</v>
       </c>
-      <c r="B772" t="s">
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="773" spans="1:4">
-      <c r="A773" t="s">
+      <c r="B805" t="s">
         <v>1208</v>
       </c>
-      <c r="B773" t="s">
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="774" spans="1:4">
-      <c r="A774" t="s">
+      <c r="B806" t="s">
         <v>1210</v>
       </c>
-      <c r="B774" t="s">
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="775" spans="1:4">
-      <c r="A775" t="s">
+      <c r="B807" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="776" spans="1:4">
-      <c r="A776" t="s">
+    <row r="808" spans="1:2">
+      <c r="A808" t="s">
         <v>1213</v>
       </c>
-      <c r="B776" t="s">
+      <c r="B808" t="s">
         <v>1214</v>
       </c>
-      <c r="D776" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="777" spans="1:4">
-      <c r="A777" t="s">
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" t="s">
         <v>1215</v>
       </c>
-      <c r="B777" t="s">
+      <c r="B809" t="s">
         <v>1216</v>
       </c>
-      <c r="D777" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="778" spans="1:4">
-      <c r="A778" t="s">
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" t="s">
         <v>1217</v>
       </c>
-      <c r="B778" t="s">
+      <c r="B810" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" t="s">
         <v>1218</v>
       </c>
-      <c r="D778" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="779" spans="1:4">
-      <c r="A779" t="s">
+      <c r="B811" t="s">
         <v>1219</v>
       </c>
-      <c r="B779" t="s">
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" t="s">
         <v>1220</v>
       </c>
-      <c r="D779" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="780" spans="1:4">
-      <c r="A780" t="s">
+      <c r="B812" t="s">
         <v>1221</v>
       </c>
-      <c r="B780" t="s">
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" t="s">
         <v>1222</v>
       </c>
-      <c r="D780" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="781" spans="1:4">
-      <c r="A781" t="s">
+      <c r="B813" t="s">
         <v>1223</v>
       </c>
-      <c r="B781" t="s">
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" t="s">
         <v>1224</v>
       </c>
-      <c r="D781" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="782" spans="1:4">
-      <c r="A782" t="s">
+      <c r="B814" t="s">
         <v>1225</v>
       </c>
-      <c r="B782" t="s">
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" t="s">
         <v>1226</v>
       </c>
-      <c r="D782" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="783" spans="1:4">
-      <c r="A783" t="s">
+      <c r="B815" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="784" spans="1:4">
-      <c r="A784" t="s">
+    <row r="816" spans="1:2">
+      <c r="A816" t="s">
         <v>1228</v>
       </c>
-      <c r="B784" t="s">
+      <c r="B816" t="s">
         <v>1229</v>
       </c>
-      <c r="D784" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="785" spans="1:4">
-      <c r="A785" t="s">
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" t="s">
         <v>1230</v>
       </c>
-      <c r="B785" t="s">
+      <c r="B817" t="s">
         <v>1231</v>
       </c>
-      <c r="D785" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="786" spans="1:4">
-      <c r="A786" t="s">
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" t="s">
         <v>1232</v>
       </c>
-      <c r="B786" t="s">
+      <c r="B818" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" t="s">
         <v>1233</v>
       </c>
-      <c r="D786" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="787" spans="1:4">
-      <c r="A787" t="s">
+      <c r="B819" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="788" spans="1:4">
-      <c r="A788" t="s">
+    <row r="820" spans="1:2">
+      <c r="A820" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="789" spans="1:4">
-      <c r="A789" t="s">
+      <c r="B820" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="790" spans="1:4">
-      <c r="A790" t="s">
+    <row r="821" spans="1:2">
+      <c r="A821" t="s">
         <v>1237</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1242</v>
       </c>
     </row>
   </sheetData>

--- a/data/Skills.xlsx
+++ b/data/Skills.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F47D56-A049-4574-9BEF-0174F7D9AC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1249">
   <si>
     <t>愛撫</t>
   </si>
@@ -4108,21 +4113,40 @@
   <si>
     <t>家に帰ります。</t>
   </si>
+  <si>
+    <t xml:space="preserve"> slowly pounds on your hips!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is licking her lips...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kisses you as she masturbates you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jerks you violently as her tongue entwines with yours!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rubs your penis against her pussy...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> casts Poison!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4130,28 +4154,38 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4441,19 +4475,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B825"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C825"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="C460" sqref="C460"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.7109375" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4461,7 +4497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4469,7 +4505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4477,7 +4513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4485,7 +4521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4493,7 +4529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -4501,7 +4537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4509,7 +4545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -4517,7 +4553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4525,7 +4561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -4533,7 +4569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -4541,7 +4577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -4549,7 +4585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -4557,7 +4593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -4565,7 +4601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -4573,7 +4609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -4581,7 +4617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4589,7 +4625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -4597,7 +4633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -4605,7 +4641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4613,7 +4649,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -4621,7 +4657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -4629,7 +4665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -4637,7 +4673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -4645,7 +4681,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4653,7 +4689,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -4661,7 +4697,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -4669,7 +4705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -4677,7 +4713,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -4685,7 +4721,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -4693,7 +4729,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -4701,7 +4737,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -4709,7 +4745,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -4717,7 +4753,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -4725,7 +4761,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -4733,7 +4769,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -4741,7 +4777,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -4749,7 +4785,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -4757,7 +4793,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -4765,7 +4801,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -4773,7 +4809,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -4781,7 +4817,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -4789,7 +4825,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -4797,7 +4833,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -4805,7 +4841,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -4813,7 +4849,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -4821,7 +4857,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -4829,7 +4865,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>68</v>
       </c>
@@ -4837,7 +4873,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -4845,7 +4881,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -4853,7 +4889,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>73</v>
       </c>
@@ -4861,7 +4897,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -4869,7 +4905,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -4877,7 +4913,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -4885,7 +4921,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>78</v>
       </c>
@@ -4893,7 +4929,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -4901,7 +4937,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>81</v>
       </c>
@@ -4909,7 +4945,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -4917,7 +4953,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -4925,7 +4961,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -4933,7 +4969,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -4941,7 +4977,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>89</v>
       </c>
@@ -4949,7 +4985,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>90</v>
       </c>
@@ -4957,7 +4993,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>92</v>
       </c>
@@ -4965,7 +5001,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>93</v>
       </c>
@@ -4973,7 +5009,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>95</v>
       </c>
@@ -4981,7 +5017,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -4989,7 +5025,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>98</v>
       </c>
@@ -4997,7 +5033,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>100</v>
       </c>
@@ -5005,7 +5041,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>102</v>
       </c>
@@ -5013,7 +5049,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>103</v>
       </c>
@@ -5021,7 +5057,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>105</v>
       </c>
@@ -5029,7 +5065,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>106</v>
       </c>
@@ -5037,7 +5073,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>108</v>
       </c>
@@ -5045,7 +5081,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>109</v>
       </c>
@@ -5053,7 +5089,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>111</v>
       </c>
@@ -5061,7 +5097,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>112</v>
       </c>
@@ -5069,7 +5105,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>114</v>
       </c>
@@ -5077,7 +5113,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>115</v>
       </c>
@@ -5085,7 +5121,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>117</v>
       </c>
@@ -5093,7 +5129,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>118</v>
       </c>
@@ -5101,7 +5137,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>120</v>
       </c>
@@ -5109,7 +5145,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>121</v>
       </c>
@@ -5117,7 +5153,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>123</v>
       </c>
@@ -5125,7 +5161,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>124</v>
       </c>
@@ -5133,7 +5169,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>126</v>
       </c>
@@ -5141,7 +5177,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>127</v>
       </c>
@@ -5149,7 +5185,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>128</v>
       </c>
@@ -5157,7 +5193,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>130</v>
       </c>
@@ -5165,7 +5201,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>131</v>
       </c>
@@ -5173,7 +5209,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>133</v>
       </c>
@@ -5181,7 +5217,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>134</v>
       </c>
@@ -5189,7 +5225,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>136</v>
       </c>
@@ -5197,7 +5233,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>137</v>
       </c>
@@ -5205,7 +5241,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>139</v>
       </c>
@@ -5213,7 +5249,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>140</v>
       </c>
@@ -5221,7 +5257,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>142</v>
       </c>
@@ -5229,7 +5265,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>143</v>
       </c>
@@ -5237,7 +5273,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>145</v>
       </c>
@@ -5245,7 +5281,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>146</v>
       </c>
@@ -5253,7 +5289,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>148</v>
       </c>
@@ -5261,7 +5297,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>149</v>
       </c>
@@ -5269,7 +5305,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>151</v>
       </c>
@@ -5277,7 +5313,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>152</v>
       </c>
@@ -5285,7 +5321,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>154</v>
       </c>
@@ -5293,7 +5329,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>155</v>
       </c>
@@ -5301,7 +5337,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>157</v>
       </c>
@@ -5309,7 +5345,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>158</v>
       </c>
@@ -5317,7 +5353,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>160</v>
       </c>
@@ -5325,7 +5361,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>161</v>
       </c>
@@ -5333,7 +5369,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>163</v>
       </c>
@@ -5341,7 +5377,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>164</v>
       </c>
@@ -5349,7 +5385,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>166</v>
       </c>
@@ -5357,7 +5393,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>167</v>
       </c>
@@ -5365,7 +5401,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>169</v>
       </c>
@@ -5373,7 +5409,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>170</v>
       </c>
@@ -5381,7 +5417,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>172</v>
       </c>
@@ -5389,7 +5425,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>173</v>
       </c>
@@ -5397,7 +5433,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>175</v>
       </c>
@@ -5405,7 +5441,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>176</v>
       </c>
@@ -5413,7 +5449,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>178</v>
       </c>
@@ -5421,7 +5457,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>179</v>
       </c>
@@ -5429,7 +5465,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>181</v>
       </c>
@@ -5437,7 +5473,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>182</v>
       </c>
@@ -5445,7 +5481,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>184</v>
       </c>
@@ -5453,7 +5489,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>185</v>
       </c>
@@ -5461,7 +5497,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>187</v>
       </c>
@@ -5469,7 +5505,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>188</v>
       </c>
@@ -5477,7 +5513,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>190</v>
       </c>
@@ -5485,7 +5521,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>191</v>
       </c>
@@ -5493,7 +5529,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>193</v>
       </c>
@@ -5501,7 +5537,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>194</v>
       </c>
@@ -5509,7 +5545,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>196</v>
       </c>
@@ -5517,7 +5553,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>197</v>
       </c>
@@ -5525,7 +5561,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>199</v>
       </c>
@@ -5533,7 +5569,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>200</v>
       </c>
@@ -5541,7 +5577,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>202</v>
       </c>
@@ -5549,7 +5585,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>203</v>
       </c>
@@ -5557,7 +5593,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>205</v>
       </c>
@@ -5565,7 +5601,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>206</v>
       </c>
@@ -5573,7 +5609,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>208</v>
       </c>
@@ -5581,7 +5617,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>209</v>
       </c>
@@ -5589,7 +5625,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>211</v>
       </c>
@@ -5597,7 +5633,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>212</v>
       </c>
@@ -5605,7 +5641,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>214</v>
       </c>
@@ -5613,7 +5649,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>215</v>
       </c>
@@ -5621,7 +5657,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>217</v>
       </c>
@@ -5629,7 +5665,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>218</v>
       </c>
@@ -5637,7 +5673,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>219</v>
       </c>
@@ -5645,7 +5681,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>221</v>
       </c>
@@ -5653,7 +5689,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>222</v>
       </c>
@@ -5661,7 +5697,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>224</v>
       </c>
@@ -5669,7 +5705,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>225</v>
       </c>
@@ -5677,7 +5713,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>227</v>
       </c>
@@ -5685,7 +5721,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>228</v>
       </c>
@@ -5693,7 +5729,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>229</v>
       </c>
@@ -5701,7 +5737,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>231</v>
       </c>
@@ -5709,7 +5745,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>232</v>
       </c>
@@ -5717,7 +5753,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>234</v>
       </c>
@@ -5725,7 +5761,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>235</v>
       </c>
@@ -5733,7 +5769,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>237</v>
       </c>
@@ -5741,7 +5777,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>239</v>
       </c>
@@ -5749,7 +5785,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>240</v>
       </c>
@@ -5757,7 +5793,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>241</v>
       </c>
@@ -5765,7 +5801,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>243</v>
       </c>
@@ -5773,7 +5809,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>244</v>
       </c>
@@ -5781,7 +5817,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>246</v>
       </c>
@@ -5789,7 +5825,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>247</v>
       </c>
@@ -5797,7 +5833,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>249</v>
       </c>
@@ -5805,7 +5841,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>250</v>
       </c>
@@ -5813,7 +5849,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>251</v>
       </c>
@@ -5821,7 +5857,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>252</v>
       </c>
@@ -5829,7 +5865,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>253</v>
       </c>
@@ -5837,7 +5873,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>254</v>
       </c>
@@ -5845,7 +5881,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>255</v>
       </c>
@@ -5853,7 +5889,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>257</v>
       </c>
@@ -5861,7 +5897,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>258</v>
       </c>
@@ -5869,7 +5905,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>260</v>
       </c>
@@ -5877,7 +5913,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>261</v>
       </c>
@@ -5885,7 +5921,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>263</v>
       </c>
@@ -5893,7 +5929,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>264</v>
       </c>
@@ -5901,7 +5937,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>266</v>
       </c>
@@ -5909,7 +5945,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>267</v>
       </c>
@@ -5917,7 +5953,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>269</v>
       </c>
@@ -5925,7 +5961,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>270</v>
       </c>
@@ -5933,7 +5969,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>272</v>
       </c>
@@ -5941,7 +5977,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>274</v>
       </c>
@@ -5949,7 +5985,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>275</v>
       </c>
@@ -5957,7 +5993,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>277</v>
       </c>
@@ -5965,7 +6001,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>278</v>
       </c>
@@ -5973,7 +6009,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>280</v>
       </c>
@@ -5981,7 +6017,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>281</v>
       </c>
@@ -5989,7 +6025,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>283</v>
       </c>
@@ -5997,7 +6033,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>284</v>
       </c>
@@ -6005,7 +6041,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>286</v>
       </c>
@@ -6013,7 +6049,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>288</v>
       </c>
@@ -6021,7 +6057,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>289</v>
       </c>
@@ -6029,7 +6065,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>291</v>
       </c>
@@ -6037,7 +6073,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>292</v>
       </c>
@@ -6045,7 +6081,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>294</v>
       </c>
@@ -6053,7 +6089,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>296</v>
       </c>
@@ -6061,7 +6097,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>297</v>
       </c>
@@ -6069,7 +6105,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>299</v>
       </c>
@@ -6077,7 +6113,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>300</v>
       </c>
@@ -6085,7 +6121,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>302</v>
       </c>
@@ -6093,7 +6129,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>303</v>
       </c>
@@ -6101,7 +6137,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>305</v>
       </c>
@@ -6109,7 +6145,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>306</v>
       </c>
@@ -6117,7 +6153,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>308</v>
       </c>
@@ -6125,7 +6161,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>310</v>
       </c>
@@ -6133,7 +6169,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>311</v>
       </c>
@@ -6141,7 +6177,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>313</v>
       </c>
@@ -6149,7 +6185,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>314</v>
       </c>
@@ -6157,7 +6193,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>316</v>
       </c>
@@ -6165,7 +6201,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>317</v>
       </c>
@@ -6173,7 +6209,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>319</v>
       </c>
@@ -6181,7 +6217,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>320</v>
       </c>
@@ -6189,7 +6225,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>322</v>
       </c>
@@ -6197,7 +6233,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>323</v>
       </c>
@@ -6205,7 +6241,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>325</v>
       </c>
@@ -6213,7 +6249,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>326</v>
       </c>
@@ -6221,7 +6257,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>328</v>
       </c>
@@ -6229,7 +6265,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>329</v>
       </c>
@@ -6237,7 +6273,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>331</v>
       </c>
@@ -6245,7 +6281,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>332</v>
       </c>
@@ -6253,7 +6289,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>334</v>
       </c>
@@ -6261,7 +6297,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>335</v>
       </c>
@@ -6269,7 +6305,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>337</v>
       </c>
@@ -6277,7 +6313,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>338</v>
       </c>
@@ -6285,7 +6321,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>340</v>
       </c>
@@ -6293,7 +6329,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>341</v>
       </c>
@@ -6301,7 +6337,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>343</v>
       </c>
@@ -6309,7 +6345,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>344</v>
       </c>
@@ -6317,7 +6353,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>346</v>
       </c>
@@ -6325,7 +6361,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>347</v>
       </c>
@@ -6333,7 +6369,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>349</v>
       </c>
@@ -6341,7 +6377,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>350</v>
       </c>
@@ -6349,7 +6385,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>352</v>
       </c>
@@ -6357,7 +6393,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>353</v>
       </c>
@@ -6365,7 +6401,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>355</v>
       </c>
@@ -6373,7 +6409,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>356</v>
       </c>
@@ -6381,7 +6417,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>357</v>
       </c>
@@ -6389,7 +6425,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>359</v>
       </c>
@@ -6397,7 +6433,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>360</v>
       </c>
@@ -6405,7 +6441,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>362</v>
       </c>
@@ -6413,7 +6449,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>363</v>
       </c>
@@ -6421,7 +6457,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>365</v>
       </c>
@@ -6429,7 +6465,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>366</v>
       </c>
@@ -6437,7 +6473,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>368</v>
       </c>
@@ -6445,7 +6481,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>369</v>
       </c>
@@ -6453,7 +6489,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>371</v>
       </c>
@@ -6461,7 +6497,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>372</v>
       </c>
@@ -6469,7 +6505,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>374</v>
       </c>
@@ -6477,7 +6513,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>375</v>
       </c>
@@ -6485,7 +6521,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>377</v>
       </c>
@@ -6493,7 +6529,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>378</v>
       </c>
@@ -6501,7 +6537,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>380</v>
       </c>
@@ -6509,7 +6545,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>381</v>
       </c>
@@ -6517,7 +6553,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>383</v>
       </c>
@@ -6525,7 +6561,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>384</v>
       </c>
@@ -6533,7 +6569,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>386</v>
       </c>
@@ -6541,7 +6577,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>387</v>
       </c>
@@ -6549,7 +6585,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>389</v>
       </c>
@@ -6557,7 +6593,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>390</v>
       </c>
@@ -6565,7 +6601,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>392</v>
       </c>
@@ -6573,7 +6609,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>393</v>
       </c>
@@ -6581,7 +6617,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>395</v>
       </c>
@@ -6589,7 +6625,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>396</v>
       </c>
@@ -6597,7 +6633,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>398</v>
       </c>
@@ -6605,7 +6641,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>399</v>
       </c>
@@ -6613,7 +6649,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>401</v>
       </c>
@@ -6621,7 +6657,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>402</v>
       </c>
@@ -6629,7 +6665,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>404</v>
       </c>
@@ -6637,7 +6673,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>405</v>
       </c>
@@ -6645,7 +6681,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>407</v>
       </c>
@@ -6653,7 +6689,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>408</v>
       </c>
@@ -6661,7 +6697,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>410</v>
       </c>
@@ -6669,7 +6705,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>411</v>
       </c>
@@ -6677,7 +6713,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>413</v>
       </c>
@@ -6685,7 +6721,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>414</v>
       </c>
@@ -6693,7 +6729,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>416</v>
       </c>
@@ -6701,7 +6737,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>417</v>
       </c>
@@ -6709,7 +6745,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>419</v>
       </c>
@@ -6717,7 +6753,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>420</v>
       </c>
@@ -6725,7 +6761,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>422</v>
       </c>
@@ -6733,7 +6769,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>423</v>
       </c>
@@ -6741,7 +6777,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>425</v>
       </c>
@@ -6749,7 +6785,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>426</v>
       </c>
@@ -6757,7 +6793,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>428</v>
       </c>
@@ -6765,7 +6801,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>429</v>
       </c>
@@ -6773,7 +6809,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>431</v>
       </c>
@@ -6781,7 +6817,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>432</v>
       </c>
@@ -6789,7 +6825,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>434</v>
       </c>
@@ -6797,7 +6833,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>435</v>
       </c>
@@ -6805,7 +6841,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>437</v>
       </c>
@@ -6813,7 +6849,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>438</v>
       </c>
@@ -6821,7 +6857,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>440</v>
       </c>
@@ -6829,7 +6865,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>441</v>
       </c>
@@ -6837,7 +6873,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>443</v>
       </c>
@@ -6845,7 +6881,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>444</v>
       </c>
@@ -6853,7 +6889,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>446</v>
       </c>
@@ -6861,7 +6897,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>447</v>
       </c>
@@ -6869,7 +6905,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>449</v>
       </c>
@@ -6877,7 +6913,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>450</v>
       </c>
@@ -6885,7 +6921,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>452</v>
       </c>
@@ -6893,7 +6929,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>453</v>
       </c>
@@ -6901,7 +6937,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>455</v>
       </c>
@@ -6909,7 +6945,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>456</v>
       </c>
@@ -6917,7 +6953,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>458</v>
       </c>
@@ -6925,7 +6961,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>459</v>
       </c>
@@ -6933,7 +6969,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>461</v>
       </c>
@@ -6941,7 +6977,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>462</v>
       </c>
@@ -6949,7 +6985,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>464</v>
       </c>
@@ -6957,7 +6993,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>465</v>
       </c>
@@ -6965,7 +7001,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>467</v>
       </c>
@@ -6973,7 +7009,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>468</v>
       </c>
@@ -6981,7 +7017,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>470</v>
       </c>
@@ -6989,7 +7025,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>471</v>
       </c>
@@ -6997,7 +7033,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>473</v>
       </c>
@@ -7005,7 +7041,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>474</v>
       </c>
@@ -7013,7 +7049,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>476</v>
       </c>
@@ -7021,7 +7057,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>477</v>
       </c>
@@ -7029,7 +7065,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>479</v>
       </c>
@@ -7037,7 +7073,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>480</v>
       </c>
@@ -7045,7 +7081,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>482</v>
       </c>
@@ -7053,7 +7089,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>483</v>
       </c>
@@ -7061,7 +7097,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>485</v>
       </c>
@@ -7069,7 +7105,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>486</v>
       </c>
@@ -7077,7 +7113,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>488</v>
       </c>
@@ -7085,7 +7121,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>489</v>
       </c>
@@ -7093,7 +7129,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>491</v>
       </c>
@@ -7101,7 +7137,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>492</v>
       </c>
@@ -7109,7 +7145,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>494</v>
       </c>
@@ -7117,7 +7153,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>495</v>
       </c>
@@ -7125,7 +7161,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>497</v>
       </c>
@@ -7133,7 +7169,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>498</v>
       </c>
@@ -7141,7 +7177,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>500</v>
       </c>
@@ -7149,7 +7185,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>501</v>
       </c>
@@ -7157,7 +7193,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>503</v>
       </c>
@@ -7165,7 +7201,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>504</v>
       </c>
@@ -7173,7 +7209,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>506</v>
       </c>
@@ -7181,7 +7217,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>507</v>
       </c>
@@ -7189,7 +7225,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>509</v>
       </c>
@@ -7197,7 +7233,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>510</v>
       </c>
@@ -7205,7 +7241,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>511</v>
       </c>
@@ -7213,7 +7249,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>512</v>
       </c>
@@ -7221,7 +7257,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>513</v>
       </c>
@@ -7229,7 +7265,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>514</v>
       </c>
@@ -7237,7 +7273,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>515</v>
       </c>
@@ -7245,7 +7281,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>516</v>
       </c>
@@ -7253,7 +7289,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>517</v>
       </c>
@@ -7261,7 +7297,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>518</v>
       </c>
@@ -7269,7 +7305,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>519</v>
       </c>
@@ -7277,7 +7313,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>520</v>
       </c>
@@ -7285,7 +7321,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>521</v>
       </c>
@@ -7293,7 +7329,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>522</v>
       </c>
@@ -7301,7 +7337,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>524</v>
       </c>
@@ -7309,7 +7345,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>525</v>
       </c>
@@ -7317,7 +7353,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>527</v>
       </c>
@@ -7325,7 +7361,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>528</v>
       </c>
@@ -7333,7 +7369,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>530</v>
       </c>
@@ -7341,7 +7377,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>531</v>
       </c>
@@ -7349,7 +7385,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>532</v>
       </c>
@@ -7357,7 +7393,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>533</v>
       </c>
@@ -7365,7 +7401,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>534</v>
       </c>
@@ -7373,7 +7409,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>535</v>
       </c>
@@ -7381,7 +7417,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>537</v>
       </c>
@@ -7389,7 +7425,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>538</v>
       </c>
@@ -7397,7 +7433,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>540</v>
       </c>
@@ -7405,7 +7441,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>541</v>
       </c>
@@ -7413,7 +7449,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>543</v>
       </c>
@@ -7421,7 +7457,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>544</v>
       </c>
@@ -7429,7 +7465,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>546</v>
       </c>
@@ -7437,7 +7473,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>547</v>
       </c>
@@ -7445,7 +7481,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>549</v>
       </c>
@@ -7453,7 +7489,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>550</v>
       </c>
@@ -7461,7 +7497,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>552</v>
       </c>
@@ -7469,7 +7505,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>553</v>
       </c>
@@ -7477,7 +7513,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>554</v>
       </c>
@@ -7485,7 +7521,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>556</v>
       </c>
@@ -7493,7 +7529,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>557</v>
       </c>
@@ -7501,7 +7537,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>559</v>
       </c>
@@ -7509,7 +7545,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>560</v>
       </c>
@@ -7517,7 +7553,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>562</v>
       </c>
@@ -7525,7 +7561,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>563</v>
       </c>
@@ -7533,7 +7569,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>565</v>
       </c>
@@ -7541,7 +7577,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>566</v>
       </c>
@@ -7549,7 +7585,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>568</v>
       </c>
@@ -7557,7 +7593,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>569</v>
       </c>
@@ -7565,7 +7601,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>571</v>
       </c>
@@ -7573,7 +7609,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>573</v>
       </c>
@@ -7581,7 +7617,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>574</v>
       </c>
@@ -7589,7 +7625,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>576</v>
       </c>
@@ -7597,7 +7633,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>578</v>
       </c>
@@ -7605,7 +7641,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>579</v>
       </c>
@@ -7613,7 +7649,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>581</v>
       </c>
@@ -7621,7 +7657,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>582</v>
       </c>
@@ -7629,7 +7665,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>584</v>
       </c>
@@ -7637,7 +7673,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>585</v>
       </c>
@@ -7645,7 +7681,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>587</v>
       </c>
@@ -7653,7 +7689,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>588</v>
       </c>
@@ -7661,7 +7697,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>589</v>
       </c>
@@ -7669,15 +7705,18 @@
         <v>589</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>590</v>
       </c>
       <c r="B403" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="404" spans="1:2">
+      <c r="C403" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>591</v>
       </c>
@@ -7685,7 +7724,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>592</v>
       </c>
@@ -7693,7 +7732,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>593</v>
       </c>
@@ -7701,7 +7740,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>594</v>
       </c>
@@ -7709,7 +7748,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>595</v>
       </c>
@@ -7717,7 +7756,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>596</v>
       </c>
@@ -7725,7 +7764,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>597</v>
       </c>
@@ -7733,7 +7772,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>599</v>
       </c>
@@ -7741,7 +7780,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>600</v>
       </c>
@@ -7749,7 +7788,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>602</v>
       </c>
@@ -7757,7 +7796,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>603</v>
       </c>
@@ -7765,7 +7804,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>605</v>
       </c>
@@ -7773,7 +7812,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>606</v>
       </c>
@@ -7781,7 +7820,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>608</v>
       </c>
@@ -7789,7 +7828,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>609</v>
       </c>
@@ -7797,7 +7836,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>611</v>
       </c>
@@ -7805,7 +7844,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>613</v>
       </c>
@@ -7813,7 +7852,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>614</v>
       </c>
@@ -7821,7 +7860,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>616</v>
       </c>
@@ -7829,7 +7868,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>617</v>
       </c>
@@ -7837,7 +7876,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>619</v>
       </c>
@@ -7845,7 +7884,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="425" spans="1:2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>620</v>
       </c>
@@ -7853,7 +7892,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>622</v>
       </c>
@@ -7861,7 +7900,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>623</v>
       </c>
@@ -7869,7 +7908,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>624</v>
       </c>
@@ -7877,7 +7916,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>626</v>
       </c>
@@ -7885,7 +7924,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>627</v>
       </c>
@@ -7893,7 +7932,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>629</v>
       </c>
@@ -7901,7 +7940,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>630</v>
       </c>
@@ -7909,7 +7948,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>632</v>
       </c>
@@ -7917,7 +7956,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>633</v>
       </c>
@@ -7925,7 +7964,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>635</v>
       </c>
@@ -7933,7 +7972,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>636</v>
       </c>
@@ -7941,7 +7980,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>638</v>
       </c>
@@ -7949,7 +7988,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>639</v>
       </c>
@@ -7957,7 +7996,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>641</v>
       </c>
@@ -7965,7 +8004,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="440" spans="1:2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>642</v>
       </c>
@@ -7973,7 +8012,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>644</v>
       </c>
@@ -7981,7 +8020,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>645</v>
       </c>
@@ -7989,7 +8028,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="443" spans="1:2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>647</v>
       </c>
@@ -7997,7 +8036,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>648</v>
       </c>
@@ -8005,7 +8044,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="445" spans="1:2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>650</v>
       </c>
@@ -8013,7 +8052,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>651</v>
       </c>
@@ -8021,7 +8060,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="447" spans="1:2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>653</v>
       </c>
@@ -8029,7 +8068,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="448" spans="1:2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>654</v>
       </c>
@@ -8037,7 +8076,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>656</v>
       </c>
@@ -8045,7 +8084,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="450" spans="1:2">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>657</v>
       </c>
@@ -8053,7 +8092,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>659</v>
       </c>
@@ -8061,7 +8100,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>660</v>
       </c>
@@ -8069,32 +8108,38 @@
         <v>661</v>
       </c>
     </row>
-    <row r="453" spans="1:2">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="455" spans="1:2">
+      <c r="C454" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="457" spans="1:2">
+      <c r="B456" s="1" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>667</v>
       </c>
@@ -8102,47 +8147,56 @@
         <v>668</v>
       </c>
     </row>
-    <row r="459" spans="1:2">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="461" spans="1:2">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="463" spans="1:2">
+      <c r="C462" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="464" spans="1:2">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="465" spans="1:2">
+      <c r="C464" s="1" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="466" spans="1:2">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="467" spans="1:2">
+      <c r="C466" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>677</v>
       </c>
@@ -8150,7 +8204,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>678</v>
       </c>
@@ -8158,7 +8212,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="469" spans="1:2">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>680</v>
       </c>
@@ -8166,7 +8220,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="470" spans="1:2">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>681</v>
       </c>
@@ -8174,7 +8228,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="471" spans="1:2">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>683</v>
       </c>
@@ -8182,7 +8236,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="472" spans="1:2">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>684</v>
       </c>
@@ -8190,7 +8244,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="473" spans="1:2">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>685</v>
       </c>
@@ -8198,7 +8252,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="474" spans="1:2">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>686</v>
       </c>
@@ -8206,7 +8260,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="475" spans="1:2">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>687</v>
       </c>
@@ -8214,7 +8268,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="476" spans="1:2">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>688</v>
       </c>
@@ -8222,7 +8276,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="477" spans="1:2">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>689</v>
       </c>
@@ -8230,7 +8284,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>690</v>
       </c>
@@ -8238,7 +8292,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="479" spans="1:2">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>691</v>
       </c>
@@ -8246,7 +8300,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="480" spans="1:2">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>692</v>
       </c>
@@ -8254,7 +8308,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="481" spans="1:2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>693</v>
       </c>
@@ -8262,7 +8316,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="482" spans="1:2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>694</v>
       </c>
@@ -8270,7 +8324,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>695</v>
       </c>
@@ -8278,7 +8332,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="484" spans="1:2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>696</v>
       </c>
@@ -8286,7 +8340,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="485" spans="1:2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>697</v>
       </c>
@@ -8294,12 +8348,12 @@
         <v>697</v>
       </c>
     </row>
-    <row r="486" spans="1:2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="487" spans="1:2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>699</v>
       </c>
@@ -8307,22 +8361,22 @@
         <v>699</v>
       </c>
     </row>
-    <row r="488" spans="1:2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="489" spans="1:2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="490" spans="1:2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="491" spans="1:2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>703</v>
       </c>
@@ -8330,7 +8384,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="492" spans="1:2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>704</v>
       </c>
@@ -8338,7 +8392,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>705</v>
       </c>
@@ -8346,7 +8400,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>706</v>
       </c>
@@ -8354,7 +8408,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="495" spans="1:2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>707</v>
       </c>
@@ -8362,7 +8416,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="496" spans="1:2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>708</v>
       </c>
@@ -8370,7 +8424,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="497" spans="1:2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>709</v>
       </c>
@@ -8378,7 +8432,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="498" spans="1:2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>710</v>
       </c>
@@ -8386,7 +8440,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>711</v>
       </c>
@@ -8394,7 +8448,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="500" spans="1:2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>712</v>
       </c>
@@ -8402,7 +8456,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="501" spans="1:2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>713</v>
       </c>
@@ -8410,7 +8464,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="502" spans="1:2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>714</v>
       </c>
@@ -8418,7 +8472,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="503" spans="1:2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>715</v>
       </c>
@@ -8426,7 +8480,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="504" spans="1:2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>716</v>
       </c>
@@ -8434,7 +8488,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="505" spans="1:2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>717</v>
       </c>
@@ -8442,7 +8496,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="506" spans="1:2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>718</v>
       </c>
@@ -8450,7 +8504,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="507" spans="1:2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>719</v>
       </c>
@@ -8458,7 +8512,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="508" spans="1:2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>720</v>
       </c>
@@ -8466,7 +8520,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="509" spans="1:2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>721</v>
       </c>
@@ -8474,7 +8528,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="510" spans="1:2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>722</v>
       </c>
@@ -8482,7 +8536,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="511" spans="1:2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>723</v>
       </c>
@@ -8490,7 +8544,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="512" spans="1:2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>724</v>
       </c>
@@ -8498,7 +8552,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="513" spans="1:2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>725</v>
       </c>
@@ -8506,7 +8560,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="514" spans="1:2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>726</v>
       </c>
@@ -8514,7 +8568,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="515" spans="1:2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>727</v>
       </c>
@@ -8522,7 +8576,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="516" spans="1:2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>728</v>
       </c>
@@ -8530,7 +8584,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="517" spans="1:2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>729</v>
       </c>
@@ -8538,7 +8592,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="518" spans="1:2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>730</v>
       </c>
@@ -8546,7 +8600,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="519" spans="1:2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>731</v>
       </c>
@@ -8554,7 +8608,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="520" spans="1:2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>732</v>
       </c>
@@ -8562,7 +8616,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="521" spans="1:2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>733</v>
       </c>
@@ -8570,7 +8624,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="522" spans="1:2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>734</v>
       </c>
@@ -8578,7 +8632,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="523" spans="1:2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>735</v>
       </c>
@@ -8586,7 +8640,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="524" spans="1:2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>736</v>
       </c>
@@ -8594,7 +8648,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="525" spans="1:2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>737</v>
       </c>
@@ -8602,7 +8656,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="526" spans="1:2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>738</v>
       </c>
@@ -8610,7 +8664,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="527" spans="1:2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>739</v>
       </c>
@@ -8618,7 +8672,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="528" spans="1:2">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>740</v>
       </c>
@@ -8626,7 +8680,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="529" spans="1:2">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>741</v>
       </c>
@@ -8634,7 +8688,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="530" spans="1:2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>742</v>
       </c>
@@ -8642,7 +8696,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="531" spans="1:2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>743</v>
       </c>
@@ -8650,7 +8704,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="532" spans="1:2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>744</v>
       </c>
@@ -8658,7 +8712,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="533" spans="1:2">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>745</v>
       </c>
@@ -8666,7 +8720,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="534" spans="1:2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>746</v>
       </c>
@@ -8674,7 +8728,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="535" spans="1:2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>747</v>
       </c>
@@ -8682,7 +8736,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="536" spans="1:2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>748</v>
       </c>
@@ -8690,7 +8744,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="537" spans="1:2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>750</v>
       </c>
@@ -8698,7 +8752,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="538" spans="1:2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>751</v>
       </c>
@@ -8706,7 +8760,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="539" spans="1:2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>752</v>
       </c>
@@ -8714,7 +8768,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="540" spans="1:2">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>753</v>
       </c>
@@ -8722,7 +8776,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="541" spans="1:2">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>754</v>
       </c>
@@ -8730,7 +8784,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="542" spans="1:2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>755</v>
       </c>
@@ -8738,7 +8792,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="543" spans="1:2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>756</v>
       </c>
@@ -8746,7 +8800,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="544" spans="1:2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>757</v>
       </c>
@@ -8754,7 +8808,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="545" spans="1:2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>758</v>
       </c>
@@ -8762,7 +8816,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="546" spans="1:2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>759</v>
       </c>
@@ -8770,7 +8824,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="547" spans="1:2">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>760</v>
       </c>
@@ -8778,7 +8832,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="548" spans="1:2">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>761</v>
       </c>
@@ -8786,7 +8840,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="549" spans="1:2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>762</v>
       </c>
@@ -8794,7 +8848,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="550" spans="1:2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>763</v>
       </c>
@@ -8802,7 +8856,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="551" spans="1:2">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>764</v>
       </c>
@@ -8810,7 +8864,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="552" spans="1:2">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>765</v>
       </c>
@@ -8818,7 +8872,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="553" spans="1:2">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>766</v>
       </c>
@@ -8826,7 +8880,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="554" spans="1:2">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>767</v>
       </c>
@@ -8834,7 +8888,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="555" spans="1:2">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>768</v>
       </c>
@@ -8842,7 +8896,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="556" spans="1:2">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>769</v>
       </c>
@@ -8850,7 +8904,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="557" spans="1:2">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>770</v>
       </c>
@@ -8858,7 +8912,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="558" spans="1:2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>771</v>
       </c>
@@ -8866,7 +8920,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="559" spans="1:2">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>772</v>
       </c>
@@ -8874,7 +8928,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="560" spans="1:2">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>773</v>
       </c>
@@ -8882,7 +8936,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="561" spans="1:2">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>774</v>
       </c>
@@ -8890,7 +8944,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="562" spans="1:2">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>776</v>
       </c>
@@ -8898,7 +8952,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="563" spans="1:2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>777</v>
       </c>
@@ -8906,7 +8960,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="564" spans="1:2">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>778</v>
       </c>
@@ -8914,7 +8968,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="565" spans="1:2">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>779</v>
       </c>
@@ -8922,7 +8976,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="566" spans="1:2">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>780</v>
       </c>
@@ -8930,7 +8984,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="567" spans="1:2">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>781</v>
       </c>
@@ -8938,7 +8992,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="568" spans="1:2">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>782</v>
       </c>
@@ -8946,7 +9000,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="569" spans="1:2">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>783</v>
       </c>
@@ -8954,7 +9008,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="570" spans="1:2">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>784</v>
       </c>
@@ -8962,7 +9016,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="571" spans="1:2">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>785</v>
       </c>
@@ -8970,7 +9024,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="572" spans="1:2">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>786</v>
       </c>
@@ -8978,7 +9032,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="573" spans="1:2">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>787</v>
       </c>
@@ -8986,7 +9040,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="574" spans="1:2">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>788</v>
       </c>
@@ -8994,7 +9048,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="575" spans="1:2">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>789</v>
       </c>
@@ -9002,7 +9056,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="576" spans="1:2">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>790</v>
       </c>
@@ -9010,7 +9064,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="577" spans="1:2">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>791</v>
       </c>
@@ -9018,7 +9072,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="578" spans="1:2">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>792</v>
       </c>
@@ -9026,7 +9080,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="579" spans="1:2">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>793</v>
       </c>
@@ -9034,7 +9088,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="580" spans="1:2">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>794</v>
       </c>
@@ -9042,7 +9096,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="581" spans="1:2">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>795</v>
       </c>
@@ -9050,7 +9104,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="582" spans="1:2">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>796</v>
       </c>
@@ -9058,7 +9112,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="583" spans="1:2">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>797</v>
       </c>
@@ -9066,7 +9120,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="584" spans="1:2">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>798</v>
       </c>
@@ -9074,7 +9128,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="585" spans="1:2">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>799</v>
       </c>
@@ -9082,7 +9136,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="586" spans="1:2">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>800</v>
       </c>
@@ -9090,7 +9144,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="587" spans="1:2">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>801</v>
       </c>
@@ -9098,7 +9152,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="588" spans="1:2">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>802</v>
       </c>
@@ -9106,7 +9160,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="589" spans="1:2">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>803</v>
       </c>
@@ -9114,7 +9168,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="590" spans="1:2">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>804</v>
       </c>
@@ -9122,7 +9176,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="591" spans="1:2">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>805</v>
       </c>
@@ -9130,7 +9184,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="592" spans="1:2">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>806</v>
       </c>
@@ -9138,7 +9192,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="593" spans="1:2">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>807</v>
       </c>
@@ -9146,7 +9200,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="594" spans="1:2">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>808</v>
       </c>
@@ -9154,7 +9208,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="595" spans="1:2">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>809</v>
       </c>
@@ -9162,7 +9216,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="596" spans="1:2">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>810</v>
       </c>
@@ -9170,7 +9224,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="597" spans="1:2">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>811</v>
       </c>
@@ -9178,7 +9232,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="598" spans="1:2">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>813</v>
       </c>
@@ -9186,7 +9240,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="599" spans="1:2">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>815</v>
       </c>
@@ -9194,7 +9248,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="600" spans="1:2">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>817</v>
       </c>
@@ -9202,7 +9256,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="601" spans="1:2">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>819</v>
       </c>
@@ -9210,7 +9264,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="602" spans="1:2">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>821</v>
       </c>
@@ -9218,7 +9272,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="603" spans="1:2">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>823</v>
       </c>
@@ -9226,7 +9280,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="604" spans="1:2">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>825</v>
       </c>
@@ -9234,7 +9288,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="605" spans="1:2">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>827</v>
       </c>
@@ -9242,7 +9296,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="606" spans="1:2">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>828</v>
       </c>
@@ -9250,7 +9304,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="607" spans="1:2">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>830</v>
       </c>
@@ -9258,7 +9312,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="608" spans="1:2">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>832</v>
       </c>
@@ -9266,7 +9320,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="609" spans="1:2">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>834</v>
       </c>
@@ -9274,7 +9328,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="610" spans="1:2">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>836</v>
       </c>
@@ -9282,7 +9336,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="611" spans="1:2">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>838</v>
       </c>
@@ -9290,7 +9344,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="612" spans="1:2">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>840</v>
       </c>
@@ -9298,7 +9352,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="613" spans="1:2">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>842</v>
       </c>
@@ -9306,7 +9360,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="614" spans="1:2">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>844</v>
       </c>
@@ -9314,7 +9368,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="615" spans="1:2">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>846</v>
       </c>
@@ -9322,7 +9376,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="616" spans="1:2">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>848</v>
       </c>
@@ -9330,7 +9384,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="617" spans="1:2">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>850</v>
       </c>
@@ -9338,7 +9392,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="618" spans="1:2">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>852</v>
       </c>
@@ -9346,7 +9400,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="619" spans="1:2">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>854</v>
       </c>
@@ -9354,7 +9408,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="620" spans="1:2">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>856</v>
       </c>
@@ -9362,7 +9416,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="621" spans="1:2">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>858</v>
       </c>
@@ -9370,7 +9424,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="622" spans="1:2">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>860</v>
       </c>
@@ -9378,7 +9432,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="623" spans="1:2">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>862</v>
       </c>
@@ -9386,7 +9440,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="624" spans="1:2">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>864</v>
       </c>
@@ -9394,7 +9448,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="625" spans="1:2">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>866</v>
       </c>
@@ -9402,7 +9456,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="626" spans="1:2">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>868</v>
       </c>
@@ -9410,7 +9464,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="627" spans="1:2">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>870</v>
       </c>
@@ -9418,7 +9472,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="628" spans="1:2">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>872</v>
       </c>
@@ -9426,7 +9480,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="629" spans="1:2">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>874</v>
       </c>
@@ -9434,7 +9488,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="630" spans="1:2">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>876</v>
       </c>
@@ -9442,7 +9496,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="631" spans="1:2">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>878</v>
       </c>
@@ -9450,7 +9504,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="632" spans="1:2">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>880</v>
       </c>
@@ -9458,7 +9512,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="633" spans="1:2">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>882</v>
       </c>
@@ -9466,7 +9520,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="634" spans="1:2">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>884</v>
       </c>
@@ -9474,7 +9528,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="635" spans="1:2">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>886</v>
       </c>
@@ -9482,7 +9536,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="636" spans="1:2">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>888</v>
       </c>
@@ -9490,7 +9544,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="637" spans="1:2">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>890</v>
       </c>
@@ -9498,7 +9552,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="638" spans="1:2">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>892</v>
       </c>
@@ -9506,7 +9560,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="639" spans="1:2">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>894</v>
       </c>
@@ -9514,7 +9568,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="640" spans="1:2">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>896</v>
       </c>
@@ -9522,7 +9576,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="641" spans="1:2">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>898</v>
       </c>
@@ -9530,7 +9584,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="642" spans="1:2">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>900</v>
       </c>
@@ -9538,7 +9592,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="643" spans="1:2">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>902</v>
       </c>
@@ -9546,7 +9600,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="644" spans="1:2">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>904</v>
       </c>
@@ -9554,7 +9608,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="645" spans="1:2">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>906</v>
       </c>
@@ -9562,7 +9616,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="646" spans="1:2">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>908</v>
       </c>
@@ -9570,7 +9624,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="647" spans="1:2">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>910</v>
       </c>
@@ -9578,7 +9632,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="648" spans="1:2">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>912</v>
       </c>
@@ -9586,7 +9640,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="649" spans="1:2">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>914</v>
       </c>
@@ -9594,7 +9648,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="650" spans="1:2">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>916</v>
       </c>
@@ -9602,7 +9656,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="651" spans="1:2">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>918</v>
       </c>
@@ -9610,7 +9664,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="652" spans="1:2">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>920</v>
       </c>
@@ -9618,7 +9672,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="653" spans="1:2">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>922</v>
       </c>
@@ -9626,7 +9680,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="654" spans="1:2">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>924</v>
       </c>
@@ -9634,7 +9688,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="655" spans="1:2">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>926</v>
       </c>
@@ -9642,7 +9696,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="656" spans="1:2">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>928</v>
       </c>
@@ -9650,97 +9704,97 @@
         <v>929</v>
       </c>
     </row>
-    <row r="657" spans="1:2">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="658" spans="1:2">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="659" spans="1:2">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="660" spans="1:2">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="661" spans="1:2">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="662" spans="1:2">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="663" spans="1:2">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="664" spans="1:2">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="665" spans="1:2">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="666" spans="1:2">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="667" spans="1:2">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="668" spans="1:2">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="669" spans="1:2">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="670" spans="1:2">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="671" spans="1:2">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="672" spans="1:2">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="673" spans="1:2">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="674" spans="1:2">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="675" spans="1:2">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>948</v>
       </c>
@@ -9748,7 +9802,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="676" spans="1:2">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>950</v>
       </c>
@@ -9756,7 +9810,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="677" spans="1:2">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>952</v>
       </c>
@@ -9764,7 +9818,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="678" spans="1:2">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>953</v>
       </c>
@@ -9772,7 +9826,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="679" spans="1:2">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>955</v>
       </c>
@@ -9780,7 +9834,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="680" spans="1:2">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>957</v>
       </c>
@@ -9788,7 +9842,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="681" spans="1:2">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>959</v>
       </c>
@@ -9796,7 +9850,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="682" spans="1:2">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>961</v>
       </c>
@@ -9804,7 +9858,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="683" spans="1:2">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>963</v>
       </c>
@@ -9812,7 +9866,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="684" spans="1:2">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>965</v>
       </c>
@@ -9820,7 +9874,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="685" spans="1:2">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>967</v>
       </c>
@@ -9828,7 +9882,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="686" spans="1:2">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>969</v>
       </c>
@@ -9836,7 +9890,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="687" spans="1:2">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>971</v>
       </c>
@@ -9844,7 +9898,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="688" spans="1:2">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>973</v>
       </c>
@@ -9852,7 +9906,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="689" spans="1:2">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>975</v>
       </c>
@@ -9860,7 +9914,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="690" spans="1:2">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>977</v>
       </c>
@@ -9868,7 +9922,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="691" spans="1:2">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>979</v>
       </c>
@@ -9876,7 +9930,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="692" spans="1:2">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>981</v>
       </c>
@@ -9884,7 +9938,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="693" spans="1:2">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>983</v>
       </c>
@@ -9892,7 +9946,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="694" spans="1:2">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>985</v>
       </c>
@@ -9900,7 +9954,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="695" spans="1:2">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>987</v>
       </c>
@@ -9908,7 +9962,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="696" spans="1:2">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>989</v>
       </c>
@@ -9916,7 +9970,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="697" spans="1:2">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>991</v>
       </c>
@@ -9924,7 +9978,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="698" spans="1:2">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>993</v>
       </c>
@@ -9932,7 +9986,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="699" spans="1:2">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>995</v>
       </c>
@@ -9940,7 +9994,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="700" spans="1:2">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>997</v>
       </c>
@@ -9948,7 +10002,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="701" spans="1:2">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>999</v>
       </c>
@@ -9956,7 +10010,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="702" spans="1:2">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>1001</v>
       </c>
@@ -9964,7 +10018,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="703" spans="1:2">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>1003</v>
       </c>
@@ -9972,7 +10026,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="704" spans="1:2">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>1005</v>
       </c>
@@ -9980,7 +10034,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="705" spans="1:2">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>1007</v>
       </c>
@@ -9988,7 +10042,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="706" spans="1:2">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>1009</v>
       </c>
@@ -9996,7 +10050,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="707" spans="1:2">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>1011</v>
       </c>
@@ -10004,7 +10058,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="708" spans="1:2">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>1013</v>
       </c>
@@ -10012,7 +10066,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="709" spans="1:2">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>1015</v>
       </c>
@@ -10020,7 +10074,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="710" spans="1:2">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>1017</v>
       </c>
@@ -10028,7 +10082,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="711" spans="1:2">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>1019</v>
       </c>
@@ -10036,7 +10090,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="712" spans="1:2">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>1021</v>
       </c>
@@ -10044,7 +10098,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="713" spans="1:2">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>1023</v>
       </c>
@@ -10052,7 +10106,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="714" spans="1:2">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>1025</v>
       </c>
@@ -10060,7 +10114,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="715" spans="1:2">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>1027</v>
       </c>
@@ -10068,7 +10122,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="716" spans="1:2">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>1029</v>
       </c>
@@ -10076,7 +10130,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="717" spans="1:2">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>1031</v>
       </c>
@@ -10084,7 +10138,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="718" spans="1:2">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>1033</v>
       </c>
@@ -10092,7 +10146,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="719" spans="1:2">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>1035</v>
       </c>
@@ -10100,7 +10154,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="720" spans="1:2">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>1037</v>
       </c>
@@ -10108,7 +10162,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="721" spans="1:2">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>1039</v>
       </c>
@@ -10116,7 +10170,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="722" spans="1:2">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>1041</v>
       </c>
@@ -10124,7 +10178,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="723" spans="1:2">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>1043</v>
       </c>
@@ -10132,7 +10186,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="724" spans="1:2">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>1045</v>
       </c>
@@ -10140,7 +10194,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="725" spans="1:2">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>1047</v>
       </c>
@@ -10148,7 +10202,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="726" spans="1:2">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>1049</v>
       </c>
@@ -10156,7 +10210,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="727" spans="1:2">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>1051</v>
       </c>
@@ -10164,7 +10218,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="728" spans="1:2">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1053</v>
       </c>
@@ -10172,7 +10226,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="729" spans="1:2">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1055</v>
       </c>
@@ -10180,7 +10234,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="730" spans="1:2">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>1057</v>
       </c>
@@ -10188,7 +10242,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="731" spans="1:2">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>1059</v>
       </c>
@@ -10196,7 +10250,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="732" spans="1:2">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>1061</v>
       </c>
@@ -10204,7 +10258,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="733" spans="1:2">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>1063</v>
       </c>
@@ -10212,7 +10266,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="734" spans="1:2">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>1065</v>
       </c>
@@ -10220,7 +10274,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="735" spans="1:2">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>1067</v>
       </c>
@@ -10228,7 +10282,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="736" spans="1:2">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1069</v>
       </c>
@@ -10236,7 +10290,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="737" spans="1:2">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>1071</v>
       </c>
@@ -10244,7 +10298,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="738" spans="1:2">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>1073</v>
       </c>
@@ -10252,7 +10306,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="739" spans="1:2">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>1075</v>
       </c>
@@ -10260,7 +10314,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="740" spans="1:2">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>1077</v>
       </c>
@@ -10268,7 +10322,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="741" spans="1:2">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>1079</v>
       </c>
@@ -10276,7 +10330,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="742" spans="1:2">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>1081</v>
       </c>
@@ -10284,7 +10338,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="743" spans="1:2">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>1083</v>
       </c>
@@ -10292,7 +10346,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="744" spans="1:2">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>1085</v>
       </c>
@@ -10300,7 +10354,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="745" spans="1:2">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>1087</v>
       </c>
@@ -10308,7 +10362,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="746" spans="1:2">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>1089</v>
       </c>
@@ -10316,7 +10370,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="747" spans="1:2">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>1091</v>
       </c>
@@ -10324,7 +10378,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="748" spans="1:2">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>1093</v>
       </c>
@@ -10332,7 +10386,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="749" spans="1:2">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>1095</v>
       </c>
@@ -10340,7 +10394,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="750" spans="1:2">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>1097</v>
       </c>
@@ -10348,7 +10402,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="751" spans="1:2">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>1099</v>
       </c>
@@ -10356,7 +10410,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="752" spans="1:2">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>1101</v>
       </c>
@@ -10364,7 +10418,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="753" spans="1:2">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>1103</v>
       </c>
@@ -10372,7 +10426,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="754" spans="1:2">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1105</v>
       </c>
@@ -10380,7 +10434,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="755" spans="1:2">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1107</v>
       </c>
@@ -10388,7 +10442,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="756" spans="1:2">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>1109</v>
       </c>
@@ -10396,7 +10450,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="757" spans="1:2">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>1111</v>
       </c>
@@ -10404,7 +10458,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="758" spans="1:2">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>1113</v>
       </c>
@@ -10412,7 +10466,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="759" spans="1:2">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1115</v>
       </c>
@@ -10420,7 +10474,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="760" spans="1:2">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>1117</v>
       </c>
@@ -10428,7 +10482,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="761" spans="1:2">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>1119</v>
       </c>
@@ -10436,7 +10490,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="762" spans="1:2">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>1121</v>
       </c>
@@ -10444,7 +10498,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="763" spans="1:2">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>1123</v>
       </c>
@@ -10452,7 +10506,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="764" spans="1:2">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>1125</v>
       </c>
@@ -10460,7 +10514,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="765" spans="1:2">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>1127</v>
       </c>
@@ -10468,7 +10522,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="766" spans="1:2">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>1129</v>
       </c>
@@ -10476,7 +10530,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="767" spans="1:2">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>1131</v>
       </c>
@@ -10484,7 +10538,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="768" spans="1:2">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>1133</v>
       </c>
@@ -10492,7 +10546,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="769" spans="1:2">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>1135</v>
       </c>
@@ -10500,7 +10554,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="770" spans="1:2">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1137</v>
       </c>
@@ -10508,7 +10562,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="771" spans="1:2">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>1139</v>
       </c>
@@ -10516,7 +10570,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="772" spans="1:2">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>1141</v>
       </c>
@@ -10524,7 +10578,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="773" spans="1:2">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>1143</v>
       </c>
@@ -10532,7 +10586,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="774" spans="1:2">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>1145</v>
       </c>
@@ -10540,7 +10594,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="775" spans="1:2">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>1147</v>
       </c>
@@ -10548,7 +10602,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="776" spans="1:2">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1149</v>
       </c>
@@ -10556,7 +10610,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="777" spans="1:2">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>1151</v>
       </c>
@@ -10564,7 +10618,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="778" spans="1:2">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1153</v>
       </c>
@@ -10572,7 +10626,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="779" spans="1:2">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>1155</v>
       </c>
@@ -10580,7 +10634,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="780" spans="1:2">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>1157</v>
       </c>
@@ -10588,7 +10642,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="781" spans="1:2">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>1159</v>
       </c>
@@ -10596,7 +10650,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="782" spans="1:2">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>1161</v>
       </c>
@@ -10604,7 +10658,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="783" spans="1:2">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>1163</v>
       </c>
@@ -10612,7 +10666,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="784" spans="1:2">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>1165</v>
       </c>
@@ -10620,7 +10674,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="785" spans="1:2">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>1167</v>
       </c>
@@ -10628,7 +10682,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="786" spans="1:2">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>1169</v>
       </c>
@@ -10636,7 +10690,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="787" spans="1:2">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>1171</v>
       </c>
@@ -10644,7 +10698,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="788" spans="1:2">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>1173</v>
       </c>
@@ -10652,7 +10706,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="789" spans="1:2">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>1175</v>
       </c>
@@ -10660,7 +10714,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="790" spans="1:2">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>1177</v>
       </c>
@@ -10668,7 +10722,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="791" spans="1:2">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>1179</v>
       </c>
@@ -10676,7 +10730,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="792" spans="1:2">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>1181</v>
       </c>
@@ -10684,7 +10738,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="793" spans="1:2">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>1183</v>
       </c>
@@ -10692,7 +10746,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="794" spans="1:2">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>1185</v>
       </c>
@@ -10700,7 +10754,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="795" spans="1:2">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>1187</v>
       </c>
@@ -10708,7 +10762,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="796" spans="1:2">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>1189</v>
       </c>
@@ -10716,7 +10770,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="797" spans="1:2">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>1191</v>
       </c>
@@ -10724,7 +10778,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="798" spans="1:2">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>1193</v>
       </c>
@@ -10732,7 +10786,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="799" spans="1:2">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>1195</v>
       </c>
@@ -10740,7 +10794,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="800" spans="1:2">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>1197</v>
       </c>
@@ -10748,7 +10802,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="801" spans="1:2">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>1199</v>
       </c>
@@ -10756,7 +10810,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="802" spans="1:2">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>1201</v>
       </c>
@@ -10764,7 +10818,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="803" spans="1:2">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>1203</v>
       </c>
@@ -10772,7 +10826,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="804" spans="1:2">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>1205</v>
       </c>
@@ -10780,7 +10834,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="805" spans="1:2">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>1207</v>
       </c>
@@ -10788,7 +10842,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="806" spans="1:2">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>1209</v>
       </c>
@@ -10796,7 +10850,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="807" spans="1:2">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>1211</v>
       </c>
@@ -10804,7 +10858,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="808" spans="1:2">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>1213</v>
       </c>
@@ -10812,7 +10866,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="809" spans="1:2">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>1215</v>
       </c>
@@ -10820,7 +10874,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="810" spans="1:2">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>1217</v>
       </c>
@@ -10828,7 +10882,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="811" spans="1:2">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>1218</v>
       </c>
@@ -10836,7 +10890,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="812" spans="1:2">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>1220</v>
       </c>
@@ -10844,7 +10898,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="813" spans="1:2">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>1222</v>
       </c>
@@ -10852,7 +10906,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="814" spans="1:2">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>1224</v>
       </c>
@@ -10860,7 +10914,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="815" spans="1:2">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>1226</v>
       </c>
@@ -10868,7 +10922,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="816" spans="1:2">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>1228</v>
       </c>
@@ -10876,7 +10930,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="817" spans="1:2">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>1230</v>
       </c>
@@ -10884,7 +10938,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="818" spans="1:2">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>1232</v>
       </c>
@@ -10892,7 +10946,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="819" spans="1:2">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>1233</v>
       </c>
@@ -10900,7 +10954,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="820" spans="1:2">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>1235</v>
       </c>
@@ -10908,7 +10962,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="821" spans="1:2">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>1237</v>
       </c>
@@ -10916,7 +10970,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="822" spans="1:2">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>1239</v>
       </c>
@@ -10924,7 +10978,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="823" spans="1:2">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>1240</v>
       </c>
@@ -10932,7 +10986,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="824" spans="1:2">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>1241</v>
       </c>
@@ -10940,7 +10994,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="825" spans="1:2">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>1242</v>
       </c>
@@ -10949,17 +11003,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>